--- a/result/生词本导入模版_12.xlsx
+++ b/result/生词本导入模版_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>antithetical</t>
+          <t>antiquated</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>adj. 完全对立的，相反的： being in direct and unequivocal opposition</t>
+          <t>adj. 古老的，过时的： outmoded or discredited by reason of age: being out of style or fashion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Spiritual ideals seem antithetical to the materialism embraced by modern society.   精神上的理想境界往往同当代社会所推崇的唯物主义相抵触。</t>
+          <t>We saw an antiquated hand-cranked rope-making machine at the textiles museum.  我 们 在 纺 织 博 物馆里看到了一台手摇式古董制绳机。
+antiquated methods of farming  已经过时的耕种技术</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,17 +481,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>apparition</t>
+          <t>antithetical</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>n. 鬼魂，幽灵： a ghostly figure</t>
+          <t>adj. 完全对立的，相反的： being in direct and unequivocal opposition</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>An eccentric claimed to have photographed an apparition in her very own house.   一个行为怪异的人声称在她的住所里拍到了一张幽灵的照片。</t>
+          <t>Spiritual ideals seem antithetical to the materialism embraced by modern society.   精神上的理想境界往往同当代社会所推崇的唯物主义相抵触。</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,17 +503,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>applicable</t>
+          <t>apparition</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>adj. 可用的，可行的： capable of being put to use or account</t>
+          <t>n. 鬼魂，幽灵： a ghostly figure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Is that Act applicable in this case where suspect is a foreigner? 那条法规适用于这个嫌犯不是本国公民的案件么？</t>
+          <t>An eccentric claimed to have photographed an apparition in her very own house.   一个行为怪异的人声称在她的住所里拍到了一张幽灵的照片。</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -524,43 +525,43 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>applicable</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adj. 可用的，可行的： capable of being put to use or account</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Is that Act applicable in this case where suspect is a foreigner? 那条法规适用于这个嫌犯不是本国公民的案件么？</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>apprehensive</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>adj. 知晓的，理解的： having specified facts or feelings actively impressed on the mind
 adj. 恐惧的，害怕的： anxious or fearful about the future</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>I am fully apprehensive of the options, I assure you.  我向你保证这些观点我都理解了。
 People apparently haven’t recovered from the devastating terrorist attack and are still terribly apprehensiveabout the future.   人们显然没有从那场严重的恐怖袭击中恢复过来，对于未来仍然充满了恐惧。</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>arcane</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>adj. （语言）晦涩的，隐晦的： having an often intentionally veiled or uncertain meaning</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>The rebate form uses arcane language, the only purpose of which seems to be to disqualify buyers fromactually getting a rebate.   折扣单上的条文晦涩难懂，这样做的唯一目的也许就是让消费者不能真正地享受到折扣。</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -570,17 +571,65 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>arcane</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>adj. （语言）晦涩的，隐晦的： having an often intentionally veiled or uncertain meaning</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>The rebate form uses arcane language, the only purpose of which seems to be to disqualify buyers fromactually getting a rebate.   折扣单上的条文晦涩难懂，这样做的唯一目的也许就是让消费者不能真正地享受到折扣。</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>argument</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>n. 争吵，争论： an often noisy or angry expression of differing opinions
+n. （逻辑上的）论证： a coherent series of statements leading from a premise to a conclusion
+n. 观点，论点： an idea or opinion that is put forth in a discussion or debate</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>The couple’s arguments were often loud enough to be heard all over the neighborhood.  这 对 夫 妻 吵架的声音往往大到能被邻居听见。
+In his argument the author committed several logical fallacies which undermined its soundness.   在 作 者的论述中出现了若干逻辑谬误，从而降低了它论证的力度。
+It is and will always be my argument that we have too many problems here on earth to concern ourselveswith manned trips to Mars.   我现在和以后的观点都将会是：在我们解决地球上的问题之前，不应该花太多的心思考虑载人火星计划的事情。</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>array</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>n. 排列，阵列： a regular and imposing grouping or arrangement
 vt. 排列，摆放： to arrange or display in or as if in an array
 vt. 装饰，装修： to dress or decorate especially in splendid or impressive attire</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>a marching band’s carefully choreographed array  前进中的乐队所摆出的经过复杂编排的方针
 data arrayed in descending order  按照降序排列的数据
@@ -589,95 +638,51 @@
 a door arrayed for theholidays with a beautiful evergreen wreath  被美丽的常青花环妆点的节日大门</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>assail</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>vt. 抨击，严厉批评： to criticize harshly and usually publicly</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">The union organizers assailed the chemical company for failing to provide a safe working environment.  </t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>attest</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>vt. 证实，为…作证： to give evidence or testimony to the truth or factualness of</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">Her fine work attests her ability.   她的优秀作品能够证明她的能力。
 I can attest that she was at the party.  </t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>attune</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>vt. 使协调，使和谐： to bring into harmony</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>After years spent in academia, he found it difficult to attune himself to the corporate culture.   在 学 术 圈 摸爬滚打多年之后，他发现自己很难融入企业文化之中。</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>auspicious</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>adj. 好兆头的： pointing toward a happy outcome</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>began the season with an auspicious win against their strongest football rival  在赛季之初就战胜了最强的对手，为整个赛季赢得了好兆头</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -687,88 +692,92 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>attune</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>vt. 使协调，使和谐： to bring into harmony</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>After years spent in academia, he found it difficult to attune himself to the corporate culture.   在 学 术 圈 摸爬滚打多年之后，他发现自己很难融入企业文化之中。</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>auspicious</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adj. 好兆头的： pointing toward a happy outcome</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>began the season with an auspicious win against their strongest football rival  在赛季之初就战胜了最强的对手，为整个赛季赢得了好兆头</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>austere</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>adj. 朴素的，朴实无华： markedly simple or unadorned
 adj. 严肃的，令人生畏的： stern and cold in appearance or manner</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>For the private office of the CEO of the large corporation, the room is unexpectedly austere.   出 人 意 料 的是，大公司总裁的私人办公室居然十分朴素。
 an austere fortress at the top of some formidable cliffs  建立在悬崖峭壁之上的一座令人畏惧的堡垒
 In hismemory his deceased grandfather is an austere, distant, cold person.  在他的记忆之中，已过世的祖父是一个严肃、冷漠而难以接近的人。</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>bash</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>n. 猛击： a forceful blow
 vt. 攻击，用力击打： to strike violently and often repeatedly
 vt. 抨击，严厉批评： to criticize harshly and usually publicly</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>He has not been the same ever since he received that bash on his head.   自从他脑袋被别人打了之后，他就变得大不一样。
 The angry child kept bashing her toy with a hammer until it broke.  愤怒的小孩用锤子不断地敲击她的玩具，直到它彻底被破坏。
 In all of talk radio no other host seems to enjoy bashing liberals as much as he does.   在 电 台 节 目 再 没有像他一样热衷于抨击自由主义者的主持人了。</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>bask</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>vi. 休息，悠然自得： to lie or relax in a pleasant warmth or atmosphere</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>belligerent</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>adj. 好斗的，好战的： inclined to or exhibiting assertiveness, hostility, or combativeness</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>The coach became quite belligerent and spit at an umpire after being thrown out of the game.   教 练 变得好斗起来，以至于在被罚出场外之后转身向裁判吐口水。</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -778,66 +787,62 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>bask</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>vi. 休息，悠然自得： to lie or relax in a pleasant warmth or atmosphere</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>belligerent</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>adj. 好斗的，好战的： inclined to or exhibiting assertiveness, hostility, or combativeness</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>The coach became quite belligerent and spit at an umpire after being thrown out of the game.   教 练 变得好斗起来，以至于在被罚出场外之后转身向裁判吐口水。</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>beset</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>vt. 使苦恼，骚扰： to cause persistent suffering to
 vt. 攻击，袭击： to set upon</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>He has been beset by a lack of self-confidence virtually his entire life.  事实上他的一生都在被缺乏自信所困扰。
 The settlers were beset by savages.   定居者们遭到了野蛮人的袭击。
 The unsuspecting tourists weresuddenly beset by robbers.  丝毫没有准备的游客遭到了歹徒的突然袭击。</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>blackmail</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>n./vi. 敲诈，勒索： extortion of money or something else of value from a person by the threat ofexposing a criminal act or discreditable information</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>It looks like these pornographic pictures were being used for blackmail.   看起来有人用这些不雅照进行敲诈勒索。</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bluff</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>adj. 直率的，（说话）直截了当的： being or characterized by direct, brief, and potentially rude speechor manner</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Frankly speaking, he is a bluff but good-hearted teacher.  老实说，这个老师说话很直率，但是心地善良。</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -847,17 +852,61 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>blackmail</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>n./vi. 敲诈，勒索： extortion of money or something else of value from a person by the threat ofexposing a criminal act or discreditable information</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>It looks like these pornographic pictures were being used for blackmail.   看起来有人用这些不雅照进行敲诈勒索。</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>bluff</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>adj. 直率的，（说话）直截了当的： being or characterized by direct, brief, and potentially rude speechor manner</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Frankly speaking, he is a bluff but good-hearted teacher.  老实说，这个老师说话很直率，但是心地善良。</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>brim</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>n. 边缘，边界： an upper or outer margin
 vi. 充满： to be or become full often to overflowing
 vt. 加满，倒满： to put into (something) as much as can be held or contained</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>The brim of the teacup was banded with gold.   茶杯的边缘被镀上了金。
 a secondhand bookstore that was brimming with bargains  一 个 到 处 都 是 减 价 品 的 二 手 书 店
@@ -865,73 +914,29 @@
 He brimmed the glass with milk, and now I’m afraid that I will spill it.   他向杯子里倒了太多牛奶，我现在担心会不会洒出来。</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>calamity</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>n. 大灾难： a disastrous event marked by great loss and lasting distress and suffering</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>This latest breakdown of the car is inconvenient, but not a calamity.   最近的汽车抛锚确实带来了不便，但还不是一场灾难。
 an economic calamity  金融风暴</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>calculated</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>adj. 经过计算（成败得失）的，经过深思熟虑的： engaged in, undertaken, or displayed after reckoningor estimating the statistical probability of success or failure</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>He took a calculated risk and got in on the ground floor of the new enterprise.   他深思熟虑一番之后决定冒这个险，踏出了迈向新计划的第一步。</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>captious</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>adj. 吹毛求疵的，爱挑毛病的： marked by an often ill-natured inclination to stress faults and raiseobjections</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>a captious and cranky eater who has never met a vegetable he didn’t hate  一个古怪又挑剔的食客，从来就没有他不讨厌的蔬菜</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -941,17 +946,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ceremonious</t>
+          <t>calculated</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>adj. 讲究礼节的，庄重的： marked by or showing careful attention to set forms and details</t>
+          <t>adj. 经过计算（成败得失）的，经过深思熟虑的： engaged in, undertaken, or displayed after reckoningor estimating the statistical probability of success or failure</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A century ago everyday life was much more ceremonious than in our anything-goes era.  一 个 世 纪 之前的生活和我们现在这个随便怎么都无所谓的年代相比，多出了许多要讲究的礼节。</t>
+          <t>He took a calculated risk and got in on the ground floor of the new enterprise.   他深思熟虑一番之后决定冒这个险，踏出了迈向新计划的第一步。</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -963,17 +968,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>certitude</t>
+          <t>captious</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>n. 确信无疑： the state of being or feeling certain</t>
+          <t>adj. 吹毛求疵的，爱挑毛病的： marked by an often ill-natured inclination to stress faults and raiseobjections</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>I believes with certitude that he is the best candidate for the job.   我确信他是这项工作的最佳人选。</t>
+          <t>a captious and cranky eater who has never met a vegetable he didn’t hate  一个古怪又挑剔的食客，从来就没有他不讨厌的蔬菜</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -985,464 +990,457 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>cellular</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>adj. 多孔的： containing cavities; having a porous texture</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>the cellular construction of a beehive  蜂巢的多孔结构</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ceremonious</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>adj. 讲究礼节的，庄重的： marked by or showing careful attention to set forms and details</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A century ago everyday life was much more ceremonious than in our anything-goes era.  一 个 世 纪 之前的生活和我们现在这个随便怎么都无所谓的年代相比，多出了许多要讲究的礼节。</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>certitude</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>n. 确信无疑： the state of being or feeling certain</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>I believes with certitude that he is the best candidate for the job.   我确信他是这项工作的最佳人选。</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>channel</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>n. 水渠： an open man-made passageway for water
 n. 海峡： a narrow body of water between two land masses
 vt. 将…导向，投入： to cause to move to a central point or along a restricted pathway</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Water was drained from the swamp through a specially constructed channel.   这块沼泽通过一条特殊建造的水渠源源不断地向外输水。
 the world record for swimming the channel between Alaska and Chukotskiy  横渡阿拉斯加和楚科奇之间海峡（也即白令海峡）的世界纪录
 a youth who channeled all of his energy into sports  一个将毕生精力都投入体育之中的少年</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>chivalrous</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>adj. 有骑士风度的，（尤指对女性）彬彬有礼的： marked by gracious courtesy and high-mindedconsideration(especially to women)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>still engages in chivalrous behavior, such as opening doors for people  仍然坚持着有风度的行为，比如帮别人开门</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>chorale</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>n. 赞美诗： a hymn or psalm sung to a traditional or composed melody in church
 n. 合唱班，合唱团： an organized group of singers</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>practiced a chorale to perform in church  练习吟唱要在教堂表演的赞美诗
 a chorale that is regarded as being among the best in the state  一个被认为是国内一流的合唱班</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>clamor</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>n. 喧闹，喧哗，噪声： loud, confused, and usually inharmonious sound</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>A clamor arose from the crowd as the prisoner was brought forward.   当犯人被带上前台时，人群中爆发出一阵骚动。
 the clamor of a dozen people practicing the trumpet at once  一群人同时练习小号时发出的噪音</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>clan</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>n. （有共同爱好的）团体，帮派： a group united by a common interest or common characteristics</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>That clan of football fans has parties every weekend on which the New England Patriots play.   只 要 是新英格兰爱国者队有比赛的周末，那帮球迷就会举行聚会。</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>cleave</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>vi. 紧贴，坚持： to adhere firmly and closely or loyally and unwaveringly
 vt. 分隔，割裂： to divide by or as if by a cutting blow</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>You should resolutely cleave to the facts in your report.   你应该在报道中坚持客观的原则。
 His spade cleaved the firm sand with a harsh crunch.   他的锹凿开了坚实的砂土，发出尖锐刺耳的嘎扎声。</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>cling</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>n. 粘结，粘合： a physical sticking to as if by glue
 vi. 紧贴，支持： to adhere as if glued firmly</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>For certain types of materials that plastic wrap has very little cling.  对于某些材料，那种塑料保鲜袋的粘性不好。
 a dozen magnets clinging to the refrigerator  贴靠在冰箱门上的磁石
 continued to cling to the old ideasof child rearing long after they had gone out of fashion  仍然坚持关于抚养孩子的老观念，尽管它们已经过时</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>cohesive</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>adj. 有粘性的，有凝聚力的： exhibiting or producing cohesion or coherence</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>a cohesive social unit  有凝聚力的社会个体
 cohesive soils  有粘性的土壤</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>collaborate</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>vi. 合作： to work jointly with others or together especially in an intellectual endeavor</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>The two men collaborated on a blockbuster in 1986 which gained both of them fame.   两人在 1986 年合作出演了一部十分卖座的电影，由此获得了巨大的名声。</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>compatible</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>adj. 一致的，能共存的： capable of existing together in harmony</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>I don’t think that they could be compatible as roommates.   我不觉得他们做了室友之后生活会很和谐。
 atheory that is compatible with what we already know about early man  一个与对远古人类的已有知识不存在矛盾的理论</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>compelling</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>adj. 极具说服力的： having the power to persuade
 adj. 迫切的，紧迫的： needing immediate attention</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>made a compelling argument against military intervention  就反对军事干预提出了很有说服力的论证
 Ifyou can’t present any compelling evidence to prove your innocence, you will be found guilty.  如 果 你 找 不 出 任何能证明你清白的有力证据，你就会被定罪。
 There is no compelling need to raise taxes at this time.   现在没有迫切的提升税率的必要。</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>complementary</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>adj. 互补的： mutually supplying each other’s lackMade By Jason &amp; Franklin. This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>The complementary contributions of the cooking and cleanup committees were essential to the success ofthe barbecue.  负责食物和卫生的两个小组之间的相互配合是野炊成功的关键。</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>adj. 互补的： mutually supplying each other’s lack</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>complicate</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>vt. 使复杂化： to make complex or difficult</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Don’t complicate matters by getting the parents involved.  不要把父母牵扯进来，这会让问题更复杂。</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>comprehend</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>vt. 理解，了解： to grasp the nature, significance, or meaning of
 vt. 包括，包含： to contain or hold within a total scope, significance, or amount</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>the age at which children can comprehend the difference between right and wrong  一个小孩可以开始分辨是非的年龄
 With internet, television, cellphone and even radio down, we are unable to comprehend what hashappened.  互联网、电视、手机乃至无线电都不起作用了，我们无法获知发生了什么。
 Our notion of morality should comprehend much more than proper sexual behavior.  我 们 的 道 德 观 不应该仅仅止步于恰当的性行为。</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>concrete</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>adj. 实体的，实在的： relating to or composed of matter
 adj. 事实性的，明确的： existing in fact and not merely as a possibility</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>concrete objects like rocks and trees  像石头、树这一类的实物
 Concrete evidence, and not just a theory, must be presented at a trial.  在法庭上需要出示确凿的证据，而非臆测。</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>condemn</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>vt. 谴责（为不道德的、邪恶的）： to declare to be reprehensible, wrong, or evil usually after weighingevidence and without reservation</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>a policy widely condemned as racist  一个被广泛谴责为种族歧视的政策
 It is a sign of human progressthat slavery, which was once common, is now universally condemned.   曾经很平常的奴隶制如今却沦落到人人谴责的境地，这不能不说是人类文明的进步。</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>conditional</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>adj. 有条件的，受制约的： subject to, implying, or dependent upon a condition</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>a conditional offer  有条件限制的录取
 Their support is conditional on their approval of his proposals.   他只有让他的提案得到他们的同意才能得到援助。</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>conflate</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>vt. 混合： to turn into a single mass or entity that is more or less the same throughout</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>The movie conflates documentary footage and dramatized reenactments so seamlessly and ingeniouslythat viewers may not know what is real and what is not.  电影将纪实档案和娱乐性的夸张如此巧妙无缝地糅合起来，以至于观众不知道哪一部分是真实的，哪一部分是虚构的。</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>conform</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>vt. 使协调： bring into harmony or accord</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We have to conform this new rule with existing policy regarding student-run organizations on campus.  </t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>conjure</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>vt. 请求，恳求： to charge or entreat earnestly or solemnly
-vi. 在脑海中浮现： to form a mental picture of</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>I conjure you to hear my plea for mercy.   请您发发慈悲吧。
-He conjured them with his dying breath tolook after his children.   临终前他恳求他们照顾他的孩子。Made By Jason &amp; Franklin.   This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.  
-With certain flowers I instantly conjure up memories of our Caribbean honeymoon.   这些鲜花让我立即回想起加勒比海的蜜月之旅。</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1452,387 +1450,383 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>conflate</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>vt. 混合： to turn into a single mass or entity that is more or less the same throughout</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>The movie conflates documentary footage and dramatized reenactments so seamlessly and ingeniouslythat viewers may not know what is real and what is not.  电影将纪实档案和娱乐性的夸张如此巧妙无缝地糅合起来，以至于观众不知道哪一部分是真实的，哪一部分是虚构的。</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>conform</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>vt. 使协调： bring into harmony or accord</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We have to conform this new rule with existing policy regarding student-run organizations on campus.  </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>conjure</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>vt. 请求，恳求： to charge or entreat earnestly or solemnly</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>I conjure you to hear my plea for mercy.   请您发发慈悲吧。
+He conjured them with his dying breath tolook after his children.   临终前他恳求他们照顾他的孩子。</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>consent</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>n. 同意，赞同： the approval by someone in authority for the doing of something
 vi. 同意： to give assent or approval</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>We had to get our neighbor’s consent in order to trim the tree from his side.   想要从邻居家那边修剪树木，我们得先得到他们的同意。
 consent to being tested in her neurobiology experiment  同意作为被试参加神经生物学的实验
 refused toconsent to the marriage  拒绝这桩婚事</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>consign</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>vt. 转交，转移（给他人）： to give, transfer, or deliver into the hands or control of another</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>The record shows that the deliveryman had consigned our package to a next-door neighbor.  记 录 显示邮递员把我们的包裹转投给隔壁邻居了。
 a writer consigned to oblivion  湮没无闻的作家</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>consternation</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>n. 惊愕，恐慌，恐惧： a state of paralyzing dismay</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>The two girls stared at each other in consternation without any idea about what to do.   两 个 小 女 孩 惊 恐地望着对方，显得不知所措。</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>contemplate</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>vt./vi. 沉思，仔细思索： to view or consider with continued attention</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>contemplate the vastness of the universe  沉思着宇宙的广袤无垠
 She contemplated the problem forseveral hours before reaching a decision.  她苦苦思索了几个小时的问题后才做出决定。</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>contempt</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>n. 蔑视，鄙视： open dislike for someone or something considered unworthy of one's concern orrespect</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>my undying contempt for people who abuse animals  我对于虐待动物者的无尽鄙视
 Her contempt forilliterate was obvious.   你可以很明显地看出她对文盲的鄙夷。</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>contend</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>vi. 竞争，争夺： to strive or vie in contest or rivalry or against difficulties
 vt. 声明，声称： to state as a fact usually forcefully</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>two traditional rivals contending for the championship  两支争夺冠军头衔的老对手
 contended that his opponent was wrong about practically everything  宣称对手几乎在所有问题上都犯了错误
 that the his considerable experience made him the best candidate  声称因为他见多识广，所以是最佳人选</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>contradict</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>vt. 否认，反驳；相矛盾： to assert the contrary of; to imply the opposite or a denial of</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>contradict a rumor  反驳谣言
 Your actions contradict your words.   你的行为和你说的话自相矛盾。</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>contrived</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>adj. 不自然的，刻意的：lacking in natural or spontaneous quality</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>We are bored with the contrived applause of a TV studio audience that has been told when to clap.  摄影棚中的观众会被告知什么时候鼓掌，这种经过精心指挥的掌声让我们倍感困倦。</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>correlate</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>vt. 使…相关联： to establish a mutual or reciprocal relation between</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>a demanding father who always correlated success with hard work  一个总将成功和辛勤工作关联起来的严格父亲
 In this work, we correlate the simulation in the lab and the observation in the field to examine thevalidity of our theory.   本文中，我们将实验室的模拟结果和场地外的观测数据联系起来以验证理论的真实性。</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>counterpart</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>n. （地位、功能）对等的人或物： one having the same function or characteristics as anotherMade By Jason &amp; Franklin. This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>She worked with her counterpart in the other office to get the job done.   她与另一个办公室的同职人员一起努力完成这项工作。
-U.  S.   presidents and his British counterpart  美国总统和英国首相</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>n. （地位、功能）对等的人或物： one having the same function or characteristics as another</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>courteous</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>adj. 礼貌的，恭谦有礼的： marked by polished manners, gallantry, or ceremonial usage of a court</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Their customer service department always gives courteous responses, even to rude people.  哪 怕 是对粗鲁的消费者，他们的客服部门总是用一种非常有礼貌的态度回复。</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>credible</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>adj. 可信的，值得信赖的： worthy of being accepted as true or reasonable</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>It’s not perfect, but is at least a credible explanation.  尽管还不算完美，但这好歹也算是可信的解释了。
 a credible account of an accident  事故的可靠报道</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>credit</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>n. 信任，信赖： mental conviction of the truth of some statement or the reality of some being orphenomenon
 n. 表扬，赞扬： public acknowledgment or admiration for an achievement</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>I give full credit to this report on the prevalence of cheating among college students today.   我 非 常 相 信这则有关大学中作弊成风的报道。
 She deserves all the credit, since she did all the work.   是她完成了所有的工作，因此荣誉都应该归她所有。</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>decry</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>vt. 强烈反对，否定： to express strong disapproval of</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Scientists were quick to decry the claims of the psychic.  通 灵 者 的 说 法 很 快 就 遭 到 了 科 学 家 的 反对。
 decry the excessive emphasis on sex  谴责对于性的过分重视</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>deign</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>vi. （不情愿地）屈尊，俯就： to condescend reluctantly and with a strong sense of the affront to one'ssuperiority that is involved</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>I would never deign to answer that absurd accusation.   我根本不屑于去解释那样一个荒谬的指责。</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>delineate</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>vt. 勾勒，用线条描绘： to indicate or represent by drawn or painted lines</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>lights delineating the narrow streets  勾勒狭窄街道线条的路灯</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>desperate</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>adj. 绝望的： feeling or showing no hope</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>a desperate spirit crying for relief  一个渴望宽慰的绝望的灵魂</t>
-        </is>
-      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1842,17 +1836,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>dichotomy</t>
+          <t>deign</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>n. 一分为二，分割： a division into two especially mutually exclusive or contradictory groups orentities</t>
+          <t>vi. （不情愿地）屈尊，俯就： to condescend reluctantly and with a strong sense of the affront to one'ssuperiority that is involved</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>a dichotomy between the academic world and the industrial world  学术界和工业界的割裂</t>
+          <t>I would never deign to answer that absurd accusation.   我根本不屑于去解释那样一个荒谬的指责。</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1864,159 +1858,156 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>delineate</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>vt. 勾勒，用线条描绘： to indicate or represent by drawn or painted lines</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>lights delineating the narrow streets  勾勒狭窄街道线条的路灯</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>desperate</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>adj. 绝望的： feeling or showing no hope</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>a desperate spirit crying for relief  一个渴望宽慰的绝望的灵魂</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>dichotomy</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>n. 一分为二，分割： a division into two especially mutually exclusive or contradictory groups orentities</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>a dichotomy between the academic world and the industrial world  学术界和工业界的割裂</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
           <t>dictate</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>n. 指令，命令： a command by one in authority
 vt. （仗着地位、权力）下令： to request the doing of by virtue of one’s authority</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>followed the dictates of my conscience  遵从我的良心准则
 The army must abide by the dictates of thenew government.   军队必须服从新政府的命令。
 The general dictated that the terms of surrender be negotiated by his senior staff.   将军要求投降书中的若干条款交付手下的高级将领进行讨论。</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>discreet</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>adj. （言行）谨慎的： having or showing good judgment and restraint especially in conduct or speech
-adj. 不易察觉的： not readily seen or noticed</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>He was very discreet, only saying what was necessary.   他是个十分谨慎的人，从来不说多余的话。Made By Jason &amp; Franklin.   This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.  
-With a discreet gesture, she signaled to her husband that she was ready to leave the party.   她 用 一 个 不起眼的手势向丈夫暗示准备离开聚会。
-followed at a discreet distance  远远地跟踪</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>adj. （言行）谨慎的： having or showing good judgment and restraint especially in conduct or speech</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>He was very discreet, only saying what was necessary.   他是个十分谨慎的人，从来不说多余的话。</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>disprove</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>vt. 证伪，证明为假： to prove to be false or wrong</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Magellan’s circumnavigation of the globe disproved any lingering notions that the earth is flat.   麦 哲 伦的环球旅行彻底否认了任何残存的“地球是平的”的观念。</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>distinctive</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>adj. 完全不同的： being not of the same kind
 adj. 特征性的，典型的： serving to identify as belonging to an individual or group</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>She seems to alternate between two distinctive hairstyles.   她的发型似乎在两种截然不同的样式中交替。
 She seems to alternate between two distinctive hairstyles.   她的发型似乎在两种截然不同的样式中交替。</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>doctrinaire</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>adj. 教条主义的，照本宣科的： given to or marked by the forceful expression of strongly heldopinions</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>A doctrinaire conservative, the columnist takes special delight in baiting liberals.   这个专栏作家是个谨遵教条的顽固保守主义者，他很享受挑衅那些自由主义者。</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>drab</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>adj. 单调的，无聊的： characterized by dullness and monotony</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>The new city hall turned out to be another drab pile of masonry for the town.   新的市政大厅结果又是城镇里一座单调无趣的砖瓦堆积物。</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>dramatic</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>adj.显著的，惹人注意的： striking in appearance or effect</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>a dramatic drop in the temperature overnight  夜晚气温的显著下降</t>
-        </is>
-      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2026,17 +2017,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>dread</t>
+          <t>doctrinaire</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>n. 恐惧： great fear especially in the face of impending evil</t>
+          <t>adj. 教条主义的，照本宣科的： given to or marked by the forceful expression of strongly heldopinions</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>We were filled with dread when we saw the rapids we would be rafting down.   当我们看到竹筏驶向的激流时，我们的内心被恐惧所占据。</t>
+          <t>A doctrinaire conservative, the columnist takes special delight in baiting liberals.   这个专栏作家是个谨遵教条的顽固保守主义者，他很享受挑衅那些自由主义者。</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2048,17 +2039,83 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>drab</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>adj. 单调的，无聊的： characterized by dullness and monotony</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>The new city hall turned out to be another drab pile of masonry for the town.   新的市政大厅结果又是城镇里一座单调无趣的砖瓦堆积物。</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>dramatic</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>adj.显著的，惹人注意的： striking in appearance or effect</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>a dramatic drop in the temperature overnight  夜晚气温的显著下降</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>dread</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>n. 恐惧： great fear especially in the face of impending evil</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>We were filled with dread when we saw the rapids we would be rafting down.   当我们看到竹筏驶向的激流时，我们的内心被恐惧所占据。</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
           <t>duplicate</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>n. 复制品： either of two things exactly alike and usually produced at the same time or by the sameprocess
 vt. 复制： to make a copy of
 vt. 重复，反复： to do over or again often needlessly</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">a duplicate of a house key  房间钥匙的复制品
 Your computer is almost a duplicate of mine.  你 的 电脑和我的几乎一模一样。
@@ -2067,164 +2124,98 @@
 We were unable to duplicate the experiment with the same result in our own lab, so we’re suspicious.  </t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>dynamic</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>adj. 有力量的，有活力的： marked by usually continuous and productive activity or change; energetic</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>He has become a dynamic new challenger for the title of champion.   他 成 为 了 有 望 夺 的 有 活 力 的 新 选手。
 a dynamic speech expressing her goals and values  宣扬她的目标和理念的慷慨激昂的演讲</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>eclectic</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>adj. 混合的，多元化的： composed of elements drawn from various sources</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve">The museum’s eclectic collection has everything from a giraffe skeleton to medieval musical instruments.  </t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>efficacious</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>adj. 有效的： having the power to produce a desired effect</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Taking break with a cup of coffee while studying is one of the most efficacious ways of rejuvenating themind that I have ever discovered.  在紧张的学习中休息一会，喝杯咖啡，是我发现的最能提神的方法之一。</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>elude</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>vt. 躲闪，躲避： to avoid adroitly
 vt. 使无法理解，使困惑： to escape the perception, understanding, or grasp of</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>managed to elude capture  成功躲过了追捕
 The mil ionaire had been eluding his fair share of taxes foryears before getting caught.  在被逮捕之前，这名富翁逃税已经有若干年了。
 a metaphor that eluded them  一个让他们无法理解的比喻</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>enamored</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>adj. 迷恋的，热爱的： filled with an intense or excessive love for</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Many teenage girls became enamored of the movie idol for her boyish good looks.   很多年轻的女孩子因为影星男性化的帅气面庞而对她深深迷恋。</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>enthrall</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>vt. （像用魔咒般）吸引： to hold the attention of as if by a spell</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Enthralled by the flickering aurora in the sky, we lost all track of time.   我们被夜空里变化莫测的极光深深地吸引，以至于忘却了时间。</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>ethos</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>n. 道德准则： the code of good conduct for an individual or group</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Rigorous self-discipline was central to the ethos of the ancient Spartans.   严格的自律是古代斯巴达人所尊崇的核心道德准则。</t>
-        </is>
-      </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2234,17 +2225,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>exorcise</t>
+          <t>enamored</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>vt. 除去： to get rid of (something troublesome, menacing, or oppressive)</t>
+          <t>adj. 迷恋的，热爱的： filled with an intense or excessive love for</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Please exorcise that offensive word from your vocabulary.   请把那个粗鲁的词从你的字典里删掉。本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。</t>
+          <t>Many teenage girls became enamored of the movie idol for her boyish good looks.   很多年轻的女孩子因为影星男性化的帅气面庞而对她深深迷恋。</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2256,17 +2247,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>explicate</t>
+          <t>enthrall</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>vt. 解释，说明： to give a detailed explanation of</t>
+          <t>vt. （像用魔咒般）吸引： to hold the attention of as if by a spell</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>The physicist did his best to explicate the wave theory of light for the audience of laymen.   物 理 学 家 尽其所能向一群非专业的群众解释了光的波动性理论。</t>
+          <t>Enthralled by the flickering aurora in the sky, we lost all track of time.   我们被夜空里变化莫测的极光深深地吸引，以至于忘却了时间。</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2278,17 +2269,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>exterminate</t>
+          <t>ethos</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>vt. 根除，消灭： to get rid of completely usually by killing off</t>
+          <t>n. 道德准则： the code of good conduct for an individual or group</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>We hope that the fumigant exterminates the whole colony of cockroaches, for any survivors may beresistant to any poison.  我们希望所有的蟑螂都能被杀虫剂根除，因为任何幸存者都可能产生抗药性。</t>
+          <t>Rigorous self-discipline was central to the ethos of the ancient Spartans.   严格的自律是古代斯巴达人所尊崇的核心道德准则。</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2300,17 +2291,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>extrapolate</t>
+          <t>exorcise</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>vt. （通过逻辑）推断： to form an opinion or reach a conclusion through reasoning and information</t>
+          <t>vt. 除去： to get rid of (something troublesome, menacing, or oppressive)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>We can extrapolate from past economic recessions the probable course of the current one.   通 过 以 往 经济衰退的原因我们可以推断出本次危机的可能起源。</t>
+          <t>Please exorcise that offensive word from your vocabulary.   请把那个粗鲁的词从你的字典里删掉。</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2322,352 +2313,418 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>explicate</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>vt. 解释，说明： to give a detailed explanation of</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>The physicist did his best to explicate the wave theory of light for the audience of laymen.   物 理 学 家 尽其所能向一群非专业的群众解释了光的波动性理论。</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>exterminate</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>vt. 根除，消灭： to get rid of completely usually by killing off</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>We hope that the fumigant exterminates the whole colony of cockroaches, for any survivors may beresistant to any poison.  我们希望所有的蟑螂都能被杀虫剂根除，因为任何幸存者都可能产生抗药性。</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>extrapolate</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>vt. （通过逻辑）推断： to form an opinion or reach a conclusion through reasoning and information</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>We can extrapolate from past economic recessions the probable course of the current one.   通 过 以 往 经济衰退的原因我们可以推断出本次危机的可能起源。</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
           <t>fallible</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>adj. 可能出错的： tending or likely to be erroneous or capable of making an error</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>They are only human and all too fallible.   他们都是人类，因此难免犯错。
 a hasty, fallible generalization</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>fervent</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>adj. 充满感情的，热情洋溢的： exhibiting or marked by great intensity of feeling</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>a fervent speech that called for tolerance and compassion for those who are physically challenged  一个充满感情的演说，它呼吁人们对残疾人持有一颗包容和同情的心</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>figment</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>n. 虚构的事物，幻觉： something made up or contrived</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Unable to find any tracks in the snow the next morning, I was forced to conclude that the shadowy figurehad been a figment of my imagination.   第二天一早，我没有在雪地上发现任何足迹，由此我不得不相信昨晚幽灵一样的物体只是我的空想。
 Thus far, the invisible human being has been nothing more than a figment of fantasywriters.   到目前为止，隐形人还仅仅只是玄幻小说笔下的构想。</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>forebode</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>vi. 预示，预兆： to show signs of a favorable or successful outcome</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>That police car parked outside the house doesn’t forebode well.   门外停着的那辆警车可不是什么好兆头。</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>forfeit</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>n. 罚金： a sum of money to be paid as a punishment</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>The forfeit for each baseball player involved in the brawl was $5,000.   参加大家的篮球运动员都受到了五千美元的罚款。</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>forsake</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>vt. 彻底放弃，抛弃： to renounce or turn away from entirely</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>Forsaking most of our possessions, we evacuated just before the hurricane struck.   我们抛下了绝大多数的财产，终于在海啸来袭之前撤离了。
 Her boyfriend has forsaken her.   她的男朋友将她抛弃。</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>germinate</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>vi. 发芽： to begin to grow
 vi. 出现： to come into being</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Some seed varieties germinate very quickly.   有一些种子的变异体能够迅速发芽。
 A truly marvelous proof of this theorem germinated in his mind.   这个定理的一种绝妙证明方法浮现在他的脑海之中。</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>grudge</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>n. 怨恨，仇恨： a feeling of deep-seated resentment or ill will</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>There has been a grudge between the two families for years.  两家之间积怨已深。
 He has had a deepgrudge against her ever since she snubbed him at the dance.   自从她在舞会上对他不理不睬之后，他就对她怀有深深的怨念。</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>halfhearted</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>adj. 不感兴趣的，不热情的： lacking heart, spirit, or interest</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>a halfhearted attempt to clean the house before the arrival of the in-laws  在亲家到来前草草地收拾房间了事</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>humdrum</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>n. 千篇一律，单调： a tedious lack of variety
 adj. 无聊的，乏味的： lacking variety or excitement</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>She has been loathing the humdrum of daily life in a small town for a long time.  一 直 以 来她 很 反感 于小城镇里一成不变的生活。
 trapped in a humdrum but well-paid job  陷于无聊但是收入可观的工作之中</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>humiliate</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>vt. 羞辱，使丧失尊严： to reduce to a lower position in one’s own eyes or others’ eyes</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">No student feels humiliated for not having the “right” clothes because everyone is wearing a school uniform.  </t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>hypothetical</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>n. 假设，前提条件： something taken as being true or factual and used as a starting point for a courseof action or reasoning
 adj. 假定的： existing only as an assumption or speculation</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>He believes that predictions of the extinction of certain species as the result of global warming are basedupon too many hypotheticals.   他认为所谓全球变暖会导致某些物种灭绝的说法基于过多的假设。
 We talked about what we would do in various hypothetical emergencies.   我们讨论了在假定的各种紧急情况下的对策。</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>impunity</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>n. 免责，免受处罚： exemption or freedom from punishment, harm, or loss</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>She mistakenly believed that she could insult people with impunity.   她错误地认为她可以肆无忌惮地羞辱他人。</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>incentive</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>n. 刺激，诱因： something that incites or has a tendency to incite to determination or action</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>The handsome reward for the missing wallet was an incentive for me to start looking.   找 到 丢 失 钱 包 的可观报酬激励我展开搜寻。
 A little bonus will give employees an incentive to work harder.  一 点 点 奖 金 就 可以刺激雇员更加努力地工作。</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>justify</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>vt. 证明…的合理性，辩解： to prove or show to be just, right, or reasonable</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>failed to justify the need for a new expressway at this time  没能证明修建新的高速公路的合理性
 Thestorm warning justified his leaving early.   他的早退因为风暴预警而显得理所当然。</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>n. 许可，认可： the approval by someone in authority for the doing of something
 n. 自由： the right to act or move freely
@@ -2675,7 +2732,7 @@
 vt. 准许，授权使用： to permit or authorize especially by formal license</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>The company is seeking license to operate several more power plants in the state.   公司正在寻求在国内建造更多电厂的许可。
 A restaurant owner has to get a license to serve food and drink.   餐厅营业者必须要获得食物和饮品的销售许可。
@@ -2684,782 +2741,696 @@
 licensed to use deadly force  获准使用致命火力</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>ludicrous</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>adj. 荒唐的，可笑的： meriting derisive laughter or scorn as absurdly inept, false, or foolish</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>He made a ludicrous and easily detected attempt to forge his father’s signature on a note to school.   他试图在要上交学校的纸条上伪造父亲的签名，这实在是既可笑又容易被发现的花招。</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>luminous</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>adj. 发光的，有光泽的： emitting or reflecting usually steady, suffused, or glowing light
 adj. 杰出的，重要的： standing above others in rank, importance, or achievement</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>The luminous moon bathed the snow-covered fields with a pearly glow.   在明亮的月光下，雪地仿佛被罩上了一层珍珠般的光晕。
 some of the most luminous writers in the nation’s history  该国历史上最杰出的一批作家</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>malevolent</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>adj. 恶意的，恶毒的： having, showing, or arising from intense often vicious ill will, spite, or hatred</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>The novel grossly oversimplified the conflict as a struggle between relentlessly malevolent villains on one</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>meditate</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>vt. 思索，沉思： to focus one’s thoughts on</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>meditated a visit to her professor  思索着去拜访她的导师
 I have been meditating a career changefor months.   我花了几个月的时间在考虑换一个工作。</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
         <is>
           <t>meretricious</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>adj. 艳俗的，俗气的： attracting attention in a vulgar manner</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>The paradise they found was no more than a meretricious wasteland of casinos and bars.   他 们 所 发 现的所谓“天堂”只不过是一块有着赌场和酒吧的俗气不堪的荒漠罢了。</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>milieu</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>n. 环境，氛围： the physical or social setting in which something occurs or develops</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>Young, innovative artists thrive in the freewheeling milieu that a big city offers.   在那个大都市所提供的自由氛围中，年轻而富有创造力的艺术家们的事业蓬勃发展。
 ahistorical milieu conducive to democracy  有 助 于民主制度的历史背景</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>military</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>adj. 军事的，军用的： of or relating to soldiers, arms, or war</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>NATO struggles with how to proceed military operation against Libya.  北约就如何延续针对利比亚的军事行动出现了内部分歧。
 an encyclopedia of modern military aircraft  现代军用飞行器百科全书</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>nostalgia</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>n. 思乡之情： the state of being homesick
-n. 怀旧，怀念： a wistful or excessively sentimental yearning for return to or of some past period orirrecoverable condition</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Overwhelmed by nostalgia, she started to cry.   被思乡之情淹没的她开始啜泣。Made By Jason &amp; Franklin.   This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.  
-He felt a wave of nostalgia for the life he had left behind him.  他开始怀念往昔的时光。</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>n. 思乡之情： the state of being homesick</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Overwhelmed by nostalgia, she started to cry.   被思乡之情淹没的她开始啜泣。</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>numb</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>adj. 失去感觉的： devoid of sensation especially as a result of cold or anesthesia
 adj. 麻木的，无感情的： devoid of emotion</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>I have been sitting in the same position for too long and now my feet are numb.  我一个姿势坐得太久，以至于双腿都发麻了。
 Apparently in shock, he answered the police officer’s questions with a numb expression on his face.   她显然是受到了惊吓，以至于在回答警官的问题时一脸茫然。
 Years of physical and emotional abuse had renderedthe woman numb and withdrawn.  常年累月的肉体和精神上的折磨已让她麻木而寡言。</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>ordeal</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>n. 严峻的考验： a severe trial or experience</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>The hikers were finally rescued after a three-day ordeal in the wilderness.   在野外度过了三天的严峻考验之后，登山者终于获救了。</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>ostensible</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>adj. 表面上的，佯装的： appearing to be true on the basis of evidence that may or may not beconfirmed</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>It must be the ostensible reason for their visit while their actual motives may be malignant  这 肯 定 只 是他们上门拜访的表面原因，他们背后的动机说不定恶劣至极。</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>outgrowth</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>n. 结果，后果： a condition or occurrence traceable to a cause</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>Crime is often an outgrowth of poverty.  犯罪往往可以归因于贫穷。
 A predictable outgrowth of thesuburb’s ever growing population will be the need for more schools.   郊区人口攀升所导致的一个可以预见的后果就是需要更多的学校。</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>outmoded</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>adj. 过时的，废弃的： no longer acceptable, current, or usable</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>outmoded computers that can be recycled  可供回收的废旧电脑</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>override</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>vt. 不顾： to set aside</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>The Congress overrode the President’s veto and passed the law.  国会不顾总统的否决，强行通过了那项法令。
 He overrode all opposition to his plans.  他对所有的反对意见不闻不问。</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>overwhelm</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>vt. 淹没： to cover with or as if with a flood
 vt. （感情上、精神上）使无所适从，使难以承受： to subject to incapacitating emotional or mentalstress</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>That spring the massive runoff from melting snows overwhelmed the valley.   那个春天，整个村庄被融雪形成的洪流吞没了。
 Just the thought of how much work there is to do overwhelms me.  仅仅是想想还有多少工作没完成就几乎让我喘不过气了。</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>panacea</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>n. 万能药，万灵药： a remedy for all ills or difficulties</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>a woman who seems to believe that chicken soup is a panacea for nearly everything  一 个 相 信 鸡 汤 是万能灵药的妇女
 Bicycles are not a panacea for the traffic problem.   自行车并不是解决交通问题的万能药。</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>perquisite</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>n. 额外的好处： something given in addition to what is ordinarily expected or owed</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>give the movers a perquisite if they do a good job  如果搬家工人做得好就会获得一定的小费
 The use ofa company car is one perquisite of the job.   能使用公司的汽车是这项工作的附加好处之一。</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t>petulant</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>adj. 易怒的，爱发脾气的： easily irritated or annoyed</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>He is a petulant and fussy man who is always blaming everyone else for his problems.   他 是 一 个 对 细 节非常在意而又容易生气的人，还总是把自己的问题怪罪到别人的头上。</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t>pitfall</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>n. 陷阱： a pit flimsily covered or camouflaged and used to capture and hold animals or men
 n. （不易察觉的）危害： a hidden or not easily recognized danger or difficulty</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>caught in a pitfall  掉下了陷阱
 Renting a house can be full of pitfalls for the unwary.   对 于 那 些 不 注 意的人来说租房也是危机四伏的。
 One of the pitfalls of ignorance is that people will also assume you are stupid.   无知的一个危害就是，人们总会假设你一无所知。</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>placid</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>adj. 宁静的，风平浪静的： free from storms or physical disturbance
 adj. 冷静的，淡定的： free from emotional or mental agitation</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>a vacation in the placid lake community  在宁静的湖区度过的假日
 I know an exceptionally placid mother who was rarely upset by her six children  我 认 识 一个 异 常淡 定的母亲，她几乎从未因为自己的六个孩子而烦恼过。</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>playful</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>adj. 爱开玩笑的，好打闹的： given to good-natured joking or teasing</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>The little girl was lighthearted and playful.   小女孩性格很轻松愉快，喜欢和别人打闹。</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>prerequisite</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>n. 先决条件，前提： something that is necessary to an end or to the carrying out of a function</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>Competence is prerequisite to promotion.   能力是提升的必要条件。
 I don’t think a large dwelling place isa prerequisite for a happy life.   我并不认为大的住所就能带来幸福的生活。</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>prerogative</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>n. 特权，权力： an exclusive or special right, power, or privilege</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>It is your prerogative to refuse to attend religious services.   你有权力不参加宗教活动。</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>proclaim</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>vt. 宣告，使…公之于众： to declare publicly, typically insistently, proudly, or defiantly and in either</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>n. 方案，计划： a specific plan or design
 vi. 凸出： to extend outward beyond a usual point
 vt. 预测，预计： to calculate, estimate, or predict (something in the future), based on present data ortrends</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>an ambitious project to develop the city’s underground transport  一项开发城市地下交通系统的雄心勃勃的计划
 Some boulders projected dangerously out above the trail.   一些巨石非常危险地在道路上凸了出来。
 projecting next year’s expenses  预测明年的开销</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>proprietary</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>n. 所有权： ownership
 adj. 私营的： privately owned and managed and run as a profit-making organization</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>a proprietary hospital  私人医院</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>prototype</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>n. 原型： an original model on which something is patterned</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>The manufacturer exhaustively tested the prototype of the vehicle before approving production.   生 产 商在将该车型投入生产之前对其原型进行了详细的测试。</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>redeem</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>vt. 实践，履行（诺言等）： to do what is required by the terms of
-vt. 改过自新： to make better in behavior or character</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The coach redeemed his promise to take the players out for ice cream if they improved their fielding overthe season.   教练履行了他的诺言，那就是如果球员们能够在赛季中提升防守能力的话，他就请他们吃冰淇淋。
-The unfaithful husband made a determined effort to redeem himself in the eyes of his wife and children.  </t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>replicate</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>vt. 复制，复刻： to make an exact likeness of
 vt. 重复，反复： to make or do again</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>replicated the famous painting in our art class  在艺术课上复刻一幅名画
 I cannot replicate your results when I do the experiment myself.   我自己的实验里无法重复你的结果。</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>restitution</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>n. 补偿，赔偿： a making good of or giving an equivalent for some injury</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>The victims are demanding full restitution.   受害者要求全额补偿。</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>resurrect</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>vt. 使重生，使复苏： to bring back to life, practice, or activity</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>believed that his body would be resurrected  相信他的身体将会复活
 Attempts are being made by bothparties to resurrect the stalled arms negotiations.   双方正在努力重启受阻的武装谈判。</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>retrieve</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>vt. 寻回，找回： to get back again</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>I needed to retrieve the book from my friend so I could return it to the library.   我需要先把书从朋友那里拿回来才能还给图书馆。</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>reverberate</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>vi. 回荡，回响： to continue or be repeated in a series of reflected sound waves</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>The sound of thunder reverberated from one end of the mountain pass to the other.  打 雷 的 声 音 在 山间不断回荡。</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>ruthless</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>adj. 没有怜悯心的，残忍的： having no pity</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>an office supervisor with a ruthless disregard for others’ feelings  一个从不顾及他人感情的无情领导</t>
-        </is>
-      </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3469,17 +3440,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>scourge</t>
+          <t>retrieve</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>n. 祸害： a source of harm or misfortune</t>
+          <t>vt. 寻回，找回： to get back again</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve">The sheer ubiquity of food seems to be the scourge of humanity, as evidenced by the obesity epidemic.  </t>
+          <t>I needed to retrieve the book from my friend so I could return it to the library.   我需要先把书从朋友那里拿回来才能还给图书馆。</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3491,17 +3462,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>scruple</t>
+          <t>reverberate</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>n. （良心上的）不安： an uneasy feeling about the rightness of what one is doing or going to do</t>
+          <t>vi. 回荡，回响： to continue or be repeated in a series of reflected sound waves</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>The survey showed that many students had few scruples about cheating on papers or exams.   调 查 显示很多学生对于在考试时作弊没有丝毫的愧疚。</t>
+          <t>The sound of thunder reverberated from one end of the mountain pass to the other.  打 雷 的 声 音 在 山间不断回荡。</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3513,17 +3484,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>sectarianism</t>
+          <t>ruthless</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>n. 宗派主义，顽固： stubborn or intolerant adherence to one's opinions or prejudices</t>
+          <t>adj. 没有怜悯心的，残忍的： having no pity</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve">An ideological sectarianism prevented the political party from ever being anything more than a fringe group.  </t>
+          <t>an office supervisor with a ruthless disregard for others’ feelings  一个从不顾及他人感情的无情领导</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3535,17 +3506,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>secular</t>
+          <t>scourge</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>adj. 世俗的，尘世的： of or relating to the worldly or temporal</t>
+          <t>n. 祸害： a source of harm or misfortune</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>That’s an issue for the secular authorities, not the church.   这个问题和宗教无关，是一个世俗事务。</t>
+          <t xml:space="preserve">The sheer ubiquity of food seems to be the scourge of humanity, as evidenced by the obesity epidemic.  </t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3557,20 +3528,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>sparing</t>
+          <t>scruple</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>adj. 节俭的，节约的： marked by or practicing careful restraint (as in the use of resources)
-adj. 不足的，缺乏的： less plentiful than what is normal, necessary, or desirable</t>
+          <t>n. （良心上的）不安： an uneasy feeling about the rightness of what one is doing or going to do</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>The sparing couple are trying to save up enough for a house.  节俭的夫妻希望能够攒钱买套房。Made By Jason &amp; Franklin.   This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.  
-Unfortunately, the explanation of the health insurance plan was somewhat sparing on details.  不 幸 的是，健康保险上的说明似乎不够详细。
-The map is sparing of information.   这张地图的信息量太少了。</t>
+          <t>The survey showed that many students had few scruples about cheating on papers or exams.   调 查 显示很多学生对于在考试时作弊没有丝毫的愧疚。</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3582,17 +3550,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>sectarianism</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>n. 成见，老套的理念： a conventional, formulaic, and oversimplified conception, opinion, or image</t>
+          <t>n. 宗派主义，顽固： stubborn or intolerant adherence to one's opinions or prejudices</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>The noble savage was a stereotype that appealed to 18th-century intellectuals, who viewed Europeancivilization as decadent and corrupt.   “高贵的野蛮人”这一概念是为了迎合十八世纪的文人而提出的，他们将欧洲视作一支正在堕落和腐化的文明。</t>
+          <t xml:space="preserve">An ideological sectarianism prevented the political party from ever being anything more than a fringe group.  </t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3604,108 +3572,112 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
+          <t>secular</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>adj. 世俗的，尘世的： of or relating to the worldly or temporal</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>That’s an issue for the secular authorities, not the church.   这个问题和宗教无关，是一个世俗事务。</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>sparing</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>adj. 节俭的，节约的： marked by or practicing careful restraint (as in the use of resources)</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>The sparing couple are trying to save up enough for a house.  节俭的夫妻希望能够攒钱买套房。</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>stereotype</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>n. 成见，老套的理念： a conventional, formulaic, and oversimplified conception, opinion, or image</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>The noble savage was a stereotype that appealed to 18th-century intellectuals, who viewed Europeancivilization as decadent and corrupt.   “高贵的野蛮人”这一概念是为了迎合十八世纪的文人而提出的，他们将欧洲视作一支正在堕落和腐化的文明。</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
           <t>substitute</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>n. 取代者，替代品： a person or thing that takes the place or function of another
 vt. 取代，替代： to take the place of</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>If you like, you can use nuts as a substitute for coconut in that recipe.  如果您不反对，我们可以将菜单里的椰子换成坚果。
 substituting moral power for physical force  将暴力用道德的力量代替
 BFR molecules have someatoms substituted by bromide atoms, which makes it fire-resistant.   在溴化阻燃剂的分子中，一部分原子被溴原子取代，从而使它不易燃烧。</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>succumb</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>vi. 屈服： to yield to superior strength or force or overpowering appeal or desire
 vi. 死亡： to be brought to an end (as death) by the effect of destructive or disruptive forces</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t xml:space="preserve">refused to succumb to her fears and defiantly walked through the dark cemetery  拒绝向自己的恐惧屈服，而是倔强地走过了幽暗的墓地
 The patient lay so still and pale that everyone thought he had succumbed, and then he opened his eyes.  </t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>supersede</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>vt. 取代，替代： to displace in favor of another</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>That edition of the dictionary that you have has been superseded by a more recent one.  你 买 的 那 一版的字典已经被最近新出的版本取代了。</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>surly</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>adj. 脾气不好的： irritably sullen and churlish in mood or manner</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>surmise</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>n. （根据不足的）推测，揣测： a thought or idea based on scanty evidence</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t xml:space="preserve">My surmise is that the couple’s “good news” is the announcement that they are going to have a baby.  </t>
-        </is>
-      </c>
       <c r="D143" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3715,17 +3687,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>surmount</t>
+          <t>supersede</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>vt. 战胜，获得胜利： to achieve a victory over</t>
+          <t>vt. 取代，替代： to displace in favor of another</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>an Olympic swimmer who surmounted endless obstacles to achieve her goals  一个克服重重困难最终实现目标的奥运游泳运动员</t>
+          <t>That edition of the dictionary that you have has been superseded by a more recent one.  你 买 的 那 一版的字典已经被最近新出的版本取代了。</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3737,19 +3709,15 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>surrogate</t>
+          <t>surly</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>n. 替代品： one that takes the place of another</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>For some people, Google Earth is never a justified surrogate for actual travel.   对于一部分人而言，谷歌地球决不是旅行的合理替代品。</t>
-        </is>
-      </c>
+          <t>adj. 脾气不好的： irritably sullen and churlish in mood or manner</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3759,21 +3727,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>tame</t>
+          <t>surmise</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>adj. 被驯化的： reduced from a state of native wildness especially so as to be tractable and usefulto humans
-adj. 无聊的，乏味的： lacking spirit, zest, interest, or the capacity to exciteMade By Jason &amp; Franklin. This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.
-vt. 控制，抑制： to keep from exceeding a desirable degree or level (as of expression)</t>
+          <t>n. （根据不足的）推测，揣测： a thought or idea based on scanty evidence</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Every evening, a wild Canada goose is at the food trough with our tame geese.  每 天 傍 晚的 食 槽边 总会出现一只野生加拿大鹅和我们的饲养家鹅一起进食。
-That action movie was so tame I fell asleep about 20 minutes into it.   那部动作片实在是太无聊了，我刚开场二十分钟就睡着了。
-Try to tame your language when you are in front of the kids.   在孩子面前注意一下你的措辞。</t>
+          <t xml:space="preserve">My surmise is that the couple’s “good news” is the announcement that they are going to have a baby.  </t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3785,17 +3749,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>tangle</t>
+          <t>surmount</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>n. 困惑，不解： a state of perplexity or complete bewilderment</t>
+          <t>vt. 战胜，获得胜利： to achieve a victory over</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve">My mind has been in a tangle ever since I learned some information about an old, deceased acquaintance.  </t>
+          <t>an Olympic swimmer who surmounted endless obstacles to achieve her goals  一个克服重重困难最终实现目标的奥运游泳运动员</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3807,17 +3771,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>teeming</t>
+          <t>surrogate</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>adj. 大量的： possessing or covered with great numbers or amounts of something specified</t>
+          <t>n. 替代品： one that takes the place of another</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>oceans teeming with life  孕育着无穷生命的海洋</t>
+          <t>For some people, Google Earth is never a justified surrogate for actual travel.   对于一部分人而言，谷歌地球决不是旅行的合理替代品。</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3829,17 +3793,18 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>temporal</t>
+          <t>tame</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>adj. 世俗的，尘世的： of or relating to earthly life</t>
+          <t>adj. 被驯化的： reduced from a state of native wildness especially so as to be tractable and usefulto humans
+adj. 无聊的，乏味的： lacking spirit, zest, interest, or the capacity to excite</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve">The master told his disciples not to worry about temporal concerns, but instead focus on spiritual matters.  </t>
+          <t>Every evening, a wild Canada goose is at the food trough with our tame geese.  每 天 傍 晚的 食 槽边 总会出现一只野生加拿大鹅和我们的饲养家鹅一起进食。</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3851,17 +3816,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>tentative</t>
+          <t>tangle</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>adj. 暂时性的，尝试的： not fully worked out or developed</t>
+          <t>n. 困惑，不解： a state of perplexity or complete bewilderment</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Our plans are only tentative at this point and will depend on whether you can come.  我 们 的 计 划 只 是暂时性的，具体还要看你能否前来。</t>
+          <t xml:space="preserve">My mind has been in a tangle ever since I learned some information about an old, deceased acquaintance.  </t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3873,17 +3838,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>tyrant</t>
+          <t>teeming</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>n. 暴君： a ruler who exercises absolute power oppressively or brutally</t>
+          <t>adj. 大量的： possessing or covered with great numbers or amounts of something specified</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>The people universally feared the tyrant, who was notorious for his frequent use of torture.   人 们 非 常 恐惧这个暴君，因为他有着经常折磨犯人的臭名。</t>
+          <t>oceans teeming with life  孕育着无穷生命的海洋</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3895,17 +3860,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>unanimous</t>
+          <t>temporal</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>adj. 一致同意的： having the agreement and consent of all</t>
+          <t>adj. 世俗的，尘世的： of or relating to earthly life</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>a unanimous vote to upgrade the school’s computer facilities  一致同意对学校的计算机设备进行升级</t>
+          <t xml:space="preserve">The master told his disciples not to worry about temporal concerns, but instead focus on spiritual matters.  </t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3917,17 +3882,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>unremitting</t>
+          <t>tentative</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>adj. 连续不断的： going on and on without any interruptions</t>
+          <t>adj. 暂时性的，尝试的： not fully worked out or developed</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Unremitting rain lasted for six days.   连续下了六天的雨。</t>
+          <t>Our plans are only tentative at this point and will depend on whether you can come.  我 们 的 计 划 只 是暂时性的，具体还要看你能否前来。</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3939,134 +3904,200 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>tyrant</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>n. 暴君： a ruler who exercises absolute power oppressively or brutally</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>The people universally feared the tyrant, who was notorious for his frequent use of torture.   人 们 非 常 恐惧这个暴君，因为他有着经常折磨犯人的臭名。</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>unanimous</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>adj. 一致同意的： having the agreement and consent of all</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>a unanimous vote to upgrade the school’s computer facilities  一致同意对学校的计算机设备进行升级</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>unremitting</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>adj. 连续不断的： going on and on without any interruptions</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Unremitting rain lasted for six days.   连续下了六天的雨。</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
           <t>versed</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t>adj. 熟知的： having information especially as a result of study or experience
 adj. 精通的： having or showing exceptional knowledge, experience, or skill in a field of endeavor</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>versed in the latest developments in aeronautics  熟知当今航空业的发展情况
 well versed in the techniques of laser surgery  精通激光手术方面的技术</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t>vocation</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>n. 职业： the work in which a person is regularly employed</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>finally made soccer her vocation instead of just a hobby  终于将足球从爱好升级为谋生的职业</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t>voyeur</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>n. 淫窥狂： one obtaining sexual gratification from observing unsuspecting individuals who arepartly undressed, naked, or engaged in sexual acts</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>They accidentally found out that their ostensibly benign neighbor is actually a voyeur.   他 们 偶 然 间 发 现那个表面和善的邻居居然是一个偷窥狂。</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t>willful</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>adj. 固执的，倔强的： obstinately and often perversely self-willed
 adj. 故意的： done deliberately</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>Finally the parents sought professional counseling for the willful child.  最终家长不得不为倔强的小孩寻求专业咨询。
 a willful attempt to cheat her siblings out of their rightful inheritance  一个想将继承权从她的姊妹手里骗过来的故意企图</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t>wistful</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>adj. （带着忧伤而）渴望的，怀念的： full of yearning or desire tinged with melancholy</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>There was a wistful look in his eyes when he spoke of his childhood.   当他谈起他的童年时，眼眶中不禁流露出一种带有忧伤的怀念之情。</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
         <is>
           <t>wrongheaded</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>adj. 固执己见的，坚持（错误观点）的： stubborn in adherence to wrong opinion or principles</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>In spite of other’s objections, he is always wrongheaded in his opinions.   他总是不管他人的反对而坚持自己哪怕是错误的观点。</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_12.xlsx
+++ b/result/生词本导入模版_12.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +422,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>单词</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>含义（可不填）</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>例句（可不填）</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>antiquated</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>adj. 古老的，过时的： outmoded or discredited by reason of age: being out of style or fashion</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>We saw an antiquated hand-cranked rope-making machine at the textiles museum.  我 们 在 纺 织 博 物馆里看到了一台手摇式古董制绳机。
+antiquated methods of farming  已经过时的耕种技术</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GRE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>antiquated</t>
+          <t>antithetical</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>adj. 古老的，过时的： outmoded or discredited by reason of age: being out of style or fashion</t>
+          <t>adj. 完全对立的，相反的： being in direct and unequivocal opposition</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>We saw an antiquated hand-cranked rope-making machine at the textiles museum.  我 们 在 纺 织 博 物馆里看到了一台手摇式古董制绳机。
-antiquated methods of farming  已经过时的耕种技术</t>
+          <t>Spiritual ideals seem antithetical to the materialism embraced by modern society.   精神上的理想境界往往同当代社会所推崇的唯物主义相抵触。</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -481,17 +469,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>antithetical</t>
+          <t>apparition</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>adj. 完全对立的，相反的： being in direct and unequivocal opposition</t>
+          <t>n. 鬼魂，幽灵： a ghostly figure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Spiritual ideals seem antithetical to the materialism embraced by modern society.   精神上的理想境界往往同当代社会所推崇的唯物主义相抵触。</t>
+          <t>An eccentric claimed to have photographed an apparition in her very own house.   一个行为怪异的人声称在她的住所里拍到了一张幽灵的照片。</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -503,17 +491,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>apparition</t>
+          <t>applicable</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>n. 鬼魂，幽灵： a ghostly figure</t>
+          <t>adj. 可用的，可行的： capable of being put to use or account</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>An eccentric claimed to have photographed an apparition in her very own house.   一个行为怪异的人声称在她的住所里拍到了一张幽灵的照片。</t>
+          <t>Is that Act applicable in this case where suspect is a foreigner? 那条法规适用于这个嫌犯不是本国公民的案件么？</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,17 +513,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>applicable</t>
+          <t>apprehensive</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>adj. 可用的，可行的： capable of being put to use or account</t>
+          <t>adj. 知晓的，理解的： having specified facts or feelings actively impressed on the mind
+adj. 恐惧的，害怕的： anxious or fearful about the future</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Is that Act applicable in this case where suspect is a foreigner? 那条法规适用于这个嫌犯不是本国公民的案件么？</t>
+          <t>I am fully apprehensive of the options, I assure you.  我向你保证这些观点我都理解了。
+People apparently haven’t recovered from the devastating terrorist attack and are still terribly apprehensiveabout the future.   人们显然没有从那场严重的恐怖袭击中恢复过来，对于未来仍然充满了恐惧。</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -547,19 +537,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>apprehensive</t>
+          <t>arcane</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>adj. 知晓的，理解的： having specified facts or feelings actively impressed on the mind
-adj. 恐惧的，害怕的： anxious or fearful about the future</t>
+          <t>adj. （语言）晦涩的，隐晦的： having an often intentionally veiled or uncertain meaning</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>I am fully apprehensive of the options, I assure you.  我向你保证这些观点我都理解了。
-People apparently haven’t recovered from the devastating terrorist attack and are still terribly apprehensiveabout the future.   人们显然没有从那场严重的恐怖袭击中恢复过来，对于未来仍然充满了恐惧。</t>
+          <t>The rebate form uses arcane language, the only purpose of which seems to be to disqualify buyers fromactually getting a rebate.   折扣单上的条文晦涩难懂，这样做的唯一目的也许就是让消费者不能真正地享受到折扣。</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -571,65 +559,43 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>arcane</t>
+          <t>argument</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>adj. （语言）晦涩的，隐晦的： having an often intentionally veiled or uncertain meaning</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>The rebate form uses arcane language, the only purpose of which seems to be to disqualify buyers fromactually getting a rebate.   折扣单上的条文晦涩难懂，这样做的唯一目的也许就是让消费者不能真正地享受到折扣。</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>argument</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
         <is>
           <t>n. 争吵，争论： an often noisy or angry expression of differing opinions
 n. （逻辑上的）论证： a coherent series of statements leading from a premise to a conclusion
 n. 观点，论点： an idea or opinion that is put forth in a discussion or debate</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>The couple’s arguments were often loud enough to be heard all over the neighborhood.  这 对 夫 妻 吵架的声音往往大到能被邻居听见。
 In his argument the author committed several logical fallacies which undermined its soundness.   在 作 者的论述中出现了若干逻辑谬误，从而降低了它论证的力度。
 It is and will always be my argument that we have too many problems here on earth to concern ourselveswith manned trips to Mars.   我现在和以后的观点都将会是：在我们解决地球上的问题之前，不应该花太多的心思考虑载人火星计划的事情。</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>n. 排列，阵列： a regular and imposing grouping or arrangement
 vt. 排列，摆放： to arrange or display in or as if in an array
 vt. 装饰，装修： to dress or decorate especially in splendid or impressive attire</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>a marching band’s carefully choreographed array  前进中的乐队所摆出的经过复杂编排的方针
 data arrayed in descending order  按照降序排列的数据
@@ -638,6 +604,28 @@
 a door arrayed for theholidays with a beautiful evergreen wreath  被美丽的常青花环妆点的节日大门</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>assail</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>vt. 抨击，严厉批评： to criticize harshly and usually publicly</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The union organizers assailed the chemical company for failing to provide a safe working environment.  </t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -647,17 +635,18 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>assail</t>
+          <t>attest</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>vt. 抨击，严厉批评： to criticize harshly and usually publicly</t>
+          <t>vt. 证实，为…作证： to give evidence or testimony to the truth or factualness of</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">The union organizers assailed the chemical company for failing to provide a safe working environment.  </t>
+          <t xml:space="preserve">Her fine work attests her ability.   她的优秀作品能够证明她的能力。
+I can attest that she was at the party.  </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -669,18 +658,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>attest</t>
+          <t>attune</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>vt. 证实，为…作证： to give evidence or testimony to the truth or factualness of</t>
+          <t>vt. 使协调，使和谐： to bring into harmony</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Her fine work attests her ability.   她的优秀作品能够证明她的能力。
-I can attest that she was at the party.  </t>
+          <t>After years spent in academia, he found it difficult to attune himself to the corporate culture.   在 学 术 圈 摸爬滚打多年之后，他发现自己很难融入企业文化之中。</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -692,17 +680,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>attune</t>
+          <t>auspicious</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>vt. 使协调，使和谐： to bring into harmony</t>
+          <t>adj. 好兆头的： pointing toward a happy outcome</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>After years spent in academia, he found it difficult to attune himself to the corporate culture.   在 学 术 圈 摸爬滚打多年之后，他发现自己很难融入企业文化之中。</t>
+          <t>began the season with an auspicious win against their strongest football rival  在赛季之初就战胜了最强的对手，为整个赛季赢得了好兆头</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -714,70 +702,66 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>auspicious</t>
+          <t>austere</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>adj. 好兆头的： pointing toward a happy outcome</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>began the season with an auspicious win against their strongest football rival  在赛季之初就战胜了最强的对手，为整个赛季赢得了好兆头</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>austere</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
         <is>
           <t>adj. 朴素的，朴实无华： markedly simple or unadorned
 adj. 严肃的，令人生畏的： stern and cold in appearance or manner</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>For the private office of the CEO of the large corporation, the room is unexpectedly austere.   出 人 意 料 的是，大公司总裁的私人办公室居然十分朴素。
 an austere fortress at the top of some formidable cliffs  建立在悬崖峭壁之上的一座令人畏惧的堡垒
 In hismemory his deceased grandfather is an austere, distant, cold person.  在他的记忆之中，已过世的祖父是一个严肃、冷漠而难以接近的人。</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>bash</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>n. 猛击： a forceful blow
 vt. 攻击，用力击打： to strike violently and often repeatedly
 vt. 抨击，严厉批评： to criticize harshly and usually publicly</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>He has not been the same ever since he received that bash on his head.   自从他脑袋被别人打了之后，他就变得大不一样。
 The angry child kept bashing her toy with a hammer until it broke.  愤怒的小孩用锤子不断地敲击她的玩具，直到它彻底被破坏。
 In all of talk radio no other host seems to enjoy bashing liberals as much as he does.   在 电 台 节 目 再 没有像他一样热衷于抨击自由主义者的主持人了。</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>bask</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>vi. 休息，悠然自得： to lie or relax in a pleasant warmth or atmosphere</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -787,15 +771,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>bask</t>
+          <t>belligerent</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>vi. 休息，悠然自得： to lie or relax in a pleasant warmth or atmosphere</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>adj. 好斗的，好战的： inclined to or exhibiting assertiveness, hostility, or combativeness</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>The coach became quite belligerent and spit at an umpire after being thrown out of the game.   教 练 变得好斗起来，以至于在被罚出场外之后转身向裁判吐口水。</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -805,44 +793,44 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>belligerent</t>
+          <t>beset</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>adj. 好斗的，好战的： inclined to or exhibiting assertiveness, hostility, or combativeness</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>The coach became quite belligerent and spit at an umpire after being thrown out of the game.   教 练 变得好斗起来，以至于在被罚出场外之后转身向裁判吐口水。</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>beset</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
         <is>
           <t>vt. 使苦恼，骚扰： to cause persistent suffering to
 vt. 攻击，袭击： to set upon</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>He has been beset by a lack of self-confidence virtually his entire life.  事实上他的一生都在被缺乏自信所困扰。
 The settlers were beset by savages.   定居者们遭到了野蛮人的袭击。
 The unsuspecting tourists weresuddenly beset by robbers.  丝毫没有准备的游客遭到了歹徒的突然袭击。</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>blackmail</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>n./vi. 敲诈，勒索： extortion of money or something else of value from a person by the threat ofexposing a criminal act or discreditable information</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>It looks like these pornographic pictures were being used for blackmail.   看起来有人用这些不雅照进行敲诈勒索。</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -852,17 +840,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>blackmail</t>
+          <t>bluff</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>n./vi. 敲诈，勒索： extortion of money or something else of value from a person by the threat ofexposing a criminal act or discreditable information</t>
+          <t>adj. 直率的，（说话）直截了当的： being or characterized by direct, brief, and potentially rude speechor manner</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>It looks like these pornographic pictures were being used for blackmail.   看起来有人用这些不雅照进行敲诈勒索。</t>
+          <t>Frankly speaking, he is a bluff but good-hearted teacher.  老实说，这个老师说话很直率，但是心地善良。</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -874,39 +862,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>bluff</t>
+          <t>brim</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>adj. 直率的，（说话）直截了当的： being or characterized by direct, brief, and potentially rude speechor manner</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Frankly speaking, he is a bluff but good-hearted teacher.  老实说，这个老师说话很直率，但是心地善良。</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>brim</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
         <is>
           <t>n. 边缘，边界： an upper or outer margin
 vi. 充满： to be or become full often to overflowing
 vt. 加满，倒满： to put into (something) as much as can be held or contained</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>The brim of the teacup was banded with gold.   茶杯的边缘被镀上了金。
 a secondhand bookstore that was brimming with bargains  一 个 到 处 都 是 减 价 品 的 二 手 书 店
@@ -914,6 +880,29 @@
 He brimmed the glass with milk, and now I’m afraid that I will spill it.   他向杯子里倒了太多牛奶，我现在担心会不会洒出来。</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>calamity</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>n. 大灾难： a disastrous event marked by great loss and lasting distress and suffering</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>This latest breakdown of the car is inconvenient, but not a calamity.   最近的汽车抛锚确实带来了不便，但还不是一场灾难。
+an economic calamity  金融风暴</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -923,18 +912,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>calamity</t>
+          <t>calculated</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>n. 大灾难： a disastrous event marked by great loss and lasting distress and suffering</t>
+          <t>adj. 经过计算（成败得失）的，经过深思熟虑的： engaged in, undertaken, or displayed after reckoningor estimating the statistical probability of success or failure</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>This latest breakdown of the car is inconvenient, but not a calamity.   最近的汽车抛锚确实带来了不便，但还不是一场灾难。
-an economic calamity  金融风暴</t>
+          <t>He took a calculated risk and got in on the ground floor of the new enterprise.   他深思熟虑一番之后决定冒这个险，踏出了迈向新计划的第一步。</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -946,17 +934,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>calculated</t>
+          <t>captious</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>adj. 经过计算（成败得失）的，经过深思熟虑的： engaged in, undertaken, or displayed after reckoningor estimating the statistical probability of success or failure</t>
+          <t>adj. 吹毛求疵的，爱挑毛病的： marked by an often ill-natured inclination to stress faults and raiseobjections</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>He took a calculated risk and got in on the ground floor of the new enterprise.   他深思熟虑一番之后决定冒这个险，踏出了迈向新计划的第一步。</t>
+          <t>a captious and cranky eater who has never met a vegetable he didn’t hate  一个古怪又挑剔的食客，从来就没有他不讨厌的蔬菜</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -968,17 +956,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>captious</t>
+          <t>cellular</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>adj. 吹毛求疵的，爱挑毛病的： marked by an often ill-natured inclination to stress faults and raiseobjections</t>
+          <t>adj. 多孔的： containing cavities; having a porous texture</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>a captious and cranky eater who has never met a vegetable he didn’t hate  一个古怪又挑剔的食客，从来就没有他不讨厌的蔬菜</t>
+          <t>the cellular construction of a beehive  蜂巢的多孔结构</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -990,17 +978,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>cellular</t>
+          <t>ceremonious</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>adj. 多孔的： containing cavities; having a porous texture</t>
+          <t>adj. 讲究礼节的，庄重的： marked by or showing careful attention to set forms and details</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>the cellular construction of a beehive  蜂巢的多孔结构</t>
+          <t>A century ago everyday life was much more ceremonious than in our anything-goes era.  一 个 世 纪 之前的生活和我们现在这个随便怎么都无所谓的年代相比，多出了许多要讲究的礼节。</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1012,17 +1000,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ceremonious</t>
+          <t>certitude</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>adj. 讲究礼节的，庄重的： marked by or showing careful attention to set forms and details</t>
+          <t>n. 确信无疑： the state of being or feeling certain</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A century ago everyday life was much more ceremonious than in our anything-goes era.  一 个 世 纪 之前的生活和我们现在这个随便怎么都无所谓的年代相比，多出了许多要讲究的礼节。</t>
+          <t>I believes with certitude that he is the best candidate for the job.   我确信他是这项工作的最佳人选。</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1034,45 +1022,45 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>certitude</t>
+          <t>channel</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>n. 确信无疑： the state of being or feeling certain</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>I believes with certitude that he is the best candidate for the job.   我确信他是这项工作的最佳人选。</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>channel</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
         <is>
           <t>n. 水渠： an open man-made passageway for water
 n. 海峡： a narrow body of water between two land masses
 vt. 将…导向，投入： to cause to move to a central point or along a restricted pathway</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Water was drained from the swamp through a specially constructed channel.   这块沼泽通过一条特殊建造的水渠源源不断地向外输水。
 the world record for swimming the channel between Alaska and Chukotskiy  横渡阿拉斯加和楚科奇之间海峡（也即白令海峡）的世界纪录
 a youth who channeled all of his energy into sports  一个将毕生精力都投入体育之中的少年</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>chivalrous</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>adj. 有骑士风度的，（尤指对女性）彬彬有礼的： marked by gracious courtesy and high-mindedconsideration(especially to women)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>still engages in chivalrous behavior, such as opening doors for people  仍然坚持着有风度的行为，比如帮别人开门</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1082,17 +1070,19 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>chivalrous</t>
+          <t>chorale</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>adj. 有骑士风度的，（尤指对女性）彬彬有礼的： marked by gracious courtesy and high-mindedconsideration(especially to women)</t>
+          <t>n. 赞美诗： a hymn or psalm sung to a traditional or composed melody in church
+n. 合唱班，合唱团： an organized group of singers</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>still engages in chivalrous behavior, such as opening doors for people  仍然坚持着有风度的行为，比如帮别人开门</t>
+          <t>practiced a chorale to perform in church  练习吟唱要在教堂表演的赞美诗
+a chorale that is regarded as being among the best in the state  一个被认为是国内一流的合唱班</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1104,19 +1094,18 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>chorale</t>
+          <t>clamor</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>n. 赞美诗： a hymn or psalm sung to a traditional or composed melody in church
-n. 合唱班，合唱团： an organized group of singers</t>
+          <t>n. 喧闹，喧哗，噪声： loud, confused, and usually inharmonious sound</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>practiced a chorale to perform in church  练习吟唱要在教堂表演的赞美诗
-a chorale that is regarded as being among the best in the state  一个被认为是国内一流的合唱班</t>
+          <t>A clamor arose from the crowd as the prisoner was brought forward.   当犯人被带上前台时，人群中爆发出一阵骚动。
+the clamor of a dozen people practicing the trumpet at once  一群人同时练习小号时发出的噪音</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1128,18 +1117,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>clamor</t>
+          <t>clan</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>n. 喧闹，喧哗，噪声： loud, confused, and usually inharmonious sound</t>
+          <t>n. （有共同爱好的）团体，帮派： a group united by a common interest or common characteristics</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A clamor arose from the crowd as the prisoner was brought forward.   当犯人被带上前台时，人群中爆发出一阵骚动。
-the clamor of a dozen people practicing the trumpet at once  一群人同时练习小号时发出的噪音</t>
+          <t>That clan of football fans has parties every weekend on which the New England Patriots play.   只 要 是新英格兰爱国者队有比赛的周末，那帮球迷就会举行聚会。</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1151,17 +1139,19 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>clan</t>
+          <t>cleave</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>n. （有共同爱好的）团体，帮派： a group united by a common interest or common characteristics</t>
+          <t>vi. 紧贴，坚持： to adhere firmly and closely or loyally and unwaveringly
+vt. 分隔，割裂： to divide by or as if by a cutting blow</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>That clan of football fans has parties every weekend on which the New England Patriots play.   只 要 是新英格兰爱国者队有比赛的周末，那帮球迷就会举行聚会。</t>
+          <t>You should resolutely cleave to the facts in your report.   你应该在报道中坚持客观的原则。
+His spade cleaved the firm sand with a harsh crunch.   他的锹凿开了坚实的砂土，发出尖锐刺耳的嘎扎声。</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1173,46 +1163,45 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>cleave</t>
+          <t>cling</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>vi. 紧贴，坚持： to adhere firmly and closely or loyally and unwaveringly
-vt. 分隔，割裂： to divide by or as if by a cutting blow</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>You should resolutely cleave to the facts in your report.   你应该在报道中坚持客观的原则。
-His spade cleaved the firm sand with a harsh crunch.   他的锹凿开了坚实的砂土，发出尖锐刺耳的嘎扎声。</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>cling</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
         <is>
           <t>n. 粘结，粘合： a physical sticking to as if by glue
 vi. 紧贴，支持： to adhere as if glued firmly</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>For certain types of materials that plastic wrap has very little cling.  对于某些材料，那种塑料保鲜袋的粘性不好。
 a dozen magnets clinging to the refrigerator  贴靠在冰箱门上的磁石
 continued to cling to the old ideasof child rearing long after they had gone out of fashion  仍然坚持关于抚养孩子的老观念，尽管它们已经过时</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>cohesive</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>adj. 有粘性的，有凝聚力的： exhibiting or producing cohesion or coherence</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>a cohesive social unit  有凝聚力的社会个体
+cohesive soils  有粘性的土壤</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1222,18 +1211,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>cohesive</t>
+          <t>collaborate</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>adj. 有粘性的，有凝聚力的： exhibiting or producing cohesion or coherence</t>
+          <t>vi. 合作： to work jointly with others or together especially in an intellectual endeavor</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>a cohesive social unit  有凝聚力的社会个体
-cohesive soils  有粘性的土壤</t>
+          <t>The two men collaborated on a blockbuster in 1986 which gained both of them fame.   两人在 1986 年合作出演了一部十分卖座的电影，由此获得了巨大的名声。</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1245,17 +1233,18 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>collaborate</t>
+          <t>compatible</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>vi. 合作： to work jointly with others or together especially in an intellectual endeavor</t>
+          <t>adj. 一致的，能共存的： capable of existing together in harmony</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>The two men collaborated on a blockbuster in 1986 which gained both of them fame.   两人在 1986 年合作出演了一部十分卖座的电影，由此获得了巨大的名声。</t>
+          <t>I don’t think that they could be compatible as roommates.   我不觉得他们做了室友之后生活会很和谐。
+atheory that is compatible with what we already know about early man  一个与对远古人类的已有知识不存在矛盾的理论</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1267,45 +1256,40 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>compatible</t>
+          <t>compelling</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>adj. 一致的，能共存的： capable of existing together in harmony</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>I don’t think that they could be compatible as roommates.   我不觉得他们做了室友之后生活会很和谐。
-atheory that is compatible with what we already know about early man  一个与对远古人类的已有知识不存在矛盾的理论</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>compelling</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
         <is>
           <t>adj. 极具说服力的： having the power to persuade
 adj. 迫切的，紧迫的： needing immediate attention</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>made a compelling argument against military intervention  就反对军事干预提出了很有说服力的论证
 Ifyou can’t present any compelling evidence to prove your innocence, you will be found guilty.  如 果 你 找 不 出 任何能证明你清白的有力证据，你就会被定罪。
 There is no compelling need to raise taxes at this time.   现在没有迫切的提升税率的必要。</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>complementary</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>adj. 互补的： mutually supplying each other’s lack</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1315,15 +1299,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>complementary</t>
+          <t>complicate</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>adj. 互补的： mutually supplying each other’s lack</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>vt. 使复杂化： to make complex or difficult</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Don’t complicate matters by getting the parents involved.  不要把父母牵扯进来，这会让问题更复杂。</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1333,44 +1321,46 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>complicate</t>
+          <t>comprehend</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>vt. 使复杂化： to make complex or difficult</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Don’t complicate matters by getting the parents involved.  不要把父母牵扯进来，这会让问题更复杂。</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>comprehend</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
         <is>
           <t>vt. 理解，了解： to grasp the nature, significance, or meaning of
 vt. 包括，包含： to contain or hold within a total scope, significance, or amount</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>the age at which children can comprehend the difference between right and wrong  一个小孩可以开始分辨是非的年龄
 With internet, television, cellphone and even radio down, we are unable to comprehend what hashappened.  互联网、电视、手机乃至无线电都不起作用了，我们无法获知发生了什么。
 Our notion of morality should comprehend much more than proper sexual behavior.  我 们 的 道 德 观 不应该仅仅止步于恰当的性行为。</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>concrete</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>adj. 实体的，实在的： relating to or composed of matter
+adj. 事实性的，明确的： existing in fact and not merely as a possibility</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>concrete objects like rocks and trees  像石头、树这一类的实物
+Concrete evidence, and not just a theory, must be presented at a trial.  在法庭上需要出示确凿的证据，而非臆测。</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1380,19 +1370,18 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>concrete</t>
+          <t>condemn</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>adj. 实体的，实在的： relating to or composed of matter
-adj. 事实性的，明确的： existing in fact and not merely as a possibility</t>
+          <t>vt. 谴责（为不道德的、邪恶的）： to declare to be reprehensible, wrong, or evil usually after weighingevidence and without reservation</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>concrete objects like rocks and trees  像石头、树这一类的实物
-Concrete evidence, and not just a theory, must be presented at a trial.  在法庭上需要出示确凿的证据，而非臆测。</t>
+          <t>a policy widely condemned as racist  一个被广泛谴责为种族歧视的政策
+It is a sign of human progressthat slavery, which was once common, is now universally condemned.   曾经很平常的奴隶制如今却沦落到人人谴责的境地，这不能不说是人类文明的进步。</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1404,18 +1393,18 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>condemn</t>
+          <t>conditional</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>vt. 谴责（为不道德的、邪恶的）： to declare to be reprehensible, wrong, or evil usually after weighingevidence and without reservation</t>
+          <t>adj. 有条件的，受制约的： subject to, implying, or dependent upon a condition</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>a policy widely condemned as racist  一个被广泛谴责为种族歧视的政策
-It is a sign of human progressthat slavery, which was once common, is now universally condemned.   曾经很平常的奴隶制如今却沦落到人人谴责的境地，这不能不说是人类文明的进步。</t>
+          <t>a conditional offer  有条件限制的录取
+Their support is conditional on their approval of his proposals.   他只有让他的提案得到他们的同意才能得到援助。</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1427,18 +1416,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>conditional</t>
+          <t>conflate</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>adj. 有条件的，受制约的： subject to, implying, or dependent upon a condition</t>
+          <t>vt. 混合： to turn into a single mass or entity that is more or less the same throughout</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>a conditional offer  有条件限制的录取
-Their support is conditional on their approval of his proposals.   他只有让他的提案得到他们的同意才能得到援助。</t>
+          <t>The movie conflates documentary footage and dramatized reenactments so seamlessly and ingeniouslythat viewers may not know what is real and what is not.  电影将纪实档案和娱乐性的夸张如此巧妙无缝地糅合起来，以至于观众不知道哪一部分是真实的，哪一部分是虚构的。</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1450,17 +1438,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>conflate</t>
+          <t>conform</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>vt. 混合： to turn into a single mass or entity that is more or less the same throughout</t>
+          <t>vt. 使协调： bring into harmony or accord</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>The movie conflates documentary footage and dramatized reenactments so seamlessly and ingeniouslythat viewers may not know what is real and what is not.  电影将纪实档案和娱乐性的夸张如此巧妙无缝地糅合起来，以至于观众不知道哪一部分是真实的，哪一部分是虚构的。</t>
+          <t xml:space="preserve">We have to conform this new rule with existing policy regarding student-run organizations on campus.  </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1472,17 +1460,18 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>conform</t>
+          <t>conjure</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>vt. 使协调： bring into harmony or accord</t>
+          <t>vt. 请求，恳求： to charge or entreat earnestly or solemnly</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">We have to conform this new rule with existing policy regarding student-run organizations on campus.  </t>
+          <t>I conjure you to hear my plea for mercy.   请您发发慈悲吧。
+He conjured them with his dying breath tolook after his children.   临终前他恳求他们照顾他的孩子。</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1494,45 +1483,45 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>conjure</t>
+          <t>consent</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>vt. 请求，恳求： to charge or entreat earnestly or solemnly</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>I conjure you to hear my plea for mercy.   请您发发慈悲吧。
-He conjured them with his dying breath tolook after his children.   临终前他恳求他们照顾他的孩子。</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>consent</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
         <is>
           <t>n. 同意，赞同： the approval by someone in authority for the doing of something
 vi. 同意： to give assent or approval</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>We had to get our neighbor’s consent in order to trim the tree from his side.   想要从邻居家那边修剪树木，我们得先得到他们的同意。
 consent to being tested in her neurobiology experiment  同意作为被试参加神经生物学的实验
 refused toconsent to the marriage  拒绝这桩婚事</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>consign</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>vt. 转交，转移（给他人）： to give, transfer, or deliver into the hands or control of another</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>The record shows that the deliveryman had consigned our package to a next-door neighbor.  记 录 显示邮递员把我们的包裹转投给隔壁邻居了。
+a writer consigned to oblivion  湮没无闻的作家</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1542,18 +1531,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>consign</t>
+          <t>consternation</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>vt. 转交，转移（给他人）： to give, transfer, or deliver into the hands or control of another</t>
+          <t>n. 惊愕，恐慌，恐惧： a state of paralyzing dismay</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>The record shows that the deliveryman had consigned our package to a next-door neighbor.  记 录 显示邮递员把我们的包裹转投给隔壁邻居了。
-a writer consigned to oblivion  湮没无闻的作家</t>
+          <t>The two girls stared at each other in consternation without any idea about what to do.   两 个 小 女 孩 惊 恐地望着对方，显得不知所措。</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1565,17 +1553,18 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>consternation</t>
+          <t>contemplate</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>n. 惊愕，恐慌，恐惧： a state of paralyzing dismay</t>
+          <t>vt./vi. 沉思，仔细思索： to view or consider with continued attention</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>The two girls stared at each other in consternation without any idea about what to do.   两 个 小 女 孩 惊 恐地望着对方，显得不知所措。</t>
+          <t>contemplate the vastness of the universe  沉思着宇宙的广袤无垠
+She contemplated the problem forseveral hours before reaching a decision.  她苦苦思索了几个小时的问题后才做出决定。</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1587,18 +1576,18 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>contemplate</t>
+          <t>contempt</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>vt./vi. 沉思，仔细思索： to view or consider with continued attention</t>
+          <t>n. 蔑视，鄙视： open dislike for someone or something considered unworthy of one's concern orrespect</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>contemplate the vastness of the universe  沉思着宇宙的广袤无垠
-She contemplated the problem forseveral hours before reaching a decision.  她苦苦思索了几个小时的问题后才做出决定。</t>
+          <t>my undying contempt for people who abuse animals  我对于虐待动物者的无尽鄙视
+Her contempt forilliterate was obvious.   你可以很明显地看出她对文盲的鄙夷。</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1610,45 +1599,45 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>contempt</t>
+          <t>contend</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>n. 蔑视，鄙视： open dislike for someone or something considered unworthy of one's concern orrespect</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>my undying contempt for people who abuse animals  我对于虐待动物者的无尽鄙视
-Her contempt forilliterate was obvious.   你可以很明显地看出她对文盲的鄙夷。</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>contend</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
         <is>
           <t>vi. 竞争，争夺： to strive or vie in contest or rivalry or against difficulties
 vt. 声明，声称： to state as a fact usually forcefully</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>two traditional rivals contending for the championship  两支争夺冠军头衔的老对手
 contended that his opponent was wrong about practically everything  宣称对手几乎在所有问题上都犯了错误
 that the his considerable experience made him the best candidate  声称因为他见多识广，所以是最佳人选</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>contradict</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>vt. 否认，反驳；相矛盾： to assert the contrary of; to imply the opposite or a denial of</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>contradict a rumor  反驳谣言
+Your actions contradict your words.   你的行为和你说的话自相矛盾。</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1658,18 +1647,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>contradict</t>
+          <t>contrived</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>vt. 否认，反驳；相矛盾： to assert the contrary of; to imply the opposite or a denial of</t>
+          <t>adj. 不自然的，刻意的：lacking in natural or spontaneous quality</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>contradict a rumor  反驳谣言
-Your actions contradict your words.   你的行为和你说的话自相矛盾。</t>
+          <t>We are bored with the contrived applause of a TV studio audience that has been told when to clap.  摄影棚中的观众会被告知什么时候鼓掌，这种经过精心指挥的掌声让我们倍感困倦。</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1681,17 +1669,18 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>contrived</t>
+          <t>correlate</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>adj. 不自然的，刻意的：lacking in natural or spontaneous quality</t>
+          <t>vt. 使…相关联： to establish a mutual or reciprocal relation between</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>We are bored with the contrived applause of a TV studio audience that has been told when to clap.  摄影棚中的观众会被告知什么时候鼓掌，这种经过精心指挥的掌声让我们倍感困倦。</t>
+          <t>a demanding father who always correlated success with hard work  一个总将成功和辛勤工作关联起来的严格父亲
+In this work, we correlate the simulation in the lab and the observation in the field to examine thevalidity of our theory.   本文中，我们将实验室的模拟结果和场地外的观测数据联系起来以验证理论的真实性。</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1703,20 +1692,15 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>correlate</t>
+          <t>counterpart</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>vt. 使…相关联： to establish a mutual or reciprocal relation between</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>a demanding father who always correlated success with hard work  一个总将成功和辛勤工作关联起来的严格父亲
-In this work, we correlate the simulation in the lab and the observation in the field to examine thevalidity of our theory.   本文中，我们将实验室的模拟结果和场地外的观测数据联系起来以验证理论的真实性。</t>
-        </is>
-      </c>
+          <t>n. （地位、功能）对等的人或物： one having the same function or characteristics as another</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1726,15 +1710,19 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>counterpart</t>
+          <t>courteous</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>n. （地位、功能）对等的人或物： one having the same function or characteristics as another</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>adj. 礼貌的，恭谦有礼的： marked by polished manners, gallantry, or ceremonial usage of a court</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Their customer service department always gives courteous responses, even to rude people.  哪 怕 是对粗鲁的消费者，他们的客服部门总是用一种非常有礼貌的态度回复。</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1744,17 +1732,18 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>courteous</t>
+          <t>credible</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>adj. 礼貌的，恭谦有礼的： marked by polished manners, gallantry, or ceremonial usage of a court</t>
+          <t>adj. 可信的，值得信赖的： worthy of being accepted as true or reasonable</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Their customer service department always gives courteous responses, even to rude people.  哪 怕 是对粗鲁的消费者，他们的客服部门总是用一种非常有礼貌的态度回复。</t>
+          <t>It’s not perfect, but is at least a credible explanation.  尽管还不算完美，但这好歹也算是可信的解释了。
+a credible account of an accident  事故的可靠报道</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1766,18 +1755,19 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>credible</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>adj. 可信的，值得信赖的： worthy of being accepted as true or reasonable</t>
+          <t>n. 信任，信赖： mental conviction of the truth of some statement or the reality of some being orphenomenon
+n. 表扬，赞扬： public acknowledgment or admiration for an achievement</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>It’s not perfect, but is at least a credible explanation.  尽管还不算完美，但这好歹也算是可信的解释了。
-a credible account of an accident  事故的可靠报道</t>
+          <t>I give full credit to this report on the prevalence of cheating among college students today.   我 非 常 相 信这则有关大学中作弊成风的报道。
+She deserves all the credit, since she did all the work.   是她完成了所有的工作，因此荣誉都应该归她所有。</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1789,19 +1779,18 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>decry</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>n. 信任，信赖： mental conviction of the truth of some statement or the reality of some being orphenomenon
-n. 表扬，赞扬： public acknowledgment or admiration for an achievement</t>
+          <t>vt. 强烈反对，否定： to express strong disapproval of</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>I give full credit to this report on the prevalence of cheating among college students today.   我 非 常 相 信这则有关大学中作弊成风的报道。
-She deserves all the credit, since she did all the work.   是她完成了所有的工作，因此荣誉都应该归她所有。</t>
+          <t>Scientists were quick to decry the claims of the psychic.  通 灵 者 的 说 法 很 快 就 遭 到 了 科 学 家 的 反对。
+decry the excessive emphasis on sex  谴责对于性的过分重视</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1813,18 +1802,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>decry</t>
+          <t>deign</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>vt. 强烈反对，否定： to express strong disapproval of</t>
+          <t>vi. （不情愿地）屈尊，俯就： to condescend reluctantly and with a strong sense of the affront to one'ssuperiority that is involved</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Scientists were quick to decry the claims of the psychic.  通 灵 者 的 说 法 很 快 就 遭 到 了 科 学 家 的 反对。
-decry the excessive emphasis on sex  谴责对于性的过分重视</t>
+          <t>I would never deign to answer that absurd accusation.   我根本不屑于去解释那样一个荒谬的指责。</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1836,17 +1824,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>deign</t>
+          <t>delineate</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>vi. （不情愿地）屈尊，俯就： to condescend reluctantly and with a strong sense of the affront to one'ssuperiority that is involved</t>
+          <t>vt. 勾勒，用线条描绘： to indicate or represent by drawn or painted lines</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>I would never deign to answer that absurd accusation.   我根本不屑于去解释那样一个荒谬的指责。</t>
+          <t>lights delineating the narrow streets  勾勒狭窄街道线条的路灯</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1858,17 +1846,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>delineate</t>
+          <t>desperate</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>vt. 勾勒，用线条描绘： to indicate or represent by drawn or painted lines</t>
+          <t>adj. 绝望的： feeling or showing no hope</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>lights delineating the narrow streets  勾勒狭窄街道线条的路灯</t>
+          <t>a desperate spirit crying for relief  一个渴望宽慰的绝望的灵魂</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1880,17 +1868,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>desperate</t>
+          <t>dichotomy</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>adj. 绝望的： feeling or showing no hope</t>
+          <t>n. 一分为二，分割： a division into two especially mutually exclusive or contradictory groups orentities</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>a desperate spirit crying for relief  一个渴望宽慰的绝望的灵魂</t>
+          <t>a dichotomy between the academic world and the industrial world  学术界和工业界的割裂</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1902,44 +1890,44 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>dichotomy</t>
+          <t>dictate</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>n. 一分为二，分割： a division into two especially mutually exclusive or contradictory groups orentities</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>a dichotomy between the academic world and the industrial world  学术界和工业界的割裂</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>dictate</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
         <is>
           <t>n. 指令，命令： a command by one in authority
 vt. （仗着地位、权力）下令： to request the doing of by virtue of one’s authority</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>followed the dictates of my conscience  遵从我的良心准则
 The army must abide by the dictates of thenew government.   军队必须服从新政府的命令。
 The general dictated that the terms of surrender be negotiated by his senior staff.   将军要求投降书中的若干条款交付手下的高级将领进行讨论。</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>discreet</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>adj. （言行）谨慎的： having or showing good judgment and restraint especially in conduct or speech</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>He was very discreet, only saying what was necessary.   他是个十分谨慎的人，从来不说多余的话。</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1949,17 +1937,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>discreet</t>
+          <t>disprove</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>adj. （言行）谨慎的： having or showing good judgment and restraint especially in conduct or speech</t>
+          <t>vt. 证伪，证明为假： to prove to be false or wrong</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>He was very discreet, only saying what was necessary.   他是个十分谨慎的人，从来不说多余的话。</t>
+          <t>Magellan’s circumnavigation of the globe disproved any lingering notions that the earth is flat.   麦 哲 伦的环球旅行彻底否认了任何残存的“地球是平的”的观念。</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1971,17 +1959,19 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>disprove</t>
+          <t>distinctive</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>vt. 证伪，证明为假： to prove to be false or wrong</t>
+          <t>adj. 完全不同的： being not of the same kind
+adj. 特征性的，典型的： serving to identify as belonging to an individual or group</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Magellan’s circumnavigation of the globe disproved any lingering notions that the earth is flat.   麦 哲 伦的环球旅行彻底否认了任何残存的“地球是平的”的观念。</t>
+          <t>She seems to alternate between two distinctive hairstyles.   她的发型似乎在两种截然不同的样式中交替。
+She seems to alternate between two distinctive hairstyles.   她的发型似乎在两种截然不同的样式中交替。</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1993,19 +1983,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>distinctive</t>
+          <t>doctrinaire</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>adj. 完全不同的： being not of the same kind
-adj. 特征性的，典型的： serving to identify as belonging to an individual or group</t>
+          <t>adj. 教条主义的，照本宣科的： given to or marked by the forceful expression of strongly heldopinions</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>She seems to alternate between two distinctive hairstyles.   她的发型似乎在两种截然不同的样式中交替。
-She seems to alternate between two distinctive hairstyles.   她的发型似乎在两种截然不同的样式中交替。</t>
+          <t>A doctrinaire conservative, the columnist takes special delight in baiting liberals.   这个专栏作家是个谨遵教条的顽固保守主义者，他很享受挑衅那些自由主义者。</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2017,17 +2005,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>doctrinaire</t>
+          <t>drab</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>adj. 教条主义的，照本宣科的： given to or marked by the forceful expression of strongly heldopinions</t>
+          <t>adj. 单调的，无聊的： characterized by dullness and monotony</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>A doctrinaire conservative, the columnist takes special delight in baiting liberals.   这个专栏作家是个谨遵教条的顽固保守主义者，他很享受挑衅那些自由主义者。</t>
+          <t>The new city hall turned out to be another drab pile of masonry for the town.   新的市政大厅结果又是城镇里一座单调无趣的砖瓦堆积物。</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2039,17 +2027,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>drab</t>
+          <t>dramatic</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>adj. 单调的，无聊的： characterized by dullness and monotony</t>
+          <t>adj.显著的，惹人注意的： striking in appearance or effect</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>The new city hall turned out to be another drab pile of masonry for the town.   新的市政大厅结果又是城镇里一座单调无趣的砖瓦堆积物。</t>
+          <t>a dramatic drop in the temperature overnight  夜晚气温的显著下降</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2061,17 +2049,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>dramatic</t>
+          <t>dread</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>adj.显著的，惹人注意的： striking in appearance or effect</t>
+          <t>n. 恐惧： great fear especially in the face of impending evil</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>a dramatic drop in the temperature overnight  夜晚气温的显著下降</t>
+          <t>We were filled with dread when we saw the rapids we would be rafting down.   当我们看到竹筏驶向的激流时，我们的内心被恐惧所占据。</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2083,39 +2071,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>dread</t>
+          <t>duplicate</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>n. 恐惧： great fear especially in the face of impending evil</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>We were filled with dread when we saw the rapids we would be rafting down.   当我们看到竹筏驶向的激流时，我们的内心被恐惧所占据。</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>duplicate</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
         <is>
           <t>n. 复制品： either of two things exactly alike and usually produced at the same time or by the sameprocess
 vt. 复制： to make a copy of
 vt. 重复，反复： to do over or again often needlessly</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">a duplicate of a house key  房间钥匙的复制品
 Your computer is almost a duplicate of mine.  你 的 电脑和我的几乎一模一样。
@@ -2124,6 +2090,29 @@
 We were unable to duplicate the experiment with the same result in our own lab, so we’re suspicious.  </t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>dynamic</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>adj. 有力量的，有活力的： marked by usually continuous and productive activity or change; energetic</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>He has become a dynamic new challenger for the title of champion.   他 成 为 了 有 望 夺 的 有 活 力 的 新 选手。
+a dynamic speech expressing her goals and values  宣扬她的目标和理念的慷慨激昂的演讲</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2133,18 +2122,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>dynamic</t>
+          <t>eclectic</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>adj. 有力量的，有活力的： marked by usually continuous and productive activity or change; energetic</t>
+          <t>adj. 混合的，多元化的： composed of elements drawn from various sources</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>He has become a dynamic new challenger for the title of champion.   他 成 为 了 有 望 夺 的 有 活 力 的 新 选手。
-a dynamic speech expressing her goals and values  宣扬她的目标和理念的慷慨激昂的演讲</t>
+          <t xml:space="preserve">The museum’s eclectic collection has everything from a giraffe skeleton to medieval musical instruments.  </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2156,17 +2144,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>eclectic</t>
+          <t>efficacious</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>adj. 混合的，多元化的： composed of elements drawn from various sources</t>
+          <t>adj. 有效的： having the power to produce a desired effect</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">The museum’s eclectic collection has everything from a giraffe skeleton to medieval musical instruments.  </t>
+          <t>Taking break with a cup of coffee while studying is one of the most efficacious ways of rejuvenating themind that I have ever discovered.  在紧张的学习中休息一会，喝杯咖啡，是我发现的最能提神的方法之一。</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2178,44 +2166,44 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>efficacious</t>
+          <t>elude</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>adj. 有效的： having the power to produce a desired effect</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Taking break with a cup of coffee while studying is one of the most efficacious ways of rejuvenating themind that I have ever discovered.  在紧张的学习中休息一会，喝杯咖啡，是我发现的最能提神的方法之一。</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>elude</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
         <is>
           <t>vt. 躲闪，躲避： to avoid adroitly
 vt. 使无法理解，使困惑： to escape the perception, understanding, or grasp of</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>managed to elude capture  成功躲过了追捕
 The mil ionaire had been eluding his fair share of taxes foryears before getting caught.  在被逮捕之前，这名富翁逃税已经有若干年了。
 a metaphor that eluded them  一个让他们无法理解的比喻</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>enamored</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>adj. 迷恋的，热爱的： filled with an intense or excessive love for</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Many teenage girls became enamored of the movie idol for her boyish good looks.   很多年轻的女孩子因为影星男性化的帅气面庞而对她深深迷恋。</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2225,17 +2213,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>enamored</t>
+          <t>enthrall</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>adj. 迷恋的，热爱的： filled with an intense or excessive love for</t>
+          <t>vt. （像用魔咒般）吸引： to hold the attention of as if by a spell</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Many teenage girls became enamored of the movie idol for her boyish good looks.   很多年轻的女孩子因为影星男性化的帅气面庞而对她深深迷恋。</t>
+          <t>Enthralled by the flickering aurora in the sky, we lost all track of time.   我们被夜空里变化莫测的极光深深地吸引，以至于忘却了时间。</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2247,17 +2235,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>enthrall</t>
+          <t>ethos</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>vt. （像用魔咒般）吸引： to hold the attention of as if by a spell</t>
+          <t>n. 道德准则： the code of good conduct for an individual or group</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Enthralled by the flickering aurora in the sky, we lost all track of time.   我们被夜空里变化莫测的极光深深地吸引，以至于忘却了时间。</t>
+          <t>Rigorous self-discipline was central to the ethos of the ancient Spartans.   严格的自律是古代斯巴达人所尊崇的核心道德准则。</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2269,17 +2257,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ethos</t>
+          <t>exorcise</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>n. 道德准则： the code of good conduct for an individual or group</t>
+          <t>vt. 除去： to get rid of (something troublesome, menacing, or oppressive)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Rigorous self-discipline was central to the ethos of the ancient Spartans.   严格的自律是古代斯巴达人所尊崇的核心道德准则。</t>
+          <t>Please exorcise that offensive word from your vocabulary.   请把那个粗鲁的词从你的字典里删掉。</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2291,17 +2279,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>exorcise</t>
+          <t>explicate</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>vt. 除去： to get rid of (something troublesome, menacing, or oppressive)</t>
+          <t>vt. 解释，说明： to give a detailed explanation of</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Please exorcise that offensive word from your vocabulary.   请把那个粗鲁的词从你的字典里删掉。</t>
+          <t>The physicist did his best to explicate the wave theory of light for the audience of laymen.   物 理 学 家 尽其所能向一群非专业的群众解释了光的波动性理论。</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2313,17 +2301,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>explicate</t>
+          <t>exterminate</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>vt. 解释，说明： to give a detailed explanation of</t>
+          <t>vt. 根除，消灭： to get rid of completely usually by killing off</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>The physicist did his best to explicate the wave theory of light for the audience of laymen.   物 理 学 家 尽其所能向一群非专业的群众解释了光的波动性理论。</t>
+          <t>We hope that the fumigant exterminates the whole colony of cockroaches, for any survivors may beresistant to any poison.  我们希望所有的蟑螂都能被杀虫剂根除，因为任何幸存者都可能产生抗药性。</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2335,17 +2323,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>exterminate</t>
+          <t>extrapolate</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>vt. 根除，消灭： to get rid of completely usually by killing off</t>
+          <t>vt. （通过逻辑）推断： to form an opinion or reach a conclusion through reasoning and information</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>We hope that the fumigant exterminates the whole colony of cockroaches, for any survivors may beresistant to any poison.  我们希望所有的蟑螂都能被杀虫剂根除，因为任何幸存者都可能产生抗药性。</t>
+          <t>We can extrapolate from past economic recessions the probable course of the current one.   通 过 以 往 经济衰退的原因我们可以推断出本次危机的可能起源。</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2357,17 +2345,18 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>extrapolate</t>
+          <t>fallible</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>vt. （通过逻辑）推断： to form an opinion or reach a conclusion through reasoning and information</t>
+          <t>adj. 可能出错的： tending or likely to be erroneous or capable of making an error</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>We can extrapolate from past economic recessions the probable course of the current one.   通 过 以 往 经济衰退的原因我们可以推断出本次危机的可能起源。</t>
+          <t>They are only human and all too fallible.   他们都是人类，因此难免犯错。
+a hasty, fallible generalization</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2379,18 +2368,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>fallible</t>
+          <t>fervent</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>adj. 可能出错的： tending or likely to be erroneous or capable of making an error</t>
+          <t>adj. 充满感情的，热情洋溢的： exhibiting or marked by great intensity of feeling</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>They are only human and all too fallible.   他们都是人类，因此难免犯错。
-a hasty, fallible generalization</t>
+          <t>a fervent speech that called for tolerance and compassion for those who are physically challenged  一个充满感情的演说，它呼吁人们对残疾人持有一颗包容和同情的心</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2402,17 +2390,18 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>fervent</t>
+          <t>figment</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>adj. 充满感情的，热情洋溢的： exhibiting or marked by great intensity of feeling</t>
+          <t>n. 虚构的事物，幻觉： something made up or contrived</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>a fervent speech that called for tolerance and compassion for those who are physically challenged  一个充满感情的演说，它呼吁人们对残疾人持有一颗包容和同情的心</t>
+          <t>Unable to find any tracks in the snow the next morning, I was forced to conclude that the shadowy figurehad been a figment of my imagination.   第二天一早，我没有在雪地上发现任何足迹，由此我不得不相信昨晚幽灵一样的物体只是我的空想。
+Thus far, the invisible human being has been nothing more than a figment of fantasywriters.   到目前为止，隐形人还仅仅只是玄幻小说笔下的构想。</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2424,18 +2413,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>figment</t>
+          <t>forebode</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>n. 虚构的事物，幻觉： something made up or contrived</t>
+          <t>vi. 预示，预兆： to show signs of a favorable or successful outcome</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Unable to find any tracks in the snow the next morning, I was forced to conclude that the shadowy figurehad been a figment of my imagination.   第二天一早，我没有在雪地上发现任何足迹，由此我不得不相信昨晚幽灵一样的物体只是我的空想。
-Thus far, the invisible human being has been nothing more than a figment of fantasywriters.   到目前为止，隐形人还仅仅只是玄幻小说笔下的构想。</t>
+          <t>That police car parked outside the house doesn’t forebode well.   门外停着的那辆警车可不是什么好兆头。</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2447,17 +2435,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>forebode</t>
+          <t>forfeit</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>vi. 预示，预兆： to show signs of a favorable or successful outcome</t>
+          <t>n. 罚金： a sum of money to be paid as a punishment</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>That police car parked outside the house doesn’t forebode well.   门外停着的那辆警车可不是什么好兆头。</t>
+          <t>The forfeit for each baseball player involved in the brawl was $5,000.   参加大家的篮球运动员都受到了五千美元的罚款。</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2469,17 +2457,18 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>forfeit</t>
+          <t>forsake</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>n. 罚金： a sum of money to be paid as a punishment</t>
+          <t>vt. 彻底放弃，抛弃： to renounce or turn away from entirely</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>The forfeit for each baseball player involved in the brawl was $5,000.   参加大家的篮球运动员都受到了五千美元的罚款。</t>
+          <t>Forsaking most of our possessions, we evacuated just before the hurricane struck.   我们抛下了绝大多数的财产，终于在海啸来袭之前撤离了。
+Her boyfriend has forsaken her.   她的男朋友将她抛弃。</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2491,18 +2480,19 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>forsake</t>
+          <t>germinate</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>vt. 彻底放弃，抛弃： to renounce or turn away from entirely</t>
+          <t>vi. 发芽： to begin to grow
+vi. 出现： to come into being</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Forsaking most of our possessions, we evacuated just before the hurricane struck.   我们抛下了绝大多数的财产，终于在海啸来袭之前撤离了。
-Her boyfriend has forsaken her.   她的男朋友将她抛弃。</t>
+          <t>Some seed varieties germinate very quickly.   有一些种子的变异体能够迅速发芽。
+A truly marvelous proof of this theorem germinated in his mind.   这个定理的一种绝妙证明方法浮现在他的脑海之中。</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2514,19 +2504,18 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>germinate</t>
+          <t>grudge</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>vi. 发芽： to begin to grow
-vi. 出现： to come into being</t>
+          <t>n. 怨恨，仇恨： a feeling of deep-seated resentment or ill will</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Some seed varieties germinate very quickly.   有一些种子的变异体能够迅速发芽。
-A truly marvelous proof of this theorem germinated in his mind.   这个定理的一种绝妙证明方法浮现在他的脑海之中。</t>
+          <t>There has been a grudge between the two families for years.  两家之间积怨已深。
+He has had a deepgrudge against her ever since she snubbed him at the dance.   自从她在舞会上对他不理不睬之后，他就对她怀有深深的怨念。</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2538,18 +2527,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>grudge</t>
+          <t>halfhearted</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>n. 怨恨，仇恨： a feeling of deep-seated resentment or ill will</t>
+          <t>adj. 不感兴趣的，不热情的： lacking heart, spirit, or interest</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>There has been a grudge between the two families for years.  两家之间积怨已深。
-He has had a deepgrudge against her ever since she snubbed him at the dance.   自从她在舞会上对他不理不睬之后，他就对她怀有深深的怨念。</t>
+          <t>a halfhearted attempt to clean the house before the arrival of the in-laws  在亲家到来前草草地收拾房间了事</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2561,17 +2549,19 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>halfhearted</t>
+          <t>humdrum</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>adj. 不感兴趣的，不热情的： lacking heart, spirit, or interest</t>
+          <t>n. 千篇一律，单调： a tedious lack of variety
+adj. 无聊的，乏味的： lacking variety or excitement</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>a halfhearted attempt to clean the house before the arrival of the in-laws  在亲家到来前草草地收拾房间了事</t>
+          <t>She has been loathing the humdrum of daily life in a small town for a long time.  一 直 以 来她 很 反感 于小城镇里一成不变的生活。
+trapped in a humdrum but well-paid job  陷于无聊但是收入可观的工作之中</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2583,19 +2573,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>humdrum</t>
+          <t>humiliate</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>n. 千篇一律，单调： a tedious lack of variety
-adj. 无聊的，乏味的： lacking variety or excitement</t>
+          <t>vt. 羞辱，使丧失尊严： to reduce to a lower position in one’s own eyes or others’ eyes</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>She has been loathing the humdrum of daily life in a small town for a long time.  一 直 以 来她 很 反感 于小城镇里一成不变的生活。
-trapped in a humdrum but well-paid job  陷于无聊但是收入可观的工作之中</t>
+          <t xml:space="preserve">No student feels humiliated for not having the “right” clothes because everyone is wearing a school uniform.  </t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2607,17 +2595,19 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>humiliate</t>
+          <t>hypothetical</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>vt. 羞辱，使丧失尊严： to reduce to a lower position in one’s own eyes or others’ eyes</t>
+          <t>n. 假设，前提条件： something taken as being true or factual and used as a starting point for a courseof action or reasoning
+adj. 假定的： existing only as an assumption or speculation</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">No student feels humiliated for not having the “right” clothes because everyone is wearing a school uniform.  </t>
+          <t>He believes that predictions of the extinction of certain species as the result of global warming are basedupon too many hypotheticals.   他认为所谓全球变暖会导致某些物种灭绝的说法基于过多的假设。
+We talked about what we would do in various hypothetical emergencies.   我们讨论了在假定的各种紧急情况下的对策。</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2629,19 +2619,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>hypothetical</t>
+          <t>impunity</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>n. 假设，前提条件： something taken as being true or factual and used as a starting point for a courseof action or reasoning
-adj. 假定的： existing only as an assumption or speculation</t>
+          <t>n. 免责，免受处罚： exemption or freedom from punishment, harm, or loss</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>He believes that predictions of the extinction of certain species as the result of global warming are basedupon too many hypotheticals.   他认为所谓全球变暖会导致某些物种灭绝的说法基于过多的假设。
-We talked about what we would do in various hypothetical emergencies.   我们讨论了在假定的各种紧急情况下的对策。</t>
+          <t>She mistakenly believed that she could insult people with impunity.   她错误地认为她可以肆无忌惮地羞辱他人。</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2653,17 +2641,18 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>impunity</t>
+          <t>incentive</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>n. 免责，免受处罚： exemption or freedom from punishment, harm, or loss</t>
+          <t>n. 刺激，诱因： something that incites or has a tendency to incite to determination or action</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>She mistakenly believed that she could insult people with impunity.   她错误地认为她可以肆无忌惮地羞辱他人。</t>
+          <t>The handsome reward for the missing wallet was an incentive for me to start looking.   找 到 丢 失 钱 包 的可观报酬激励我展开搜寻。
+A little bonus will give employees an incentive to work harder.  一 点 点 奖 金 就 可以刺激雇员更加努力地工作。</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2675,18 +2664,18 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>incentive</t>
+          <t>justify</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>n. 刺激，诱因： something that incites or has a tendency to incite to determination or action</t>
+          <t>vt. 证明…的合理性，辩解： to prove or show to be just, right, or reasonable</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>The handsome reward for the missing wallet was an incentive for me to start looking.   找 到 丢 失 钱 包 的可观报酬激励我展开搜寻。
-A little bonus will give employees an incentive to work harder.  一 点 点 奖 金 就 可以刺激雇员更加努力地工作。</t>
+          <t>failed to justify the need for a new expressway at this time  没能证明修建新的高速公路的合理性
+Thestorm warning justified his leaving early.   他的早退因为风暴预警而显得理所当然。</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2698,33 +2687,10 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>justify</t>
+          <t>license</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>vt. 证明…的合理性，辩解： to prove or show to be just, right, or reasonable</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>failed to justify the need for a new expressway at this time  没能证明修建新的高速公路的合理性
-Thestorm warning justified his leaving early.   他的早退因为风暴预警而显得理所当然。</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>license</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
         <is>
           <t>n. 许可，认可： the approval by someone in authority for the doing of something
 n. 自由： the right to act or move freely
@@ -2732,7 +2698,7 @@
 vt. 准许，授权使用： to permit or authorize especially by formal license</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>The company is seeking license to operate several more power plants in the state.   公司正在寻求在国内建造更多电厂的许可。
 A restaurant owner has to get a license to serve food and drink.   餐厅营业者必须要获得食物和饮品的销售许可。
@@ -2741,6 +2707,28 @@
 licensed to use deadly force  获准使用致命火力</t>
         </is>
       </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ludicrous</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>adj. 荒唐的，可笑的： meriting derisive laughter or scorn as absurdly inept, false, or foolish</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>He made a ludicrous and easily detected attempt to forge his father’s signature on a note to school.   他试图在要上交学校的纸条上伪造父亲的签名，这实在是既可笑又容易被发现的花招。</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2750,17 +2738,19 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ludicrous</t>
+          <t>luminous</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>adj. 荒唐的，可笑的： meriting derisive laughter or scorn as absurdly inept, false, or foolish</t>
+          <t>adj. 发光的，有光泽的： emitting or reflecting usually steady, suffused, or glowing light
+adj. 杰出的，重要的： standing above others in rank, importance, or achievement</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>He made a ludicrous and easily detected attempt to forge his father’s signature on a note to school.   他试图在要上交学校的纸条上伪造父亲的签名，这实在是既可笑又容易被发现的花招。</t>
+          <t>The luminous moon bathed the snow-covered fields with a pearly glow.   在明亮的月光下，雪地仿佛被罩上了一层珍珠般的光晕。
+some of the most luminous writers in the nation’s history  该国历史上最杰出的一批作家</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2772,19 +2762,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>luminous</t>
+          <t>malevolent</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>adj. 发光的，有光泽的： emitting or reflecting usually steady, suffused, or glowing light
-adj. 杰出的，重要的： standing above others in rank, importance, or achievement</t>
+          <t>adj. 恶意的，恶毒的： having, showing, or arising from intense often vicious ill will, spite, or hatred</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>The luminous moon bathed the snow-covered fields with a pearly glow.   在明亮的月光下，雪地仿佛被罩上了一层珍珠般的光晕。
-some of the most luminous writers in the nation’s history  该国历史上最杰出的一批作家</t>
+          <t>The novel grossly oversimplified the conflict as a struggle between relentlessly malevolent villains on one</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2796,17 +2784,18 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>malevolent</t>
+          <t>meditate</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>adj. 恶意的，恶毒的： having, showing, or arising from intense often vicious ill will, spite, or hatred</t>
+          <t>vt. 思索，沉思： to focus one’s thoughts on</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>The novel grossly oversimplified the conflict as a struggle between relentlessly malevolent villains on one</t>
+          <t>meditated a visit to her professor  思索着去拜访她的导师
+I have been meditating a career changefor months.   我花了几个月的时间在考虑换一个工作。</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2818,18 +2807,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>meditate</t>
+          <t>meretricious</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>vt. 思索，沉思： to focus one’s thoughts on</t>
+          <t>adj. 艳俗的，俗气的： attracting attention in a vulgar manner</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>meditated a visit to her professor  思索着去拜访她的导师
-I have been meditating a career changefor months.   我花了几个月的时间在考虑换一个工作。</t>
+          <t>The paradise they found was no more than a meretricious wasteland of casinos and bars.   他 们 所 发 现的所谓“天堂”只不过是一块有着赌场和酒吧的俗气不堪的荒漠罢了。</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2841,17 +2829,18 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>meretricious</t>
+          <t>milieu</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>adj. 艳俗的，俗气的： attracting attention in a vulgar manner</t>
+          <t>n. 环境，氛围： the physical or social setting in which something occurs or develops</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>The paradise they found was no more than a meretricious wasteland of casinos and bars.   他 们 所 发 现的所谓“天堂”只不过是一块有着赌场和酒吧的俗气不堪的荒漠罢了。</t>
+          <t>Young, innovative artists thrive in the freewheeling milieu that a big city offers.   在那个大都市所提供的自由氛围中，年轻而富有创造力的艺术家们的事业蓬勃发展。
+ahistorical milieu conducive to democracy  有 助 于民主制度的历史背景</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2863,18 +2852,18 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>milieu</t>
+          <t>military</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>n. 环境，氛围： the physical or social setting in which something occurs or develops</t>
+          <t>adj. 军事的，军用的： of or relating to soldiers, arms, or war</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Young, innovative artists thrive in the freewheeling milieu that a big city offers.   在那个大都市所提供的自由氛围中，年轻而富有创造力的艺术家们的事业蓬勃发展。
-ahistorical milieu conducive to democracy  有 助 于民主制度的历史背景</t>
+          <t>NATO struggles with how to proceed military operation against Libya.  北约就如何延续针对利比亚的军事行动出现了内部分歧。
+an encyclopedia of modern military aircraft  现代军用飞行器百科全书</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2886,18 +2875,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>military</t>
+          <t>nostalgia</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>adj. 军事的，军用的： of or relating to soldiers, arms, or war</t>
+          <t>n. 思乡之情： the state of being homesick</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>NATO struggles with how to proceed military operation against Libya.  北约就如何延续针对利比亚的军事行动出现了内部分歧。
-an encyclopedia of modern military aircraft  现代军用飞行器百科全书</t>
+          <t>Overwhelmed by nostalgia, she started to cry.   被思乡之情淹没的她开始啜泣。</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2909,44 +2897,44 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>nostalgia</t>
+          <t>numb</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
-        <is>
-          <t>n. 思乡之情： the state of being homesick</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Overwhelmed by nostalgia, she started to cry.   被思乡之情淹没的她开始啜泣。</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>numb</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
         <is>
           <t>adj. 失去感觉的： devoid of sensation especially as a result of cold or anesthesia
 adj. 麻木的，无感情的： devoid of emotion</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>I have been sitting in the same position for too long and now my feet are numb.  我一个姿势坐得太久，以至于双腿都发麻了。
 Apparently in shock, he answered the police officer’s questions with a numb expression on his face.   她显然是受到了惊吓，以至于在回答警官的问题时一脸茫然。
 Years of physical and emotional abuse had renderedthe woman numb and withdrawn.  常年累月的肉体和精神上的折磨已让她麻木而寡言。</t>
         </is>
       </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ordeal</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>n. 严峻的考验： a severe trial or experience</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>The hikers were finally rescued after a three-day ordeal in the wilderness.   在野外度过了三天的严峻考验之后，登山者终于获救了。</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2956,17 +2944,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ordeal</t>
+          <t>ostensible</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>n. 严峻的考验： a severe trial or experience</t>
+          <t>adj. 表面上的，佯装的： appearing to be true on the basis of evidence that may or may not beconfirmed</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>The hikers were finally rescued after a three-day ordeal in the wilderness.   在野外度过了三天的严峻考验之后，登山者终于获救了。</t>
+          <t>It must be the ostensible reason for their visit while their actual motives may be malignant  这 肯 定 只 是他们上门拜访的表面原因，他们背后的动机说不定恶劣至极。</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2978,17 +2966,18 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ostensible</t>
+          <t>outgrowth</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>adj. 表面上的，佯装的： appearing to be true on the basis of evidence that may or may not beconfirmed</t>
+          <t>n. 结果，后果： a condition or occurrence traceable to a cause</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>It must be the ostensible reason for their visit while their actual motives may be malignant  这 肯 定 只 是他们上门拜访的表面原因，他们背后的动机说不定恶劣至极。</t>
+          <t>Crime is often an outgrowth of poverty.  犯罪往往可以归因于贫穷。
+A predictable outgrowth of thesuburb’s ever growing population will be the need for more schools.   郊区人口攀升所导致的一个可以预见的后果就是需要更多的学校。</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3000,18 +2989,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>outgrowth</t>
+          <t>outmoded</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>n. 结果，后果： a condition or occurrence traceable to a cause</t>
+          <t>adj. 过时的，废弃的： no longer acceptable, current, or usable</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Crime is often an outgrowth of poverty.  犯罪往往可以归因于贫穷。
-A predictable outgrowth of thesuburb’s ever growing population will be the need for more schools.   郊区人口攀升所导致的一个可以预见的后果就是需要更多的学校。</t>
+          <t>outmoded computers that can be recycled  可供回收的废旧电脑</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3023,17 +3011,18 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>outmoded</t>
+          <t>override</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>adj. 过时的，废弃的： no longer acceptable, current, or usable</t>
+          <t>vt. 不顾： to set aside</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>outmoded computers that can be recycled  可供回收的废旧电脑</t>
+          <t>The Congress overrode the President’s veto and passed the law.  国会不顾总统的否决，强行通过了那项法令。
+He overrode all opposition to his plans.  他对所有的反对意见不闻不问。</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3045,18 +3034,19 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>override</t>
+          <t>overwhelm</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>vt. 不顾： to set aside</t>
+          <t>vt. 淹没： to cover with or as if with a flood
+vt. （感情上、精神上）使无所适从，使难以承受： to subject to incapacitating emotional or mentalstress</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>The Congress overrode the President’s veto and passed the law.  国会不顾总统的否决，强行通过了那项法令。
-He overrode all opposition to his plans.  他对所有的反对意见不闻不问。</t>
+          <t>That spring the massive runoff from melting snows overwhelmed the valley.   那个春天，整个村庄被融雪形成的洪流吞没了。
+Just the thought of how much work there is to do overwhelms me.  仅仅是想想还有多少工作没完成就几乎让我喘不过气了。</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3068,19 +3058,18 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>overwhelm</t>
+          <t>panacea</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>vt. 淹没： to cover with or as if with a flood
-vt. （感情上、精神上）使无所适从，使难以承受： to subject to incapacitating emotional or mentalstress</t>
+          <t>n. 万能药，万灵药： a remedy for all ills or difficulties</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>That spring the massive runoff from melting snows overwhelmed the valley.   那个春天，整个村庄被融雪形成的洪流吞没了。
-Just the thought of how much work there is to do overwhelms me.  仅仅是想想还有多少工作没完成就几乎让我喘不过气了。</t>
+          <t>a woman who seems to believe that chicken soup is a panacea for nearly everything  一 个 相 信 鸡 汤 是万能灵药的妇女
+Bicycles are not a panacea for the traffic problem.   自行车并不是解决交通问题的万能药。</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3092,18 +3081,18 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>panacea</t>
+          <t>perquisite</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>n. 万能药，万灵药： a remedy for all ills or difficulties</t>
+          <t>n. 额外的好处： something given in addition to what is ordinarily expected or owed</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>a woman who seems to believe that chicken soup is a panacea for nearly everything  一 个 相 信 鸡 汤 是万能灵药的妇女
-Bicycles are not a panacea for the traffic problem.   自行车并不是解决交通问题的万能药。</t>
+          <t>give the movers a perquisite if they do a good job  如果搬家工人做得好就会获得一定的小费
+The use ofa company car is one perquisite of the job.   能使用公司的汽车是这项工作的附加好处之一。</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3115,20 +3104,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>perquisite</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>n. 额外的好处： something given in addition to what is ordinarily expected or owed</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>give the movers a perquisite if they do a good job  如果搬家工人做得好就会获得一定的小费
-The use ofa company car is one perquisite of the job.   能使用公司的汽车是这项工作的附加好处之一。</t>
-        </is>
-      </c>
+          <t>petulant</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3138,36 +3118,46 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>petulant</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
           <t>pitfall</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>n. 陷阱： a pit flimsily covered or camouflaged and used to capture and hold animals or men
 n. （不易察觉的）危害： a hidden or not easily recognized danger or difficulty</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>caught in a pitfall  掉下了陷阱
 Renting a house can be full of pitfalls for the unwary.   对 于 那 些 不 注 意的人来说租房也是危机四伏的。
 One of the pitfalls of ignorance is that people will also assume you are stupid.   无知的一个危害就是，人们总会假设你一无所知。</t>
         </is>
       </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>placid</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>adj. 宁静的，风平浪静的： free from storms or physical disturbance
+adj. 冷静的，淡定的： free from emotional or mental agitation</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>a vacation in the placid lake community  在宁静的湖区度过的假日
+I know an exceptionally placid mother who was rarely upset by her six children  我 认 识 一个 异 常淡 定的母亲，她几乎从未因为自己的六个孩子而烦恼过。</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3177,19 +3167,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>placid</t>
+          <t>playful</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>adj. 宁静的，风平浪静的： free from storms or physical disturbance
-adj. 冷静的，淡定的： free from emotional or mental agitation</t>
+          <t>adj. 爱开玩笑的，好打闹的： given to good-natured joking or teasing</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>a vacation in the placid lake community  在宁静的湖区度过的假日
-I know an exceptionally placid mother who was rarely upset by her six children  我 认 识 一个 异 常淡 定的母亲，她几乎从未因为自己的六个孩子而烦恼过。</t>
+          <t>The little girl was lighthearted and playful.   小女孩性格很轻松愉快，喜欢和别人打闹。</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3201,17 +3189,18 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>playful</t>
+          <t>prerequisite</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>adj. 爱开玩笑的，好打闹的： given to good-natured joking or teasing</t>
+          <t>n. 先决条件，前提： something that is necessary to an end or to the carrying out of a function</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>The little girl was lighthearted and playful.   小女孩性格很轻松愉快，喜欢和别人打闹。</t>
+          <t>Competence is prerequisite to promotion.   能力是提升的必要条件。
+I don’t think a large dwelling place isa prerequisite for a happy life.   我并不认为大的住所就能带来幸福的生活。</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3223,18 +3212,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>prerequisite</t>
+          <t>prerogative</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>n. 先决条件，前提： something that is necessary to an end or to the carrying out of a function</t>
+          <t>n. 特权，权力： an exclusive or special right, power, or privilege</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Competence is prerequisite to promotion.   能力是提升的必要条件。
-I don’t think a large dwelling place isa prerequisite for a happy life.   我并不认为大的住所就能带来幸福的生活。</t>
+          <t>It is your prerogative to refuse to attend religious services.   你有权力不参加宗教活动。</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3246,19 +3234,15 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>prerogative</t>
+          <t>proclaim</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>n. 特权，权力： an exclusive or special right, power, or privilege</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>It is your prerogative to refuse to attend religious services.   你有权力不参加宗教活动。</t>
-        </is>
-      </c>
+          <t>vt. 宣告，使…公之于众： to declare publicly, typically insistently, proudly, or defiantly and in either</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3268,41 +3252,46 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>proclaim</t>
+          <t>project</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
-        <is>
-          <t>vt. 宣告，使…公之于众： to declare publicly, typically insistently, proudly, or defiantly and in either</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
         <is>
           <t>n. 方案，计划： a specific plan or design
 vi. 凸出： to extend outward beyond a usual point
 vt. 预测，预计： to calculate, estimate, or predict (something in the future), based on present data ortrends</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>an ambitious project to develop the city’s underground transport  一项开发城市地下交通系统的雄心勃勃的计划
 Some boulders projected dangerously out above the trail.   一些巨石非常危险地在道路上凸了出来。
 projecting next year’s expenses  预测明年的开销</t>
         </is>
       </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>proprietary</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>n. 所有权： ownership
+adj. 私营的： privately owned and managed and run as a profit-making organization</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>a proprietary hospital  私人医院</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3312,18 +3301,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>proprietary</t>
+          <t>prototype</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>n. 所有权： ownership
-adj. 私营的： privately owned and managed and run as a profit-making organization</t>
+          <t>n. 原型： an original model on which something is patterned</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>a proprietary hospital  私人医院</t>
+          <t>The manufacturer exhaustively tested the prototype of the vehicle before approving production.   生 产 商在将该车型投入生产之前对其原型进行了详细的测试。</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3335,19 +3323,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>prototype</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>n. 原型： an original model on which something is patterned</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>The manufacturer exhaustively tested the prototype of the vehicle before approving production.   生 产 商在将该车型投入生产之前对其原型进行了详细的测试。</t>
-        </is>
-      </c>
+          <t>redeem</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3357,11 +3337,21 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>redeem</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
+          <t>replicate</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>vt. 复制，复刻： to make an exact likeness of
+vt. 重复，反复： to make or do again</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>replicated the famous painting in our art class  在艺术课上复刻一幅名画
+I cannot replicate your results when I do the experiment myself.   我自己的实验里无法重复你的结果。</t>
+        </is>
+      </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3371,19 +3361,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>replicate</t>
+          <t>restitution</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>vt. 复制，复刻： to make an exact likeness of
-vt. 重复，反复： to make or do again</t>
+          <t>n. 补偿，赔偿： a making good of or giving an equivalent for some injury</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>replicated the famous painting in our art class  在艺术课上复刻一幅名画
-I cannot replicate your results when I do the experiment myself.   我自己的实验里无法重复你的结果。</t>
+          <t>The victims are demanding full restitution.   受害者要求全额补偿。</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3395,17 +3383,18 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>restitution</t>
+          <t>resurrect</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>n. 补偿，赔偿： a making good of or giving an equivalent for some injury</t>
+          <t>vt. 使重生，使复苏： to bring back to life, practice, or activity</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>The victims are demanding full restitution.   受害者要求全额补偿。</t>
+          <t>believed that his body would be resurrected  相信他的身体将会复活
+Attempts are being made by bothparties to resurrect the stalled arms negotiations.   双方正在努力重启受阻的武装谈判。</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3417,18 +3406,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>resurrect</t>
+          <t>retrieve</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>vt. 使重生，使复苏： to bring back to life, practice, or activity</t>
+          <t>vt. 寻回，找回： to get back again</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>believed that his body would be resurrected  相信他的身体将会复活
-Attempts are being made by bothparties to resurrect the stalled arms negotiations.   双方正在努力重启受阻的武装谈判。</t>
+          <t>I needed to retrieve the book from my friend so I could return it to the library.   我需要先把书从朋友那里拿回来才能还给图书馆。</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3440,17 +3428,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>retrieve</t>
+          <t>reverberate</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>vt. 寻回，找回： to get back again</t>
+          <t>vi. 回荡，回响： to continue or be repeated in a series of reflected sound waves</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>I needed to retrieve the book from my friend so I could return it to the library.   我需要先把书从朋友那里拿回来才能还给图书馆。</t>
+          <t>The sound of thunder reverberated from one end of the mountain pass to the other.  打 雷 的 声 音 在 山间不断回荡。</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3462,17 +3450,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>reverberate</t>
+          <t>ruthless</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>vi. 回荡，回响： to continue or be repeated in a series of reflected sound waves</t>
+          <t>adj. 没有怜悯心的，残忍的： having no pity</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>The sound of thunder reverberated from one end of the mountain pass to the other.  打 雷 的 声 音 在 山间不断回荡。</t>
+          <t>an office supervisor with a ruthless disregard for others’ feelings  一个从不顾及他人感情的无情领导</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3484,17 +3472,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ruthless</t>
+          <t>scourge</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>adj. 没有怜悯心的，残忍的： having no pity</t>
+          <t>n. 祸害： a source of harm or misfortune</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>an office supervisor with a ruthless disregard for others’ feelings  一个从不顾及他人感情的无情领导</t>
+          <t xml:space="preserve">The sheer ubiquity of food seems to be the scourge of humanity, as evidenced by the obesity epidemic.  </t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3506,17 +3494,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>scourge</t>
+          <t>scruple</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>n. 祸害： a source of harm or misfortune</t>
+          <t>n. （良心上的）不安： an uneasy feeling about the rightness of what one is doing or going to do</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">The sheer ubiquity of food seems to be the scourge of humanity, as evidenced by the obesity epidemic.  </t>
+          <t>The survey showed that many students had few scruples about cheating on papers or exams.   调 查 显示很多学生对于在考试时作弊没有丝毫的愧疚。</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3528,17 +3516,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>scruple</t>
+          <t>sectarianism</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>n. （良心上的）不安： an uneasy feeling about the rightness of what one is doing or going to do</t>
+          <t>n. 宗派主义，顽固： stubborn or intolerant adherence to one's opinions or prejudices</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>The survey showed that many students had few scruples about cheating on papers or exams.   调 查 显示很多学生对于在考试时作弊没有丝毫的愧疚。</t>
+          <t xml:space="preserve">An ideological sectarianism prevented the political party from ever being anything more than a fringe group.  </t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3550,17 +3538,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>sectarianism</t>
+          <t>secular</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>n. 宗派主义，顽固： stubborn or intolerant adherence to one's opinions or prejudices</t>
+          <t>adj. 世俗的，尘世的： of or relating to the worldly or temporal</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve">An ideological sectarianism prevented the political party from ever being anything more than a fringe group.  </t>
+          <t>That’s an issue for the secular authorities, not the church.   这个问题和宗教无关，是一个世俗事务。</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3572,17 +3560,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>secular</t>
+          <t>sparing</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>adj. 世俗的，尘世的： of or relating to the worldly or temporal</t>
+          <t>adj. 节俭的，节约的： marked by or practicing careful restraint (as in the use of resources)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>That’s an issue for the secular authorities, not the church.   这个问题和宗教无关，是一个世俗事务。</t>
+          <t>The sparing couple are trying to save up enough for a house.  节俭的夫妻希望能够攒钱买套房。</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3594,17 +3582,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>sparing</t>
+          <t>stereotype</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>adj. 节俭的，节约的： marked by or practicing careful restraint (as in the use of resources)</t>
+          <t>n. 成见，老套的理念： a conventional, formulaic, and oversimplified conception, opinion, or image</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>The sparing couple are trying to save up enough for a house.  节俭的夫妻希望能够攒钱买套房。</t>
+          <t>The noble savage was a stereotype that appealed to 18th-century intellectuals, who viewed Europeancivilization as decadent and corrupt.   “高贵的野蛮人”这一概念是为了迎合十八世纪的文人而提出的，他们将欧洲视作一支正在堕落和腐化的文明。</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3616,44 +3604,46 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>substitute</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
-        <is>
-          <t>n. 成见，老套的理念： a conventional, formulaic, and oversimplified conception, opinion, or image</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>The noble savage was a stereotype that appealed to 18th-century intellectuals, who viewed Europeancivilization as decadent and corrupt.   “高贵的野蛮人”这一概念是为了迎合十八世纪的文人而提出的，他们将欧洲视作一支正在堕落和腐化的文明。</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>substitute</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
         <is>
           <t>n. 取代者，替代品： a person or thing that takes the place or function of another
 vt. 取代，替代： to take the place of</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>If you like, you can use nuts as a substitute for coconut in that recipe.  如果您不反对，我们可以将菜单里的椰子换成坚果。
 substituting moral power for physical force  将暴力用道德的力量代替
 BFR molecules have someatoms substituted by bromide atoms, which makes it fire-resistant.   在溴化阻燃剂的分子中，一部分原子被溴原子取代，从而使它不易燃烧。</t>
         </is>
       </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>succumb</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>vi. 屈服： to yield to superior strength or force or overpowering appeal or desire
+vi. 死亡： to be brought to an end (as death) by the effect of destructive or disruptive forces</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">refused to succumb to her fears and defiantly walked through the dark cemetery  拒绝向自己的恐惧屈服，而是倔强地走过了幽暗的墓地
+The patient lay so still and pale that everyone thought he had succumbed, and then he opened his eyes.  </t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3663,19 +3653,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>succumb</t>
+          <t>supersede</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>vi. 屈服： to yield to superior strength or force or overpowering appeal or desire
-vi. 死亡： to be brought to an end (as death) by the effect of destructive or disruptive forces</t>
+          <t>vt. 取代，替代： to displace in favor of another</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">refused to succumb to her fears and defiantly walked through the dark cemetery  拒绝向自己的恐惧屈服，而是倔强地走过了幽暗的墓地
-The patient lay so still and pale that everyone thought he had succumbed, and then he opened his eyes.  </t>
+          <t>That edition of the dictionary that you have has been superseded by a more recent one.  你 买 的 那 一版的字典已经被最近新出的版本取代了。</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3687,19 +3675,15 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>supersede</t>
+          <t>surly</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>vt. 取代，替代： to displace in favor of another</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>That edition of the dictionary that you have has been superseded by a more recent one.  你 买 的 那 一版的字典已经被最近新出的版本取代了。</t>
-        </is>
-      </c>
+          <t>adj. 脾气不好的： irritably sullen and churlish in mood or manner</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3709,15 +3693,19 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>surly</t>
+          <t>surmise</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>adj. 脾气不好的： irritably sullen and churlish in mood or manner</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
+          <t>n. （根据不足的）推测，揣测： a thought or idea based on scanty evidence</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">My surmise is that the couple’s “good news” is the announcement that they are going to have a baby.  </t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3727,17 +3715,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>surmise</t>
+          <t>surmount</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>n. （根据不足的）推测，揣测： a thought or idea based on scanty evidence</t>
+          <t>vt. 战胜，获得胜利： to achieve a victory over</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">My surmise is that the couple’s “good news” is the announcement that they are going to have a baby.  </t>
+          <t>an Olympic swimmer who surmounted endless obstacles to achieve her goals  一个克服重重困难最终实现目标的奥运游泳运动员</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3749,17 +3737,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>surmount</t>
+          <t>surrogate</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>vt. 战胜，获得胜利： to achieve a victory over</t>
+          <t>n. 替代品： one that takes the place of another</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>an Olympic swimmer who surmounted endless obstacles to achieve her goals  一个克服重重困难最终实现目标的奥运游泳运动员</t>
+          <t>For some people, Google Earth is never a justified surrogate for actual travel.   对于一部分人而言，谷歌地球决不是旅行的合理替代品。</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3771,17 +3759,18 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>surrogate</t>
+          <t>tame</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>n. 替代品： one that takes the place of another</t>
+          <t>adj. 被驯化的： reduced from a state of native wildness especially so as to be tractable and usefulto humans
+adj. 无聊的，乏味的： lacking spirit, zest, interest, or the capacity to excite</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>For some people, Google Earth is never a justified surrogate for actual travel.   对于一部分人而言，谷歌地球决不是旅行的合理替代品。</t>
+          <t>Every evening, a wild Canada goose is at the food trough with our tame geese.  每 天 傍 晚的 食 槽边 总会出现一只野生加拿大鹅和我们的饲养家鹅一起进食。</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3793,18 +3782,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>tame</t>
+          <t>tangle</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>adj. 被驯化的： reduced from a state of native wildness especially so as to be tractable and usefulto humans
-adj. 无聊的，乏味的： lacking spirit, zest, interest, or the capacity to excite</t>
+          <t>n. 困惑，不解： a state of perplexity or complete bewilderment</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Every evening, a wild Canada goose is at the food trough with our tame geese.  每 天 傍 晚的 食 槽边 总会出现一只野生加拿大鹅和我们的饲养家鹅一起进食。</t>
+          <t xml:space="preserve">My mind has been in a tangle ever since I learned some information about an old, deceased acquaintance.  </t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3816,17 +3804,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>tangle</t>
+          <t>teeming</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>n. 困惑，不解： a state of perplexity or complete bewilderment</t>
+          <t>adj. 大量的： possessing or covered with great numbers or amounts of something specified</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t xml:space="preserve">My mind has been in a tangle ever since I learned some information about an old, deceased acquaintance.  </t>
+          <t>oceans teeming with life  孕育着无穷生命的海洋</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3838,17 +3826,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>teeming</t>
+          <t>temporal</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>adj. 大量的： possessing or covered with great numbers or amounts of something specified</t>
+          <t>adj. 世俗的，尘世的： of or relating to earthly life</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>oceans teeming with life  孕育着无穷生命的海洋</t>
+          <t xml:space="preserve">The master told his disciples not to worry about temporal concerns, but instead focus on spiritual matters.  </t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3860,17 +3848,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>temporal</t>
+          <t>tentative</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>adj. 世俗的，尘世的： of or relating to earthly life</t>
+          <t>adj. 暂时性的，尝试的： not fully worked out or developed</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t xml:space="preserve">The master told his disciples not to worry about temporal concerns, but instead focus on spiritual matters.  </t>
+          <t>Our plans are only tentative at this point and will depend on whether you can come.  我 们 的 计 划 只 是暂时性的，具体还要看你能否前来。</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3882,17 +3870,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>tentative</t>
+          <t>tyrant</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>adj. 暂时性的，尝试的： not fully worked out or developed</t>
+          <t>n. 暴君： a ruler who exercises absolute power oppressively or brutally</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Our plans are only tentative at this point and will depend on whether you can come.  我 们 的 计 划 只 是暂时性的，具体还要看你能否前来。</t>
+          <t>The people universally feared the tyrant, who was notorious for his frequent use of torture.   人 们 非 常 恐惧这个暴君，因为他有着经常折磨犯人的臭名。</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3904,17 +3892,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>tyrant</t>
+          <t>unanimous</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>n. 暴君： a ruler who exercises absolute power oppressively or brutally</t>
+          <t>adj. 一致同意的： having the agreement and consent of all</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>The people universally feared the tyrant, who was notorious for his frequent use of torture.   人 们 非 常 恐惧这个暴君，因为他有着经常折磨犯人的臭名。</t>
+          <t>a unanimous vote to upgrade the school’s computer facilities  一致同意对学校的计算机设备进行升级</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3926,17 +3914,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>unanimous</t>
+          <t>unremitting</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>adj. 一致同意的： having the agreement and consent of all</t>
+          <t>adj. 连续不断的： going on and on without any interruptions</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>a unanimous vote to upgrade the school’s computer facilities  一致同意对学校的计算机设备进行升级</t>
+          <t>Unremitting rain lasted for six days.   连续下了六天的雨。</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3948,17 +3936,19 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>unremitting</t>
+          <t>versed</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>adj. 连续不断的： going on and on without any interruptions</t>
+          <t>adj. 熟知的： having information especially as a result of study or experience
+adj. 精通的： having or showing exceptional knowledge, experience, or skill in a field of endeavor</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Unremitting rain lasted for six days.   连续下了六天的雨。</t>
+          <t>versed in the latest developments in aeronautics  熟知当今航空业的发展情况
+well versed in the techniques of laser surgery  精通激光手术方面的技术</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3970,19 +3960,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>versed</t>
+          <t>vocation</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>adj. 熟知的： having information especially as a result of study or experience
-adj. 精通的： having or showing exceptional knowledge, experience, or skill in a field of endeavor</t>
+          <t>n. 职业： the work in which a person is regularly employed</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>versed in the latest developments in aeronautics  熟知当今航空业的发展情况
-well versed in the techniques of laser surgery  精通激光手术方面的技术</t>
+          <t>finally made soccer her vocation instead of just a hobby  终于将足球从爱好升级为谋生的职业</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3994,17 +3982,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>vocation</t>
+          <t>voyeur</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>n. 职业： the work in which a person is regularly employed</t>
+          <t>n. 淫窥狂： one obtaining sexual gratification from observing unsuspecting individuals who arepartly undressed, naked, or engaged in sexual acts</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>finally made soccer her vocation instead of just a hobby  终于将足球从爱好升级为谋生的职业</t>
+          <t>They accidentally found out that their ostensibly benign neighbor is actually a voyeur.   他 们 偶 然 间 发 现那个表面和善的邻居居然是一个偷窥狂。</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4016,17 +4004,19 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>voyeur</t>
+          <t>willful</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>n. 淫窥狂： one obtaining sexual gratification from observing unsuspecting individuals who arepartly undressed, naked, or engaged in sexual acts</t>
+          <t>adj. 固执的，倔强的： obstinately and often perversely self-willed
+adj. 故意的： done deliberately</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>They accidentally found out that their ostensibly benign neighbor is actually a voyeur.   他 们 偶 然 间 发 现那个表面和善的邻居居然是一个偷窥狂。</t>
+          <t>Finally the parents sought professional counseling for the willful child.  最终家长不得不为倔强的小孩寻求专业咨询。
+a willful attempt to cheat her siblings out of their rightful inheritance  一个想将继承权从她的姊妹手里骗过来的故意企图</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4038,19 +4028,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>willful</t>
+          <t>wistful</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>adj. 固执的，倔强的： obstinately and often perversely self-willed
-adj. 故意的： done deliberately</t>
+          <t>adj. （带着忧伤而）渴望的，怀念的： full of yearning or desire tinged with melancholy</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Finally the parents sought professional counseling for the willful child.  最终家长不得不为倔强的小孩寻求专业咨询。
-a willful attempt to cheat her siblings out of their rightful inheritance  一个想将继承权从她的姊妹手里骗过来的故意企图</t>
+          <t>There was a wistful look in his eyes when he spoke of his childhood.   当他谈起他的童年时，眼眶中不禁流露出一种带有忧伤的怀念之情。</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4062,42 +4050,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>wistful</t>
+          <t>wrongheaded</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>adj. （带着忧伤而）渴望的，怀念的： full of yearning or desire tinged with melancholy</t>
+          <t>adj. 固执己见的，坚持（错误观点）的： stubborn in adherence to wrong opinion or principles</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>There was a wistful look in his eyes when he spoke of his childhood.   当他谈起他的童年时，眼眶中不禁流露出一种带有忧伤的怀念之情。</t>
+          <t>In spite of other’s objections, he is always wrongheaded in his opinions.   他总是不管他人的反对而坚持自己哪怕是错误的观点。</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>wrongheaded</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>adj. 固执己见的，坚持（错误观点）的： stubborn in adherence to wrong opinion or principles</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>In spite of other’s objections, he is always wrongheaded in his opinions.   他总是不管他人的反对而坚持自己哪怕是错误的观点。</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_12.xlsx
+++ b/result/生词本导入模版_12.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,44 +434,44 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>单词</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>含义（可不填）</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>例句（可不填）</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>antiquated</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>adj. 古老的，过时的： outmoded or discredited by reason of age: being out of style or fashion</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>We saw an antiquated hand-cranked rope-making machine at the textiles museum.  我 们 在 纺 织 博 物馆里看到了一台手摇式古董制绳机。
 antiquated methods of farming  已经过时的耕种技术</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>antithetical</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>adj. 完全对立的，相反的： being in direct and unequivocal opposition</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Spiritual ideals seem antithetical to the materialism embraced by modern society.   精神上的理想境界往往同当代社会所推崇的唯物主义相抵触。</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -469,17 +481,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>apparition</t>
+          <t>antithetical</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>n. 鬼魂，幽灵： a ghostly figure</t>
+          <t>adj. 完全对立的，相反的： being in direct and unequivocal opposition</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>An eccentric claimed to have photographed an apparition in her very own house.   一个行为怪异的人声称在她的住所里拍到了一张幽灵的照片。</t>
+          <t>Spiritual ideals seem antithetical to the materialism embraced by modern society.   精神上的理想境界往往同当代社会所推崇的唯物主义相抵触。</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -491,17 +503,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>applicable</t>
+          <t>apparition</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>adj. 可用的，可行的： capable of being put to use or account</t>
+          <t>n. 鬼魂，幽灵： a ghostly figure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Is that Act applicable in this case where suspect is a foreigner? 那条法规适用于这个嫌犯不是本国公民的案件么？</t>
+          <t>An eccentric claimed to have photographed an apparition in her very own house.   一个行为怪异的人声称在她的住所里拍到了一张幽灵的照片。</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -513,43 +525,43 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>applicable</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adj. 可用的，可行的： capable of being put to use or account</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Is that Act applicable in this case where suspect is a foreigner? 那条法规适用于这个嫌犯不是本国公民的案件么？</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>apprehensive</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>adj. 知晓的，理解的： having specified facts or feelings actively impressed on the mind
 adj. 恐惧的，害怕的： anxious or fearful about the future</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>I am fully apprehensive of the options, I assure you.  我向你保证这些观点我都理解了。
 People apparently haven’t recovered from the devastating terrorist attack and are still terribly apprehensiveabout the future.   人们显然没有从那场严重的恐怖袭击中恢复过来，对于未来仍然充满了恐惧。</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>arcane</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>adj. （语言）晦涩的，隐晦的： having an often intentionally veiled or uncertain meaning</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>The rebate form uses arcane language, the only purpose of which seems to be to disqualify buyers fromactually getting a rebate.   折扣单上的条文晦涩难懂，这样做的唯一目的也许就是让消费者不能真正地享受到折扣。</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -559,43 +571,65 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>arcane</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>adj. （语言）晦涩的，隐晦的： having an often intentionally veiled or uncertain meaning</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>The rebate form uses arcane language, the only purpose of which seems to be to disqualify buyers fromactually getting a rebate.   折扣单上的条文晦涩难懂，这样做的唯一目的也许就是让消费者不能真正地享受到折扣。</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>argument</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>n. 争吵，争论： an often noisy or angry expression of differing opinions
 n. （逻辑上的）论证： a coherent series of statements leading from a premise to a conclusion
 n. 观点，论点： an idea or opinion that is put forth in a discussion or debate</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>The couple’s arguments were often loud enough to be heard all over the neighborhood.  这 对 夫 妻 吵架的声音往往大到能被邻居听见。
 In his argument the author committed several logical fallacies which undermined its soundness.   在 作 者的论述中出现了若干逻辑谬误，从而降低了它论证的力度。
 It is and will always be my argument that we have too many problems here on earth to concern ourselveswith manned trips to Mars.   我现在和以后的观点都将会是：在我们解决地球上的问题之前，不应该花太多的心思考虑载人火星计划的事情。</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>array</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>n. 排列，阵列： a regular and imposing grouping or arrangement
 vt. 排列，摆放： to arrange or display in or as if in an array
 vt. 装饰，装修： to dress or decorate especially in splendid or impressive attire</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>a marching band’s carefully choreographed array  前进中的乐队所摆出的经过复杂编排的方针
 data arrayed in descending order  按照降序排列的数据
@@ -604,28 +638,6 @@
 a door arrayed for theholidays with a beautiful evergreen wreath  被美丽的常青花环妆点的节日大门</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>assail</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>vt. 抨击，严厉批评： to criticize harshly and usually publicly</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The union organizers assailed the chemical company for failing to provide a safe working environment.  </t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -635,42 +647,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>assail</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>vt. 抨击，严厉批评： to criticize harshly and usually publicly</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The union organizers assailed the chemical company for failing to provide a safe working environment.  </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>attest</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>vt. 证实，为…作证： to give evidence or testimony to the truth or factualness of</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">Her fine work attests her ability.   她的优秀作品能够证明她的能力。
 I can attest that she was at the party.  </t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>attune</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>vt. 使协调，使和谐： to bring into harmony</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>After years spent in academia, he found it difficult to attune himself to the corporate culture.   在 学 术 圈 摸爬滚打多年之后，他发现自己很难融入企业文化之中。</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -680,17 +692,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>auspicious</t>
+          <t>attune</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>adj. 好兆头的： pointing toward a happy outcome</t>
+          <t>vt. 使协调，使和谐： to bring into harmony</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>began the season with an auspicious win against their strongest football rival  在赛季之初就战胜了最强的对手，为整个赛季赢得了好兆头</t>
+          <t>After years spent in academia, he found it difficult to attune himself to the corporate culture.   在 学 术 圈 摸爬滚打多年之后，他发现自己很难融入企业文化之中。</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -702,66 +714,70 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>auspicious</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adj. 好兆头的： pointing toward a happy outcome</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>began the season with an auspicious win against their strongest football rival  在赛季之初就战胜了最强的对手，为整个赛季赢得了好兆头</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>austere</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>adj. 朴素的，朴实无华： markedly simple or unadorned
 adj. 严肃的，令人生畏的： stern and cold in appearance or manner</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>For the private office of the CEO of the large corporation, the room is unexpectedly austere.   出 人 意 料 的是，大公司总裁的私人办公室居然十分朴素。
 an austere fortress at the top of some formidable cliffs  建立在悬崖峭壁之上的一座令人畏惧的堡垒
 In hismemory his deceased grandfather is an austere, distant, cold person.  在他的记忆之中，已过世的祖父是一个严肃、冷漠而难以接近的人。</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>bash</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>n. 猛击： a forceful blow
 vt. 攻击，用力击打： to strike violently and often repeatedly
 vt. 抨击，严厉批评： to criticize harshly and usually publicly</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>He has not been the same ever since he received that bash on his head.   自从他脑袋被别人打了之后，他就变得大不一样。
 The angry child kept bashing her toy with a hammer until it broke.  愤怒的小孩用锤子不断地敲击她的玩具，直到它彻底被破坏。
 In all of talk radio no other host seems to enjoy bashing liberals as much as he does.   在 电 台 节 目 再 没有像他一样热衷于抨击自由主义者的主持人了。</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>bask</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>vi. 休息，悠然自得： to lie or relax in a pleasant warmth or atmosphere</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -771,19 +787,15 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>belligerent</t>
+          <t>bask</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>adj. 好斗的，好战的： inclined to or exhibiting assertiveness, hostility, or combativeness</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>The coach became quite belligerent and spit at an umpire after being thrown out of the game.   教 练 变得好斗起来，以至于在被罚出场外之后转身向裁判吐口水。</t>
-        </is>
-      </c>
+          <t>vi. 休息，悠然自得： to lie or relax in a pleasant warmth or atmosphere</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -793,44 +805,44 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>belligerent</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>adj. 好斗的，好战的： inclined to or exhibiting assertiveness, hostility, or combativeness</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>The coach became quite belligerent and spit at an umpire after being thrown out of the game.   教 练 变得好斗起来，以至于在被罚出场外之后转身向裁判吐口水。</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>beset</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>vt. 使苦恼，骚扰： to cause persistent suffering to
 vt. 攻击，袭击： to set upon</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>He has been beset by a lack of self-confidence virtually his entire life.  事实上他的一生都在被缺乏自信所困扰。
 The settlers were beset by savages.   定居者们遭到了野蛮人的袭击。
 The unsuspecting tourists weresuddenly beset by robbers.  丝毫没有准备的游客遭到了歹徒的突然袭击。</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>blackmail</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>n./vi. 敲诈，勒索： extortion of money or something else of value from a person by the threat ofexposing a criminal act or discreditable information</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>It looks like these pornographic pictures were being used for blackmail.   看起来有人用这些不雅照进行敲诈勒索。</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -840,17 +852,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>bluff</t>
+          <t>blackmail</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>adj. 直率的，（说话）直截了当的： being or characterized by direct, brief, and potentially rude speechor manner</t>
+          <t>n./vi. 敲诈，勒索： extortion of money or something else of value from a person by the threat ofexposing a criminal act or discreditable information</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Frankly speaking, he is a bluff but good-hearted teacher.  老实说，这个老师说话很直率，但是心地善良。</t>
+          <t>It looks like these pornographic pictures were being used for blackmail.   看起来有人用这些不雅照进行敲诈勒索。</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -862,17 +874,39 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>bluff</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>adj. 直率的，（说话）直截了当的： being or characterized by direct, brief, and potentially rude speechor manner</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Frankly speaking, he is a bluff but good-hearted teacher.  老实说，这个老师说话很直率，但是心地善良。</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>brim</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>n. 边缘，边界： an upper or outer margin
 vi. 充满： to be or become full often to overflowing
 vt. 加满，倒满： to put into (something) as much as can be held or contained</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>The brim of the teacup was banded with gold.   茶杯的边缘被镀上了金。
 a secondhand bookstore that was brimming with bargains  一 个 到 处 都 是 减 价 品 的 二 手 书 店
@@ -880,51 +914,29 @@
 He brimmed the glass with milk, and now I’m afraid that I will spill it.   他向杯子里倒了太多牛奶，我现在担心会不会洒出来。</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>calamity</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>n. 大灾难： a disastrous event marked by great loss and lasting distress and suffering</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>This latest breakdown of the car is inconvenient, but not a calamity.   最近的汽车抛锚确实带来了不便，但还不是一场灾难。
 an economic calamity  金融风暴</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>calculated</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>adj. 经过计算（成败得失）的，经过深思熟虑的： engaged in, undertaken, or displayed after reckoningor estimating the statistical probability of success or failure</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>He took a calculated risk and got in on the ground floor of the new enterprise.   他深思熟虑一番之后决定冒这个险，踏出了迈向新计划的第一步。</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -934,17 +946,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>captious</t>
+          <t>calculated</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>adj. 吹毛求疵的，爱挑毛病的： marked by an often ill-natured inclination to stress faults and raiseobjections</t>
+          <t>adj. 经过计算（成败得失）的，经过深思熟虑的： engaged in, undertaken, or displayed after reckoningor estimating the statistical probability of success or failure</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>a captious and cranky eater who has never met a vegetable he didn’t hate  一个古怪又挑剔的食客，从来就没有他不讨厌的蔬菜</t>
+          <t>He took a calculated risk and got in on the ground floor of the new enterprise.   他深思熟虑一番之后决定冒这个险，踏出了迈向新计划的第一步。</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -956,17 +968,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>cellular</t>
+          <t>captious</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>adj. 多孔的： containing cavities; having a porous texture</t>
+          <t>adj. 吹毛求疵的，爱挑毛病的： marked by an often ill-natured inclination to stress faults and raiseobjections</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>the cellular construction of a beehive  蜂巢的多孔结构</t>
+          <t>a captious and cranky eater who has never met a vegetable he didn’t hate  一个古怪又挑剔的食客，从来就没有他不讨厌的蔬菜</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -978,17 +990,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ceremonious</t>
+          <t>cellular</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>adj. 讲究礼节的，庄重的： marked by or showing careful attention to set forms and details</t>
+          <t>adj. 多孔的： containing cavities; having a porous texture</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A century ago everyday life was much more ceremonious than in our anything-goes era.  一 个 世 纪 之前的生活和我们现在这个随便怎么都无所谓的年代相比，多出了许多要讲究的礼节。</t>
+          <t>the cellular construction of a beehive  蜂巢的多孔结构</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1000,17 +1012,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>certitude</t>
+          <t>ceremonious</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>n. 确信无疑： the state of being or feeling certain</t>
+          <t>adj. 讲究礼节的，庄重的： marked by or showing careful attention to set forms and details</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>I believes with certitude that he is the best candidate for the job.   我确信他是这项工作的最佳人选。</t>
+          <t>A century ago everyday life was much more ceremonious than in our anything-goes era.  一 个 世 纪 之前的生活和我们现在这个随便怎么都无所谓的年代相比，多出了许多要讲究的礼节。</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1022,45 +1034,45 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>certitude</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>n. 确信无疑： the state of being or feeling certain</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>I believes with certitude that he is the best candidate for the job.   我确信他是这项工作的最佳人选。</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>channel</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>n. 水渠： an open man-made passageway for water
 n. 海峡： a narrow body of water between two land masses
 vt. 将…导向，投入： to cause to move to a central point or along a restricted pathway</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Water was drained from the swamp through a specially constructed channel.   这块沼泽通过一条特殊建造的水渠源源不断地向外输水。
 the world record for swimming the channel between Alaska and Chukotskiy  横渡阿拉斯加和楚科奇之间海峡（也即白令海峡）的世界纪录
 a youth who channeled all of his energy into sports  一个将毕生精力都投入体育之中的少年</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>chivalrous</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>adj. 有骑士风度的，（尤指对女性）彬彬有礼的： marked by gracious courtesy and high-mindedconsideration(especially to women)</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>still engages in chivalrous behavior, such as opening doors for people  仍然坚持着有风度的行为，比如帮别人开门</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1070,66 +1082,66 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>chivalrous</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>adj. 有骑士风度的，（尤指对女性）彬彬有礼的： marked by gracious courtesy and high-mindedconsideration(especially to women)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>still engages in chivalrous behavior, such as opening doors for people  仍然坚持着有风度的行为，比如帮别人开门</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>chorale</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>n. 赞美诗： a hymn or psalm sung to a traditional or composed melody in church
 n. 合唱班，合唱团： an organized group of singers</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>practiced a chorale to perform in church  练习吟唱要在教堂表演的赞美诗
 a chorale that is regarded as being among the best in the state  一个被认为是国内一流的合唱班</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>clamor</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>n. 喧闹，喧哗，噪声： loud, confused, and usually inharmonious sound</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>A clamor arose from the crowd as the prisoner was brought forward.   当犯人被带上前台时，人群中爆发出一阵骚动。
 the clamor of a dozen people practicing the trumpet at once  一群人同时练习小号时发出的噪音</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>clan</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>n. （有共同爱好的）团体，帮派： a group united by a common interest or common characteristics</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>That clan of football fans has parties every weekend on which the New England Patriots play.   只 要 是新英格兰爱国者队有比赛的周末，那帮球迷就会举行聚会。</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1139,91 +1151,91 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>clan</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>n. （有共同爱好的）团体，帮派： a group united by a common interest or common characteristics</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>That clan of football fans has parties every weekend on which the New England Patriots play.   只 要 是新英格兰爱国者队有比赛的周末，那帮球迷就会举行聚会。</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>cleave</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>vi. 紧贴，坚持： to adhere firmly and closely or loyally and unwaveringly
 vt. 分隔，割裂： to divide by or as if by a cutting blow</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>You should resolutely cleave to the facts in your report.   你应该在报道中坚持客观的原则。
 His spade cleaved the firm sand with a harsh crunch.   他的锹凿开了坚实的砂土，发出尖锐刺耳的嘎扎声。</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>cling</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>n. 粘结，粘合： a physical sticking to as if by glue
 vi. 紧贴，支持： to adhere as if glued firmly</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>For certain types of materials that plastic wrap has very little cling.  对于某些材料，那种塑料保鲜袋的粘性不好。
 a dozen magnets clinging to the refrigerator  贴靠在冰箱门上的磁石
 continued to cling to the old ideasof child rearing long after they had gone out of fashion  仍然坚持关于抚养孩子的老观念，尽管它们已经过时</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>cohesive</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>adj. 有粘性的，有凝聚力的： exhibiting or producing cohesion or coherence</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>a cohesive social unit  有凝聚力的社会个体
 cohesive soils  有粘性的土壤</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>collaborate</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>vi. 合作： to work jointly with others or together especially in an intellectual endeavor</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>The two men collaborated on a blockbuster in 1986 which gained both of them fame.   两人在 1986 年合作出演了一部十分卖座的电影，由此获得了巨大的名声。</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1233,63 +1245,67 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>collaborate</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>vi. 合作： to work jointly with others or together especially in an intellectual endeavor</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>The two men collaborated on a blockbuster in 1986 which gained both of them fame.   两人在 1986 年合作出演了一部十分卖座的电影，由此获得了巨大的名声。</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>compatible</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>adj. 一致的，能共存的： capable of existing together in harmony</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>I don’t think that they could be compatible as roommates.   我不觉得他们做了室友之后生活会很和谐。
 atheory that is compatible with what we already know about early man  一个与对远古人类的已有知识不存在矛盾的理论</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>compelling</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>adj. 极具说服力的： having the power to persuade
 adj. 迫切的，紧迫的： needing immediate attention</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>made a compelling argument against military intervention  就反对军事干预提出了很有说服力的论证
 Ifyou can’t present any compelling evidence to prove your innocence, you will be found guilty.  如 果 你 找 不 出 任何能证明你清白的有力证据，你就会被定罪。
 There is no compelling need to raise taxes at this time.   现在没有迫切的提升税率的必要。</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>complementary</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>adj. 互补的： mutually supplying each other’s lack</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1299,19 +1315,15 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>complicate</t>
+          <t>complementary</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>vt. 使复杂化： to make complex or difficult</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Don’t complicate matters by getting the parents involved.  不要把父母牵扯进来，这会让问题更复杂。</t>
-        </is>
-      </c>
+          <t>adj. 互补的： mutually supplying each other’s lack</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1321,114 +1333,114 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>complicate</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>vt. 使复杂化： to make complex or difficult</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Don’t complicate matters by getting the parents involved.  不要把父母牵扯进来，这会让问题更复杂。</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>comprehend</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>vt. 理解，了解： to grasp the nature, significance, or meaning of
 vt. 包括，包含： to contain or hold within a total scope, significance, or amount</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>the age at which children can comprehend the difference between right and wrong  一个小孩可以开始分辨是非的年龄
 With internet, television, cellphone and even radio down, we are unable to comprehend what hashappened.  互联网、电视、手机乃至无线电都不起作用了，我们无法获知发生了什么。
 Our notion of morality should comprehend much more than proper sexual behavior.  我 们 的 道 德 观 不应该仅仅止步于恰当的性行为。</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>concrete</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>adj. 实体的，实在的： relating to or composed of matter
 adj. 事实性的，明确的： existing in fact and not merely as a possibility</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>concrete objects like rocks and trees  像石头、树这一类的实物
 Concrete evidence, and not just a theory, must be presented at a trial.  在法庭上需要出示确凿的证据，而非臆测。</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>condemn</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>vt. 谴责（为不道德的、邪恶的）： to declare to be reprehensible, wrong, or evil usually after weighingevidence and without reservation</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>a policy widely condemned as racist  一个被广泛谴责为种族歧视的政策
 It is a sign of human progressthat slavery, which was once common, is now universally condemned.   曾经很平常的奴隶制如今却沦落到人人谴责的境地，这不能不说是人类文明的进步。</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>conditional</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>adj. 有条件的，受制约的： subject to, implying, or dependent upon a condition</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>a conditional offer  有条件限制的录取
 Their support is conditional on their approval of his proposals.   他只有让他的提案得到他们的同意才能得到援助。</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>conflate</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>vt. 混合： to turn into a single mass or entity that is more or less the same throughout</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>The movie conflates documentary footage and dramatized reenactments so seamlessly and ingeniouslythat viewers may not know what is real and what is not.  电影将纪实档案和娱乐性的夸张如此巧妙无缝地糅合起来，以至于观众不知道哪一部分是真实的，哪一部分是虚构的。</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1438,17 +1450,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>conform</t>
+          <t>conflate</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>vt. 使协调： bring into harmony or accord</t>
+          <t>vt. 混合： to turn into a single mass or entity that is more or less the same throughout</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">We have to conform this new rule with existing policy regarding student-run organizations on campus.  </t>
+          <t>The movie conflates documentary footage and dramatized reenactments so seamlessly and ingeniouslythat viewers may not know what is real and what is not.  电影将纪实档案和娱乐性的夸张如此巧妙无缝地糅合起来，以至于观众不知道哪一部分是真实的，哪一部分是虚构的。</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1460,90 +1472,90 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>conform</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>vt. 使协调： bring into harmony or accord</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We have to conform this new rule with existing policy regarding student-run organizations on campus.  </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>conjure</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>vt. 请求，恳求： to charge or entreat earnestly or solemnly</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>I conjure you to hear my plea for mercy.   请您发发慈悲吧。
 He conjured them with his dying breath tolook after his children.   临终前他恳求他们照顾他的孩子。</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>consent</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>n. 同意，赞同： the approval by someone in authority for the doing of something
 vi. 同意： to give assent or approval</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>We had to get our neighbor’s consent in order to trim the tree from his side.   想要从邻居家那边修剪树木，我们得先得到他们的同意。
 consent to being tested in her neurobiology experiment  同意作为被试参加神经生物学的实验
 refused toconsent to the marriage  拒绝这桩婚事</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>consign</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>vt. 转交，转移（给他人）： to give, transfer, or deliver into the hands or control of another</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>The record shows that the deliveryman had consigned our package to a next-door neighbor.  记 录 显示邮递员把我们的包裹转投给隔壁邻居了。
 a writer consigned to oblivion  湮没无闻的作家</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>consternation</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>n. 惊愕，恐慌，恐惧： a state of paralyzing dismay</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>The two girls stared at each other in consternation without any idea about what to do.   两 个 小 女 孩 惊 恐地望着对方，显得不知所措。</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1553,113 +1565,113 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>consternation</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>n. 惊愕，恐慌，恐惧： a state of paralyzing dismay</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>The two girls stared at each other in consternation without any idea about what to do.   两 个 小 女 孩 惊 恐地望着对方，显得不知所措。</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>contemplate</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>vt./vi. 沉思，仔细思索： to view or consider with continued attention</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>contemplate the vastness of the universe  沉思着宇宙的广袤无垠
 She contemplated the problem forseveral hours before reaching a decision.  她苦苦思索了几个小时的问题后才做出决定。</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>contempt</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>n. 蔑视，鄙视： open dislike for someone or something considered unworthy of one's concern orrespect</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>my undying contempt for people who abuse animals  我对于虐待动物者的无尽鄙视
 Her contempt forilliterate was obvious.   你可以很明显地看出她对文盲的鄙夷。</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>contend</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>vi. 竞争，争夺： to strive or vie in contest or rivalry or against difficulties
 vt. 声明，声称： to state as a fact usually forcefully</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>two traditional rivals contending for the championship  两支争夺冠军头衔的老对手
 contended that his opponent was wrong about practically everything  宣称对手几乎在所有问题上都犯了错误
 that the his considerable experience made him the best candidate  声称因为他见多识广，所以是最佳人选</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>contradict</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>vt. 否认，反驳；相矛盾： to assert the contrary of; to imply the opposite or a denial of</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>contradict a rumor  反驳谣言
 Your actions contradict your words.   你的行为和你说的话自相矛盾。</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>contrived</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>adj. 不自然的，刻意的：lacking in natural or spontaneous quality</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>We are bored with the contrived applause of a TV studio audience that has been told when to clap.  摄影棚中的观众会被告知什么时候鼓掌，这种经过精心指挥的掌声让我们倍感困倦。</t>
-        </is>
-      </c>
       <c r="D54" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1669,38 +1681,42 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>contrived</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>adj. 不自然的，刻意的：lacking in natural or spontaneous quality</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>We are bored with the contrived applause of a TV studio audience that has been told when to clap.  摄影棚中的观众会被告知什么时候鼓掌，这种经过精心指挥的掌声让我们倍感困倦。</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>correlate</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>vt. 使…相关联： to establish a mutual or reciprocal relation between</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>a demanding father who always correlated success with hard work  一个总将成功和辛勤工作关联起来的严格父亲
 In this work, we correlate the simulation in the lab and the observation in the field to examine thevalidity of our theory.   本文中，我们将实验室的模拟结果和场地外的观测数据联系起来以验证理论的真实性。</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>counterpart</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>n. （地位、功能）对等的人或物： one having the same function or characteristics as another</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1710,19 +1726,15 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>courteous</t>
+          <t>counterpart</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>adj. 礼貌的，恭谦有礼的： marked by polished manners, gallantry, or ceremonial usage of a court</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Their customer service department always gives courteous responses, even to rude people.  哪 怕 是对粗鲁的消费者，他们的客服部门总是用一种非常有礼貌的态度回复。</t>
-        </is>
-      </c>
+          <t>n. （地位、功能）对等的人或物： one having the same function or characteristics as another</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1732,89 +1744,89 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>courteous</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>adj. 礼貌的，恭谦有礼的： marked by polished manners, gallantry, or ceremonial usage of a court</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Their customer service department always gives courteous responses, even to rude people.  哪 怕 是对粗鲁的消费者，他们的客服部门总是用一种非常有礼貌的态度回复。</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>credible</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>adj. 可信的，值得信赖的： worthy of being accepted as true or reasonable</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>It’s not perfect, but is at least a credible explanation.  尽管还不算完美，但这好歹也算是可信的解释了。
 a credible account of an accident  事故的可靠报道</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>credit</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>n. 信任，信赖： mental conviction of the truth of some statement or the reality of some being orphenomenon
 n. 表扬，赞扬： public acknowledgment or admiration for an achievement</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>I give full credit to this report on the prevalence of cheating among college students today.   我 非 常 相 信这则有关大学中作弊成风的报道。
 She deserves all the credit, since she did all the work.   是她完成了所有的工作，因此荣誉都应该归她所有。</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>decry</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>vt. 强烈反对，否定： to express strong disapproval of</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Scientists were quick to decry the claims of the psychic.  通 灵 者 的 说 法 很 快 就 遭 到 了 科 学 家 的 反对。
 decry the excessive emphasis on sex  谴责对于性的过分重视</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>deign</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>vi. （不情愿地）屈尊，俯就： to condescend reluctantly and with a strong sense of the affront to one'ssuperiority that is involved</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>I would never deign to answer that absurd accusation.   我根本不屑于去解释那样一个荒谬的指责。</t>
-        </is>
-      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1824,17 +1836,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>delineate</t>
+          <t>deign</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>vt. 勾勒，用线条描绘： to indicate or represent by drawn or painted lines</t>
+          <t>vi. （不情愿地）屈尊，俯就： to condescend reluctantly and with a strong sense of the affront to one'ssuperiority that is involved</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>lights delineating the narrow streets  勾勒狭窄街道线条的路灯</t>
+          <t>I would never deign to answer that absurd accusation.   我根本不屑于去解释那样一个荒谬的指责。</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1846,17 +1858,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>desperate</t>
+          <t>delineate</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>adj. 绝望的： feeling or showing no hope</t>
+          <t>vt. 勾勒，用线条描绘： to indicate or represent by drawn or painted lines</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>a desperate spirit crying for relief  一个渴望宽慰的绝望的灵魂</t>
+          <t>lights delineating the narrow streets  勾勒狭窄街道线条的路灯</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1868,17 +1880,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>dichotomy</t>
+          <t>desperate</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>n. 一分为二，分割： a division into two especially mutually exclusive or contradictory groups orentities</t>
+          <t>adj. 绝望的： feeling or showing no hope</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>a dichotomy between the academic world and the industrial world  学术界和工业界的割裂</t>
+          <t>a desperate spirit crying for relief  一个渴望宽慰的绝望的灵魂</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1890,44 +1902,44 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>dichotomy</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>n. 一分为二，分割： a division into two especially mutually exclusive or contradictory groups orentities</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>a dichotomy between the academic world and the industrial world  学术界和工业界的割裂</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
           <t>dictate</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>n. 指令，命令： a command by one in authority
 vt. （仗着地位、权力）下令： to request the doing of by virtue of one’s authority</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>followed the dictates of my conscience  遵从我的良心准则
 The army must abide by the dictates of thenew government.   军队必须服从新政府的命令。
 The general dictated that the terms of surrender be negotiated by his senior staff.   将军要求投降书中的若干条款交付手下的高级将领进行讨论。</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>discreet</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>adj. （言行）谨慎的： having or showing good judgment and restraint especially in conduct or speech</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>He was very discreet, only saying what was necessary.   他是个十分谨慎的人，从来不说多余的话。</t>
-        </is>
-      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1937,17 +1949,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>disprove</t>
+          <t>discreet</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>vt. 证伪，证明为假： to prove to be false or wrong</t>
+          <t>adj. （言行）谨慎的： having or showing good judgment and restraint especially in conduct or speech</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Magellan’s circumnavigation of the globe disproved any lingering notions that the earth is flat.   麦 哲 伦的环球旅行彻底否认了任何残存的“地球是平的”的观念。</t>
+          <t>He was very discreet, only saying what was necessary.   他是个十分谨慎的人，从来不说多余的话。</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1959,43 +1971,43 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>disprove</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>vt. 证伪，证明为假： to prove to be false or wrong</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Magellan’s circumnavigation of the globe disproved any lingering notions that the earth is flat.   麦 哲 伦的环球旅行彻底否认了任何残存的“地球是平的”的观念。</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
           <t>distinctive</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>adj. 完全不同的： being not of the same kind
 adj. 特征性的，典型的： serving to identify as belonging to an individual or group</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>She seems to alternate between two distinctive hairstyles.   她的发型似乎在两种截然不同的样式中交替。
 She seems to alternate between two distinctive hairstyles.   她的发型似乎在两种截然不同的样式中交替。</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>doctrinaire</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>adj. 教条主义的，照本宣科的： given to or marked by the forceful expression of strongly heldopinions</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>A doctrinaire conservative, the columnist takes special delight in baiting liberals.   这个专栏作家是个谨遵教条的顽固保守主义者，他很享受挑衅那些自由主义者。</t>
-        </is>
-      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2005,17 +2017,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>drab</t>
+          <t>doctrinaire</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>adj. 单调的，无聊的： characterized by dullness and monotony</t>
+          <t>adj. 教条主义的，照本宣科的： given to or marked by the forceful expression of strongly heldopinions</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>The new city hall turned out to be another drab pile of masonry for the town.   新的市政大厅结果又是城镇里一座单调无趣的砖瓦堆积物。</t>
+          <t>A doctrinaire conservative, the columnist takes special delight in baiting liberals.   这个专栏作家是个谨遵教条的顽固保守主义者，他很享受挑衅那些自由主义者。</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2027,17 +2039,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>dramatic</t>
+          <t>drab</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>adj.显著的，惹人注意的： striking in appearance or effect</t>
+          <t>adj. 单调的，无聊的： characterized by dullness and monotony</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>a dramatic drop in the temperature overnight  夜晚气温的显著下降</t>
+          <t>The new city hall turned out to be another drab pile of masonry for the town.   新的市政大厅结果又是城镇里一座单调无趣的砖瓦堆积物。</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2049,17 +2061,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>dread</t>
+          <t>dramatic</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>n. 恐惧： great fear especially in the face of impending evil</t>
+          <t>adj.显著的，惹人注意的： striking in appearance or effect</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>We were filled with dread when we saw the rapids we would be rafting down.   当我们看到竹筏驶向的激流时，我们的内心被恐惧所占据。</t>
+          <t>a dramatic drop in the temperature overnight  夜晚气温的显著下降</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2071,17 +2083,39 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>dread</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>n. 恐惧： great fear especially in the face of impending evil</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>We were filled with dread when we saw the rapids we would be rafting down.   当我们看到竹筏驶向的激流时，我们的内心被恐惧所占据。</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
           <t>duplicate</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>n. 复制品： either of two things exactly alike and usually produced at the same time or by the sameprocess
 vt. 复制： to make a copy of
 vt. 重复，反复： to do over or again often needlessly</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">a duplicate of a house key  房间钥匙的复制品
 Your computer is almost a duplicate of mine.  你 的 电脑和我的几乎一模一样。
@@ -2090,51 +2124,29 @@
 We were unable to duplicate the experiment with the same result in our own lab, so we’re suspicious.  </t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>dynamic</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>adj. 有力量的，有活力的： marked by usually continuous and productive activity or change; energetic</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>He has become a dynamic new challenger for the title of champion.   他 成 为 了 有 望 夺 的 有 活 力 的 新 选手。
 a dynamic speech expressing her goals and values  宣扬她的目标和理念的慷慨激昂的演讲</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>eclectic</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>adj. 混合的，多元化的： composed of elements drawn from various sources</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The museum’s eclectic collection has everything from a giraffe skeleton to medieval musical instruments.  </t>
-        </is>
-      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2144,17 +2156,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>efficacious</t>
+          <t>eclectic</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>adj. 有效的： having the power to produce a desired effect</t>
+          <t>adj. 混合的，多元化的： composed of elements drawn from various sources</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Taking break with a cup of coffee while studying is one of the most efficacious ways of rejuvenating themind that I have ever discovered.  在紧张的学习中休息一会，喝杯咖啡，是我发现的最能提神的方法之一。</t>
+          <t xml:space="preserve">The museum’s eclectic collection has everything from a giraffe skeleton to medieval musical instruments.  </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2166,44 +2178,44 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>efficacious</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>adj. 有效的： having the power to produce a desired effect</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Taking break with a cup of coffee while studying is one of the most efficacious ways of rejuvenating themind that I have ever discovered.  在紧张的学习中休息一会，喝杯咖啡，是我发现的最能提神的方法之一。</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
           <t>elude</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>vt. 躲闪，躲避： to avoid adroitly
 vt. 使无法理解，使困惑： to escape the perception, understanding, or grasp of</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>managed to elude capture  成功躲过了追捕
 The mil ionaire had been eluding his fair share of taxes foryears before getting caught.  在被逮捕之前，这名富翁逃税已经有若干年了。
 a metaphor that eluded them  一个让他们无法理解的比喻</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>enamored</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>adj. 迷恋的，热爱的： filled with an intense or excessive love for</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Many teenage girls became enamored of the movie idol for her boyish good looks.   很多年轻的女孩子因为影星男性化的帅气面庞而对她深深迷恋。</t>
-        </is>
-      </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2213,17 +2225,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>enthrall</t>
+          <t>enamored</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>vt. （像用魔咒般）吸引： to hold the attention of as if by a spell</t>
+          <t>adj. 迷恋的，热爱的： filled with an intense or excessive love for</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Enthralled by the flickering aurora in the sky, we lost all track of time.   我们被夜空里变化莫测的极光深深地吸引，以至于忘却了时间。</t>
+          <t>Many teenage girls became enamored of the movie idol for her boyish good looks.   很多年轻的女孩子因为影星男性化的帅气面庞而对她深深迷恋。</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2235,17 +2247,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ethos</t>
+          <t>enthrall</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>n. 道德准则： the code of good conduct for an individual or group</t>
+          <t>vt. （像用魔咒般）吸引： to hold the attention of as if by a spell</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Rigorous self-discipline was central to the ethos of the ancient Spartans.   严格的自律是古代斯巴达人所尊崇的核心道德准则。</t>
+          <t>Enthralled by the flickering aurora in the sky, we lost all track of time.   我们被夜空里变化莫测的极光深深地吸引，以至于忘却了时间。</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2257,17 +2269,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>exorcise</t>
+          <t>ethos</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>vt. 除去： to get rid of (something troublesome, menacing, or oppressive)</t>
+          <t>n. 道德准则： the code of good conduct for an individual or group</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Please exorcise that offensive word from your vocabulary.   请把那个粗鲁的词从你的字典里删掉。</t>
+          <t>Rigorous self-discipline was central to the ethos of the ancient Spartans.   严格的自律是古代斯巴达人所尊崇的核心道德准则。</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2279,17 +2291,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>explicate</t>
+          <t>exorcise</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>vt. 解释，说明： to give a detailed explanation of</t>
+          <t>vt. 除去： to get rid of (something troublesome, menacing, or oppressive)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>The physicist did his best to explicate the wave theory of light for the audience of laymen.   物 理 学 家 尽其所能向一群非专业的群众解释了光的波动性理论。</t>
+          <t>Please exorcise that offensive word from your vocabulary.   请把那个粗鲁的词从你的字典里删掉。</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2301,17 +2313,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>exterminate</t>
+          <t>explicate</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>vt. 根除，消灭： to get rid of completely usually by killing off</t>
+          <t>vt. 解释，说明： to give a detailed explanation of</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>We hope that the fumigant exterminates the whole colony of cockroaches, for any survivors may beresistant to any poison.  我们希望所有的蟑螂都能被杀虫剂根除，因为任何幸存者都可能产生抗药性。</t>
+          <t>The physicist did his best to explicate the wave theory of light for the audience of laymen.   物 理 学 家 尽其所能向一群非专业的群众解释了光的波动性理论。</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2323,17 +2335,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>extrapolate</t>
+          <t>exterminate</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>vt. （通过逻辑）推断： to form an opinion or reach a conclusion through reasoning and information</t>
+          <t>vt. 根除，消灭： to get rid of completely usually by killing off</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>We can extrapolate from past economic recessions the probable course of the current one.   通 过 以 往 经济衰退的原因我们可以推断出本次危机的可能起源。</t>
+          <t>We hope that the fumigant exterminates the whole colony of cockroaches, for any survivors may beresistant to any poison.  我们希望所有的蟑螂都能被杀虫剂根除，因为任何幸存者都可能产生抗药性。</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2345,42 +2357,42 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>extrapolate</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>vt. （通过逻辑）推断： to form an opinion or reach a conclusion through reasoning and information</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>We can extrapolate from past economic recessions the probable course of the current one.   通 过 以 往 经济衰退的原因我们可以推断出本次危机的可能起源。</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
           <t>fallible</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>adj. 可能出错的： tending or likely to be erroneous or capable of making an error</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>They are only human and all too fallible.   他们都是人类，因此难免犯错。
 a hasty, fallible generalization</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>fervent</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>adj. 充满感情的，热情洋溢的： exhibiting or marked by great intensity of feeling</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>a fervent speech that called for tolerance and compassion for those who are physically challenged  一个充满感情的演说，它呼吁人们对残疾人持有一颗包容和同情的心</t>
-        </is>
-      </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2390,42 +2402,42 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>fervent</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>adj. 充满感情的，热情洋溢的： exhibiting or marked by great intensity of feeling</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>a fervent speech that called for tolerance and compassion for those who are physically challenged  一个充满感情的演说，它呼吁人们对残疾人持有一颗包容和同情的心</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
           <t>figment</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>n. 虚构的事物，幻觉： something made up or contrived</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Unable to find any tracks in the snow the next morning, I was forced to conclude that the shadowy figurehad been a figment of my imagination.   第二天一早，我没有在雪地上发现任何足迹，由此我不得不相信昨晚幽灵一样的物体只是我的空想。
 Thus far, the invisible human being has been nothing more than a figment of fantasywriters.   到目前为止，隐形人还仅仅只是玄幻小说笔下的构想。</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>forebode</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>vi. 预示，预兆： to show signs of a favorable or successful outcome</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>That police car parked outside the house doesn’t forebode well.   门外停着的那辆警车可不是什么好兆头。</t>
-        </is>
-      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2435,17 +2447,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>forfeit</t>
+          <t>forebode</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>n. 罚金： a sum of money to be paid as a punishment</t>
+          <t>vi. 预示，预兆： to show signs of a favorable or successful outcome</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>The forfeit for each baseball player involved in the brawl was $5,000.   参加大家的篮球运动员都受到了五千美元的罚款。</t>
+          <t>That police car parked outside the house doesn’t forebode well.   门外停着的那辆警车可不是什么好兆头。</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2457,89 +2469,89 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t>forfeit</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>n. 罚金： a sum of money to be paid as a punishment</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>The forfeit for each baseball player involved in the brawl was $5,000.   参加大家的篮球运动员都受到了五千美元的罚款。</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>forsake</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>vt. 彻底放弃，抛弃： to renounce or turn away from entirely</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>Forsaking most of our possessions, we evacuated just before the hurricane struck.   我们抛下了绝大多数的财产，终于在海啸来袭之前撤离了。
 Her boyfriend has forsaken her.   她的男朋友将她抛弃。</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>germinate</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>vi. 发芽： to begin to grow
 vi. 出现： to come into being</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Some seed varieties germinate very quickly.   有一些种子的变异体能够迅速发芽。
 A truly marvelous proof of this theorem germinated in his mind.   这个定理的一种绝妙证明方法浮现在他的脑海之中。</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>grudge</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>n. 怨恨，仇恨： a feeling of deep-seated resentment or ill will</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>There has been a grudge between the two families for years.  两家之间积怨已深。
 He has had a deepgrudge against her ever since she snubbed him at the dance.   自从她在舞会上对他不理不睬之后，他就对她怀有深深的怨念。</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>halfhearted</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>adj. 不感兴趣的，不热情的： lacking heart, spirit, or interest</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>a halfhearted attempt to clean the house before the arrival of the in-laws  在亲家到来前草草地收拾房间了事</t>
-        </is>
-      </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2549,43 +2561,43 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>halfhearted</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>adj. 不感兴趣的，不热情的： lacking heart, spirit, or interest</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>a halfhearted attempt to clean the house before the arrival of the in-laws  在亲家到来前草草地收拾房间了事</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
           <t>humdrum</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>n. 千篇一律，单调： a tedious lack of variety
 adj. 无聊的，乏味的： lacking variety or excitement</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>She has been loathing the humdrum of daily life in a small town for a long time.  一 直 以 来她 很 反感 于小城镇里一成不变的生活。
 trapped in a humdrum but well-paid job  陷于无聊但是收入可观的工作之中</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>humiliate</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>vt. 羞辱，使丧失尊严： to reduce to a lower position in one’s own eyes or others’ eyes</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">No student feels humiliated for not having the “right” clothes because everyone is wearing a school uniform.  </t>
-        </is>
-      </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2595,43 +2607,43 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
+          <t>humiliate</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>vt. 羞辱，使丧失尊严： to reduce to a lower position in one’s own eyes or others’ eyes</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No student feels humiliated for not having the “right” clothes because everyone is wearing a school uniform.  </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
           <t>hypothetical</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>n. 假设，前提条件： something taken as being true or factual and used as a starting point for a courseof action or reasoning
 adj. 假定的： existing only as an assumption or speculation</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>He believes that predictions of the extinction of certain species as the result of global warming are basedupon too many hypotheticals.   他认为所谓全球变暖会导致某些物种灭绝的说法基于过多的假设。
 We talked about what we would do in various hypothetical emergencies.   我们讨论了在假定的各种紧急情况下的对策。</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>impunity</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>n. 免责，免受处罚： exemption or freedom from punishment, harm, or loss</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>She mistakenly believed that she could insult people with impunity.   她错误地认为她可以肆无忌惮地羞辱他人。</t>
-        </is>
-      </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2641,56 +2653,78 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
+          <t>impunity</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>n. 免责，免受处罚： exemption or freedom from punishment, harm, or loss</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>She mistakenly believed that she could insult people with impunity.   她错误地认为她可以肆无忌惮地羞辱他人。</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
           <t>incentive</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>n. 刺激，诱因： something that incites or has a tendency to incite to determination or action</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>The handsome reward for the missing wallet was an incentive for me to start looking.   找 到 丢 失 钱 包 的可观报酬激励我展开搜寻。
 A little bonus will give employees an incentive to work harder.  一 点 点 奖 金 就 可以刺激雇员更加努力地工作。</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>justify</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>vt. 证明…的合理性，辩解： to prove or show to be just, right, or reasonable</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>failed to justify the need for a new expressway at this time  没能证明修建新的高速公路的合理性
 Thestorm warning justified his leaving early.   他的早退因为风暴预警而显得理所当然。</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>n. 许可，认可： the approval by someone in authority for the doing of something
 n. 自由： the right to act or move freely
@@ -2698,7 +2732,7 @@
 vt. 准许，授权使用： to permit or authorize especially by formal license</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>The company is seeking license to operate several more power plants in the state.   公司正在寻求在国内建造更多电厂的许可。
 A restaurant owner has to get a license to serve food and drink.   餐厅营业者必须要获得食物和饮品的销售许可。
@@ -2707,28 +2741,6 @@
 licensed to use deadly force  获准使用致命火力</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>ludicrous</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>adj. 荒唐的，可笑的： meriting derisive laughter or scorn as absurdly inept, false, or foolish</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>He made a ludicrous and easily detected attempt to forge his father’s signature on a note to school.   他试图在要上交学校的纸条上伪造父亲的签名，这实在是既可笑又容易被发现的花招。</t>
-        </is>
-      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2738,43 +2750,43 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
+          <t>ludicrous</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>adj. 荒唐的，可笑的： meriting derisive laughter or scorn as absurdly inept, false, or foolish</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>He made a ludicrous and easily detected attempt to forge his father’s signature on a note to school.   他试图在要上交学校的纸条上伪造父亲的签名，这实在是既可笑又容易被发现的花招。</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
           <t>luminous</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>adj. 发光的，有光泽的： emitting or reflecting usually steady, suffused, or glowing light
 adj. 杰出的，重要的： standing above others in rank, importance, or achievement</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>The luminous moon bathed the snow-covered fields with a pearly glow.   在明亮的月光下，雪地仿佛被罩上了一层珍珠般的光晕。
 some of the most luminous writers in the nation’s history  该国历史上最杰出的一批作家</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>malevolent</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>adj. 恶意的，恶毒的： having, showing, or arising from intense often vicious ill will, spite, or hatred</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>The novel grossly oversimplified the conflict as a struggle between relentlessly malevolent villains on one</t>
-        </is>
-      </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2784,42 +2796,42 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
+          <t>malevolent</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>adj. 恶意的，恶毒的： having, showing, or arising from intense often vicious ill will, spite, or hatred</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>The novel grossly oversimplified the conflict as a struggle between relentlessly malevolent villains on one</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
           <t>meditate</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>vt. 思索，沉思： to focus one’s thoughts on</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>meditated a visit to her professor  思索着去拜访她的导师
 I have been meditating a career changefor months.   我花了几个月的时间在考虑换一个工作。</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>meretricious</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>adj. 艳俗的，俗气的： attracting attention in a vulgar manner</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>The paradise they found was no more than a meretricious wasteland of casinos and bars.   他 们 所 发 现的所谓“天堂”只不过是一块有着赌场和酒吧的俗气不堪的荒漠罢了。</t>
-        </is>
-      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2829,65 +2841,65 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
+          <t>meretricious</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>adj. 艳俗的，俗气的： attracting attention in a vulgar manner</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>The paradise they found was no more than a meretricious wasteland of casinos and bars.   他 们 所 发 现的所谓“天堂”只不过是一块有着赌场和酒吧的俗气不堪的荒漠罢了。</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
           <t>milieu</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>n. 环境，氛围： the physical or social setting in which something occurs or develops</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>Young, innovative artists thrive in the freewheeling milieu that a big city offers.   在那个大都市所提供的自由氛围中，年轻而富有创造力的艺术家们的事业蓬勃发展。
 ahistorical milieu conducive to democracy  有 助 于民主制度的历史背景</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>military</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>adj. 军事的，军用的： of or relating to soldiers, arms, or war</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>NATO struggles with how to proceed military operation against Libya.  北约就如何延续针对利比亚的军事行动出现了内部分歧。
 an encyclopedia of modern military aircraft  现代军用飞行器百科全书</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>nostalgia</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>n. 思乡之情： the state of being homesick</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Overwhelmed by nostalgia, she started to cry.   被思乡之情淹没的她开始啜泣。</t>
-        </is>
-      </c>
       <c r="D108" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2897,44 +2909,44 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
+          <t>nostalgia</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>n. 思乡之情： the state of being homesick</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Overwhelmed by nostalgia, she started to cry.   被思乡之情淹没的她开始啜泣。</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
           <t>numb</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>adj. 失去感觉的： devoid of sensation especially as a result of cold or anesthesia
 adj. 麻木的，无感情的： devoid of emotion</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>I have been sitting in the same position for too long and now my feet are numb.  我一个姿势坐得太久，以至于双腿都发麻了。
 Apparently in shock, he answered the police officer’s questions with a numb expression on his face.   她显然是受到了惊吓，以至于在回答警官的问题时一脸茫然。
 Years of physical and emotional abuse had renderedthe woman numb and withdrawn.  常年累月的肉体和精神上的折磨已让她麻木而寡言。</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>ordeal</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>n. 严峻的考验： a severe trial or experience</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>The hikers were finally rescued after a three-day ordeal in the wilderness.   在野外度过了三天的严峻考验之后，登山者终于获救了。</t>
-        </is>
-      </c>
       <c r="D110" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2944,17 +2956,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ostensible</t>
+          <t>ordeal</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>adj. 表面上的，佯装的： appearing to be true on the basis of evidence that may or may not beconfirmed</t>
+          <t>n. 严峻的考验： a severe trial or experience</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>It must be the ostensible reason for their visit while their actual motives may be malignant  这 肯 定 只 是他们上门拜访的表面原因，他们背后的动机说不定恶劣至极。</t>
+          <t>The hikers were finally rescued after a three-day ordeal in the wilderness.   在野外度过了三天的严峻考验之后，登山者终于获救了。</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2966,42 +2978,42 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
+          <t>ostensible</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>adj. 表面上的，佯装的： appearing to be true on the basis of evidence that may or may not beconfirmed</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>It must be the ostensible reason for their visit while their actual motives may be malignant  这 肯 定 只 是他们上门拜访的表面原因，他们背后的动机说不定恶劣至极。</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
           <t>outgrowth</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>n. 结果，后果： a condition or occurrence traceable to a cause</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>Crime is often an outgrowth of poverty.  犯罪往往可以归因于贫穷。
 A predictable outgrowth of thesuburb’s ever growing population will be the need for more schools.   郊区人口攀升所导致的一个可以预见的后果就是需要更多的学校。</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>outmoded</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>adj. 过时的，废弃的： no longer acceptable, current, or usable</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>outmoded computers that can be recycled  可供回收的废旧电脑</t>
-        </is>
-      </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3011,104 +3023,112 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
+          <t>outmoded</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>adj. 过时的，废弃的： no longer acceptable, current, or usable</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>outmoded computers that can be recycled  可供回收的废旧电脑</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
           <t>override</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>vt. 不顾： to set aside</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>The Congress overrode the President’s veto and passed the law.  国会不顾总统的否决，强行通过了那项法令。
 He overrode all opposition to his plans.  他对所有的反对意见不闻不问。</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>overwhelm</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>vt. 淹没： to cover with or as if with a flood
 vt. （感情上、精神上）使无所适从，使难以承受： to subject to incapacitating emotional or mentalstress</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>That spring the massive runoff from melting snows overwhelmed the valley.   那个春天，整个村庄被融雪形成的洪流吞没了。
 Just the thought of how much work there is to do overwhelms me.  仅仅是想想还有多少工作没完成就几乎让我喘不过气了。</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>panacea</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>n. 万能药，万灵药： a remedy for all ills or difficulties</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>a woman who seems to believe that chicken soup is a panacea for nearly everything  一 个 相 信 鸡 汤 是万能灵药的妇女
 Bicycles are not a panacea for the traffic problem.   自行车并不是解决交通问题的万能药。</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>perquisite</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>n. 额外的好处： something given in addition to what is ordinarily expected or owed</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>give the movers a perquisite if they do a good job  如果搬家工人做得好就会获得一定的小费
 The use ofa company car is one perquisite of the job.   能使用公司的汽车是这项工作的附加好处之一。</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>petulant</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3118,68 +3138,60 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
+          <t>petulant</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
           <t>pitfall</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>n. 陷阱： a pit flimsily covered or camouflaged and used to capture and hold animals or men
 n. （不易察觉的）危害： a hidden or not easily recognized danger or difficulty</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>caught in a pitfall  掉下了陷阱
 Renting a house can be full of pitfalls for the unwary.   对 于 那 些 不 注 意的人来说租房也是危机四伏的。
 One of the pitfalls of ignorance is that people will also assume you are stupid.   无知的一个危害就是，人们总会假设你一无所知。</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>placid</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>adj. 宁静的，风平浪静的： free from storms or physical disturbance
 adj. 冷静的，淡定的： free from emotional or mental agitation</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>a vacation in the placid lake community  在宁静的湖区度过的假日
 I know an exceptionally placid mother who was rarely upset by her six children  我 认 识 一个 异 常淡 定的母亲，她几乎从未因为自己的六个孩子而烦恼过。</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>playful</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>adj. 爱开玩笑的，好打闹的： given to good-natured joking or teasing</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>The little girl was lighthearted and playful.   小女孩性格很轻松愉快，喜欢和别人打闹。</t>
-        </is>
-      </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3189,42 +3201,42 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
+          <t>playful</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>adj. 爱开玩笑的，好打闹的： given to good-natured joking or teasing</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>The little girl was lighthearted and playful.   小女孩性格很轻松愉快，喜欢和别人打闹。</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
           <t>prerequisite</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>n. 先决条件，前提： something that is necessary to an end or to the carrying out of a function</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>Competence is prerequisite to promotion.   能力是提升的必要条件。
 I don’t think a large dwelling place isa prerequisite for a happy life.   我并不认为大的住所就能带来幸福的生活。</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>prerogative</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>n. 特权，权力： an exclusive or special right, power, or privilege</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>It is your prerogative to refuse to attend religious services.   你有权力不参加宗教活动。</t>
-        </is>
-      </c>
       <c r="D123" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3234,15 +3246,19 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>proclaim</t>
+          <t>prerogative</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>vt. 宣告，使…公之于众： to declare publicly, typically insistently, proudly, or defiantly and in either</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
+          <t>n. 特权，权力： an exclusive or special right, power, or privilege</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>It is your prerogative to refuse to attend religious services.   你有权力不参加宗教活动。</t>
+        </is>
+      </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3252,66 +3268,62 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
+          <t>proclaim</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>vt. 宣告，使…公之于众： to declare publicly, typically insistently, proudly, or defiantly and in either</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
           <t>project</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>n. 方案，计划： a specific plan or design
 vi. 凸出： to extend outward beyond a usual point
 vt. 预测，预计： to calculate, estimate, or predict (something in the future), based on present data ortrends</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>an ambitious project to develop the city’s underground transport  一项开发城市地下交通系统的雄心勃勃的计划
 Some boulders projected dangerously out above the trail.   一些巨石非常危险地在道路上凸了出来。
 projecting next year’s expenses  预测明年的开销</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>proprietary</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>n. 所有权： ownership
 adj. 私营的： privately owned and managed and run as a profit-making organization</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>a proprietary hospital  私人医院</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>prototype</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>n. 原型： an original model on which something is patterned</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>The manufacturer exhaustively tested the prototype of the vehicle before approving production.   生 产 商在将该车型投入生产之前对其原型进行了详细的测试。</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3323,11 +3335,19 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>redeem</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
+          <t>prototype</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>n. 原型： an original model on which something is patterned</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>The manufacturer exhaustively tested the prototype of the vehicle before approving production.   生 产 商在将该车型投入生产之前对其原型进行了详细的测试。</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3337,43 +3357,35 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
+          <t>redeem</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
           <t>replicate</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>vt. 复制，复刻： to make an exact likeness of
 vt. 重复，反复： to make or do again</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>replicated the famous painting in our art class  在艺术课上复刻一幅名画
 I cannot replicate your results when I do the experiment myself.   我自己的实验里无法重复你的结果。</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>restitution</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>n. 补偿，赔偿： a making good of or giving an equivalent for some injury</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>The victims are demanding full restitution.   受害者要求全额补偿。</t>
-        </is>
-      </c>
       <c r="D130" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3383,42 +3395,42 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
+          <t>restitution</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>n. 补偿，赔偿： a making good of or giving an equivalent for some injury</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>The victims are demanding full restitution.   受害者要求全额补偿。</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
           <t>resurrect</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>vt. 使重生，使复苏： to bring back to life, practice, or activity</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>believed that his body would be resurrected  相信他的身体将会复活
 Attempts are being made by bothparties to resurrect the stalled arms negotiations.   双方正在努力重启受阻的武装谈判。</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>retrieve</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>vt. 寻回，找回： to get back again</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>I needed to retrieve the book from my friend so I could return it to the library.   我需要先把书从朋友那里拿回来才能还给图书馆。</t>
-        </is>
-      </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3428,17 +3440,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>reverberate</t>
+          <t>retrieve</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>vi. 回荡，回响： to continue or be repeated in a series of reflected sound waves</t>
+          <t>vt. 寻回，找回： to get back again</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>The sound of thunder reverberated from one end of the mountain pass to the other.  打 雷 的 声 音 在 山间不断回荡。</t>
+          <t>I needed to retrieve the book from my friend so I could return it to the library.   我需要先把书从朋友那里拿回来才能还给图书馆。</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3450,17 +3462,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ruthless</t>
+          <t>reverberate</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>adj. 没有怜悯心的，残忍的： having no pity</t>
+          <t>vi. 回荡，回响： to continue or be repeated in a series of reflected sound waves</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>an office supervisor with a ruthless disregard for others’ feelings  一个从不顾及他人感情的无情领导</t>
+          <t>The sound of thunder reverberated from one end of the mountain pass to the other.  打 雷 的 声 音 在 山间不断回荡。</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3472,17 +3484,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>scourge</t>
+          <t>ruthless</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>n. 祸害： a source of harm or misfortune</t>
+          <t>adj. 没有怜悯心的，残忍的： having no pity</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve">The sheer ubiquity of food seems to be the scourge of humanity, as evidenced by the obesity epidemic.  </t>
+          <t>an office supervisor with a ruthless disregard for others’ feelings  一个从不顾及他人感情的无情领导</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3494,17 +3506,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>scruple</t>
+          <t>scourge</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>n. （良心上的）不安： an uneasy feeling about the rightness of what one is doing or going to do</t>
+          <t>n. 祸害： a source of harm or misfortune</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>The survey showed that many students had few scruples about cheating on papers or exams.   调 查 显示很多学生对于在考试时作弊没有丝毫的愧疚。</t>
+          <t xml:space="preserve">The sheer ubiquity of food seems to be the scourge of humanity, as evidenced by the obesity epidemic.  </t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3516,17 +3528,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>sectarianism</t>
+          <t>scruple</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>n. 宗派主义，顽固： stubborn or intolerant adherence to one's opinions or prejudices</t>
+          <t>n. （良心上的）不安： an uneasy feeling about the rightness of what one is doing or going to do</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve">An ideological sectarianism prevented the political party from ever being anything more than a fringe group.  </t>
+          <t>The survey showed that many students had few scruples about cheating on papers or exams.   调 查 显示很多学生对于在考试时作弊没有丝毫的愧疚。</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3538,17 +3550,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>secular</t>
+          <t>sectarianism</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>adj. 世俗的，尘世的： of or relating to the worldly or temporal</t>
+          <t>n. 宗派主义，顽固： stubborn or intolerant adherence to one's opinions or prejudices</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>That’s an issue for the secular authorities, not the church.   这个问题和宗教无关，是一个世俗事务。</t>
+          <t xml:space="preserve">An ideological sectarianism prevented the political party from ever being anything more than a fringe group.  </t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3560,17 +3572,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>sparing</t>
+          <t>secular</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>adj. 节俭的，节约的： marked by or practicing careful restraint (as in the use of resources)</t>
+          <t>adj. 世俗的，尘世的： of or relating to the worldly or temporal</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>The sparing couple are trying to save up enough for a house.  节俭的夫妻希望能够攒钱买套房。</t>
+          <t>That’s an issue for the secular authorities, not the church.   这个问题和宗教无关，是一个世俗事务。</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3582,17 +3594,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>sparing</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>n. 成见，老套的理念： a conventional, formulaic, and oversimplified conception, opinion, or image</t>
+          <t>adj. 节俭的，节约的： marked by or practicing careful restraint (as in the use of resources)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>The noble savage was a stereotype that appealed to 18th-century intellectuals, who viewed Europeancivilization as decadent and corrupt.   “高贵的野蛮人”这一概念是为了迎合十八世纪的文人而提出的，他们将欧洲视作一支正在堕落和腐化的文明。</t>
+          <t>The sparing couple are trying to save up enough for a house.  节俭的夫妻希望能够攒钱买套房。</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3604,68 +3616,68 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
+          <t>stereotype</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>n. 成见，老套的理念： a conventional, formulaic, and oversimplified conception, opinion, or image</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>The noble savage was a stereotype that appealed to 18th-century intellectuals, who viewed Europeancivilization as decadent and corrupt.   “高贵的野蛮人”这一概念是为了迎合十八世纪的文人而提出的，他们将欧洲视作一支正在堕落和腐化的文明。</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
           <t>substitute</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>n. 取代者，替代品： a person or thing that takes the place or function of another
 vt. 取代，替代： to take the place of</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>If you like, you can use nuts as a substitute for coconut in that recipe.  如果您不反对，我们可以将菜单里的椰子换成坚果。
 substituting moral power for physical force  将暴力用道德的力量代替
 BFR molecules have someatoms substituted by bromide atoms, which makes it fire-resistant.   在溴化阻燃剂的分子中，一部分原子被溴原子取代，从而使它不易燃烧。</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>succumb</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>vi. 屈服： to yield to superior strength or force or overpowering appeal or desire
 vi. 死亡： to be brought to an end (as death) by the effect of destructive or disruptive forces</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t xml:space="preserve">refused to succumb to her fears and defiantly walked through the dark cemetery  拒绝向自己的恐惧屈服，而是倔强地走过了幽暗的墓地
 The patient lay so still and pale that everyone thought he had succumbed, and then he opened his eyes.  </t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>supersede</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>vt. 取代，替代： to displace in favor of another</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>That edition of the dictionary that you have has been superseded by a more recent one.  你 买 的 那 一版的字典已经被最近新出的版本取代了。</t>
-        </is>
-      </c>
       <c r="D143" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3675,15 +3687,19 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>surly</t>
+          <t>supersede</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>adj. 脾气不好的： irritably sullen and churlish in mood or manner</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
+          <t>vt. 取代，替代： to displace in favor of another</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>That edition of the dictionary that you have has been superseded by a more recent one.  你 买 的 那 一版的字典已经被最近新出的版本取代了。</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3693,19 +3709,15 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>surmise</t>
+          <t>surly</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>n. （根据不足的）推测，揣测： a thought or idea based on scanty evidence</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t xml:space="preserve">My surmise is that the couple’s “good news” is the announcement that they are going to have a baby.  </t>
-        </is>
-      </c>
+          <t>adj. 脾气不好的： irritably sullen and churlish in mood or manner</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3715,17 +3727,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>surmount</t>
+          <t>surmise</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>vt. 战胜，获得胜利： to achieve a victory over</t>
+          <t>n. （根据不足的）推测，揣测： a thought or idea based on scanty evidence</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>an Olympic swimmer who surmounted endless obstacles to achieve her goals  一个克服重重困难最终实现目标的奥运游泳运动员</t>
+          <t xml:space="preserve">My surmise is that the couple’s “good news” is the announcement that they are going to have a baby.  </t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3737,17 +3749,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>surrogate</t>
+          <t>surmount</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>n. 替代品： one that takes the place of another</t>
+          <t>vt. 战胜，获得胜利： to achieve a victory over</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>For some people, Google Earth is never a justified surrogate for actual travel.   对于一部分人而言，谷歌地球决不是旅行的合理替代品。</t>
+          <t>an Olympic swimmer who surmounted endless obstacles to achieve her goals  一个克服重重困难最终实现目标的奥运游泳运动员</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3759,40 +3771,40 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
+          <t>surrogate</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>n. 替代品： one that takes the place of another</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>For some people, Google Earth is never a justified surrogate for actual travel.   对于一部分人而言，谷歌地球决不是旅行的合理替代品。</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
           <t>tame</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>adj. 被驯化的： reduced from a state of native wildness especially so as to be tractable and usefulto humans
 adj. 无聊的，乏味的： lacking spirit, zest, interest, or the capacity to excite</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>Every evening, a wild Canada goose is at the food trough with our tame geese.  每 天 傍 晚的 食 槽边 总会出现一只野生加拿大鹅和我们的饲养家鹅一起进食。</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>tangle</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>n. 困惑，不解： a state of perplexity or complete bewilderment</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t xml:space="preserve">My mind has been in a tangle ever since I learned some information about an old, deceased acquaintance.  </t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3804,17 +3816,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>teeming</t>
+          <t>tangle</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>adj. 大量的： possessing or covered with great numbers or amounts of something specified</t>
+          <t>n. 困惑，不解： a state of perplexity or complete bewilderment</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>oceans teeming with life  孕育着无穷生命的海洋</t>
+          <t xml:space="preserve">My mind has been in a tangle ever since I learned some information about an old, deceased acquaintance.  </t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3826,17 +3838,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>temporal</t>
+          <t>teeming</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>adj. 世俗的，尘世的： of or relating to earthly life</t>
+          <t>adj. 大量的： possessing or covered with great numbers or amounts of something specified</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t xml:space="preserve">The master told his disciples not to worry about temporal concerns, but instead focus on spiritual matters.  </t>
+          <t>oceans teeming with life  孕育着无穷生命的海洋</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3848,17 +3860,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>tentative</t>
+          <t>temporal</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>adj. 暂时性的，尝试的： not fully worked out or developed</t>
+          <t>adj. 世俗的，尘世的： of or relating to earthly life</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Our plans are only tentative at this point and will depend on whether you can come.  我 们 的 计 划 只 是暂时性的，具体还要看你能否前来。</t>
+          <t xml:space="preserve">The master told his disciples not to worry about temporal concerns, but instead focus on spiritual matters.  </t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3870,17 +3882,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>tyrant</t>
+          <t>tentative</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>n. 暴君： a ruler who exercises absolute power oppressively or brutally</t>
+          <t>adj. 暂时性的，尝试的： not fully worked out or developed</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>The people universally feared the tyrant, who was notorious for his frequent use of torture.   人 们 非 常 恐惧这个暴君，因为他有着经常折磨犯人的臭名。</t>
+          <t>Our plans are only tentative at this point and will depend on whether you can come.  我 们 的 计 划 只 是暂时性的，具体还要看你能否前来。</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3892,17 +3904,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>unanimous</t>
+          <t>tyrant</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>adj. 一致同意的： having the agreement and consent of all</t>
+          <t>n. 暴君： a ruler who exercises absolute power oppressively or brutally</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>a unanimous vote to upgrade the school’s computer facilities  一致同意对学校的计算机设备进行升级</t>
+          <t>The people universally feared the tyrant, who was notorious for his frequent use of torture.   人 们 非 常 恐惧这个暴君，因为他有着经常折磨犯人的臭名。</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3914,17 +3926,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>unremitting</t>
+          <t>unanimous</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>adj. 连续不断的： going on and on without any interruptions</t>
+          <t>adj. 一致同意的： having the agreement and consent of all</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Unremitting rain lasted for six days.   连续下了六天的雨。</t>
+          <t>a unanimous vote to upgrade the school’s computer facilities  一致同意对学校的计算机设备进行升级</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3936,43 +3948,43 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
+          <t>unremitting</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>adj. 连续不断的： going on and on without any interruptions</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Unremitting rain lasted for six days.   连续下了六天的雨。</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
           <t>versed</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t>adj. 熟知的： having information especially as a result of study or experience
 adj. 精通的： having or showing exceptional knowledge, experience, or skill in a field of endeavor</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>versed in the latest developments in aeronautics  熟知当今航空业的发展情况
 well versed in the techniques of laser surgery  精通激光手术方面的技术</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>vocation</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>n. 职业： the work in which a person is regularly employed</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>finally made soccer her vocation instead of just a hobby  终于将足球从爱好升级为谋生的职业</t>
-        </is>
-      </c>
       <c r="D157" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3982,17 +3994,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>voyeur</t>
+          <t>vocation</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>n. 淫窥狂： one obtaining sexual gratification from observing unsuspecting individuals who arepartly undressed, naked, or engaged in sexual acts</t>
+          <t>n. 职业： the work in which a person is regularly employed</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>They accidentally found out that their ostensibly benign neighbor is actually a voyeur.   他 们 偶 然 间 发 现那个表面和善的邻居居然是一个偷窥狂。</t>
+          <t>finally made soccer her vocation instead of just a hobby  终于将足球从爱好升级为谋生的职业</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4004,43 +4016,43 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
+          <t>voyeur</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>n. 淫窥狂： one obtaining sexual gratification from observing unsuspecting individuals who arepartly undressed, naked, or engaged in sexual acts</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>They accidentally found out that their ostensibly benign neighbor is actually a voyeur.   他 们 偶 然 间 发 现那个表面和善的邻居居然是一个偷窥狂。</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
           <t>willful</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>adj. 固执的，倔强的： obstinately and often perversely self-willed
 adj. 故意的： done deliberately</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>Finally the parents sought professional counseling for the willful child.  最终家长不得不为倔强的小孩寻求专业咨询。
 a willful attempt to cheat her siblings out of their rightful inheritance  一个想将继承权从她的姊妹手里骗过来的故意企图</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>wistful</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>adj. （带着忧伤而）渴望的，怀念的： full of yearning or desire tinged with melancholy</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>There was a wistful look in his eyes when he spoke of his childhood.   当他谈起他的童年时，眼眶中不禁流露出一种带有忧伤的怀念之情。</t>
-        </is>
-      </c>
       <c r="D160" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -4050,20 +4062,42 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
+          <t>wistful</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>adj. （带着忧伤而）渴望的，怀念的： full of yearning or desire tinged with melancholy</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>There was a wistful look in his eyes when he spoke of his childhood.   当他谈起他的童年时，眼眶中不禁流露出一种带有忧伤的怀念之情。</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
           <t>wrongheaded</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>adj. 固执己见的，坚持（错误观点）的： stubborn in adherence to wrong opinion or principles</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>In spite of other’s objections, he is always wrongheaded in his opinions.   他总是不管他人的反对而坚持自己哪怕是错误的观点。</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>
